--- a/docs/backup/cuenta_3940694600.xlsx
+++ b/docs/backup/cuenta_3940694600.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\php-projects\dml2\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\php-projects\dml2\docs\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="693">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -2040,6 +2040,69 @@
   </si>
   <si>
     <t>164.91</t>
+  </si>
+  <si>
+    <t>0009298728</t>
+  </si>
+  <si>
+    <t>256.37  </t>
+  </si>
+  <si>
+    <t>47.13</t>
+  </si>
+  <si>
+    <t>0009269866</t>
+  </si>
+  <si>
+    <t>36.73  </t>
+  </si>
+  <si>
+    <t>303.50</t>
+  </si>
+  <si>
+    <t>13849037-COSTO IVA CASH-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0009259585</t>
+  </si>
+  <si>
+    <t>266.77</t>
+  </si>
+  <si>
+    <t>13849037-COSTO OPER CASH-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0009259581</t>
+  </si>
+  <si>
+    <t>266.81</t>
+  </si>
+  <si>
+    <t>13849037-EMAP Q-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0009259554</t>
+  </si>
+  <si>
+    <t>9.83  </t>
+  </si>
+  <si>
+    <t>267.12</t>
+  </si>
+  <si>
+    <t>0008633296</t>
+  </si>
+  <si>
+    <t>276.95</t>
+  </si>
+  <si>
+    <t>13842933-MEGADATOS S.A -CB-1500583339</t>
+  </si>
+  <si>
+    <t>0005722422</t>
+  </si>
+  <si>
+    <t>76.95</t>
   </si>
 </sst>
 </file>
@@ -2362,10 +2425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H230"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="H7" sqref="H1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,383 +2440,403 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41792</v>
+        <v>41793</v>
       </c>
       <c r="B1" t="s">
-        <v>665</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-02'), 'mo_concepto' =&gt; '13812027-MOVISTAR -CB-7872717', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0014484033', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 11.81  , 'mo_saldo' =&gt; 153.10, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-02 22:2:9'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H7" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009298728', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 256.37  , 'mo_saldo' =&gt; 47.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-03 20:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41792</v>
+        <v>41793</v>
       </c>
       <c r="B2" t="s">
-        <v>669</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="E2" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>206</v>
+        <v>676</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-02'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/KENNEDY 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007439069', 'mo_oficina' =&gt; 'KENNEDY', 'mo_monto' =&gt; 60.00  , 'mo_saldo' =&gt; 164.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-02 22:2:9'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0009269866', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 36.73  , 'mo_saldo' =&gt; 303.50, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-03 20:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41792</v>
+        <v>41793</v>
       </c>
       <c r="B3" t="s">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>659</v>
+        <v>679</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>660</v>
+        <v>680</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-03'), 'mo_concepto' =&gt; '13849037-COSTO IVA CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009259585', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.04  , 'mo_saldo' =&gt; 266.77, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-03 20:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41789</v>
+        <v>41793</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>681</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>661</v>
+        <v>682</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>662</v>
+        <v>683</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-03'), 'mo_concepto' =&gt; '13849037-COSTO OPER CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009259581', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.31  , 'mo_saldo' =&gt; 266.81, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-03 20:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41789</v>
+        <v>41793</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>684</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>663</v>
+        <v>685</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>686</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>664</v>
+        <v>687</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-03'), 'mo_concepto' =&gt; '13849037-EMAP Q-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009259554', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 9.83  , 'mo_saldo' =&gt; 267.12, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-03 20:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41789</v>
+        <v>41793</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>570</v>
+        <v>67</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>657</v>
+        <v>689</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0008633296', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 200.00  , 'mo_saldo' =&gt; 276.95, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-03 20:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B7" t="s">
-        <v>644</v>
+        <v>690</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>645</v>
+        <v>691</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>646</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>647</v>
+        <v>692</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-03'), 'mo_concepto' =&gt; '13842933-MEGADATOS S.A -CB-1500583339', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005722422', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 76.15  , 'mo_saldo' =&gt; 76.95, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-03 20:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="B8" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>669</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>570</v>
+        <v>206</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="B10" t="s">
-        <v>439</v>
+        <v>658</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>435</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41785</v>
+        <v>41789</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>640</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>71</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41785</v>
+        <v>41789</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>642</v>
+        <v>32</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41782</v>
+        <v>41789</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>509</v>
+        <v>656</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>570</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>510</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41781</v>
+        <v>41788</v>
       </c>
       <c r="B14" t="s">
-        <v>511</v>
+        <v>644</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>512</v>
+        <v>645</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>513</v>
+        <v>646</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>514</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41781</v>
+        <v>41788</v>
       </c>
       <c r="B15" t="s">
-        <v>515</v>
+        <v>648</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>516</v>
+        <v>649</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>517</v>
+        <v>650</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>518</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41781</v>
+        <v>41788</v>
       </c>
       <c r="B16" t="s">
-        <v>519</v>
+        <v>329</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>520</v>
+        <v>652</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>187</v>
+        <v>570</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>521</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41781</v>
+        <v>41788</v>
       </c>
       <c r="B17" t="s">
         <v>439</v>
@@ -2762,591 +2845,591 @@
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>522</v>
+        <v>654</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>523</v>
+        <v>435</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>524</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41780</v>
+        <v>41785</v>
       </c>
       <c r="B18" t="s">
-        <v>525</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>526</v>
+        <v>639</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>527</v>
+        <v>640</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>528</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41780</v>
+        <v>41785</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>526</v>
+        <v>641</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>320</v>
+        <v>642</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>529</v>
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41780</v>
+        <v>41782</v>
       </c>
       <c r="B20" t="s">
-        <v>322</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>323</v>
+        <v>32</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>511</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>239</v>
+        <v>513</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41779</v>
+        <v>41781</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>515</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41779</v>
+        <v>41781</v>
       </c>
       <c r="B23" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41779</v>
+        <v>41781</v>
       </c>
       <c r="B24" t="s">
-        <v>539</v>
+        <v>439</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>62</v>
+        <v>523</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B25" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41778</v>
+        <v>41780</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>547</v>
+        <v>320</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41775</v>
+        <v>41780</v>
       </c>
       <c r="B27" t="s">
-        <v>549</v>
+        <v>322</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>551</v>
+        <v>323</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41775</v>
+        <v>41780</v>
       </c>
       <c r="B28" t="s">
-        <v>553</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41775</v>
+        <v>41779</v>
       </c>
       <c r="B29" t="s">
-        <v>556</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="E29" t="s">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>19</v>
+        <v>534</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41774</v>
+        <v>41779</v>
       </c>
       <c r="B30" t="s">
-        <v>281</v>
+        <v>536</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>561</v>
+        <v>59</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41774</v>
+        <v>41779</v>
       </c>
       <c r="B31" t="s">
-        <v>329</v>
+        <v>539</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>564</v>
+        <v>62</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41773</v>
+        <v>41779</v>
       </c>
       <c r="B32" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>11</v>
+        <v>544</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41772</v>
+        <v>41778</v>
       </c>
       <c r="B33" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41772</v>
+        <v>41775</v>
       </c>
       <c r="B34" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="E34" t="s">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>187</v>
+        <v>551</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41772</v>
+        <v>41775</v>
       </c>
       <c r="B35" t="s">
-        <v>576</v>
+        <v>553</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="E35" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41771</v>
+        <v>41775</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>556</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>580</v>
+        <v>19</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41771</v>
+        <v>41774</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>281</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41771</v>
+        <v>41774</v>
       </c>
       <c r="B38" t="s">
-        <v>585</v>
+        <v>329</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41771</v>
+        <v>41773</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>566</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>583</v>
+        <v>11</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>206</v>
+        <v>570</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B41" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="E41" t="s">
-        <v>2</v>
+        <v>574</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>392</v>
+        <v>187</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>576</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="E42" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>594</v>
+        <v>239</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3354,22 +3437,22 @@
         <v>41771</v>
       </c>
       <c r="B43" t="s">
-        <v>596</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="E43" t="s">
-        <v>574</v>
+        <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3377,22 +3460,22 @@
         <v>41771</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3400,22 +3483,22 @@
         <v>41771</v>
       </c>
       <c r="B45" t="s">
-        <v>556</v>
+        <v>585</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="E45" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>32</v>
+        <v>583</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3423,22 +3506,22 @@
         <v>41771</v>
       </c>
       <c r="B46" t="s">
-        <v>556</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="E46" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>32</v>
+        <v>583</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3446,22 +3529,22 @@
         <v>41771</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3469,487 +3552,487 @@
         <v>41771</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>590</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>608</v>
+        <v>392</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B49" t="s">
-        <v>610</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>574</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B50" t="s">
-        <v>329</v>
+        <v>596</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>574</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="B51" t="s">
-        <v>556</v>
+        <v>329</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="E51" t="s">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>32</v>
+        <v>570</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="B52" t="s">
-        <v>439</v>
+        <v>556</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="E52" t="s">
         <v>558</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>619</v>
+        <v>32</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B53" t="s">
-        <v>621</v>
+        <v>556</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>71</v>
+        <v>604</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B54" t="s">
-        <v>623</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B55" t="s">
-        <v>626</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41765</v>
+        <v>41768</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>610</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41765</v>
+        <v>41768</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41761</v>
+        <v>41766</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>556</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>71</v>
+        <v>617</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41761</v>
+        <v>41766</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41759</v>
+        <v>41765</v>
       </c>
       <c r="B60" t="s">
-        <v>505</v>
+        <v>621</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="E60" t="s">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>507</v>
+        <v>59</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>508</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="B61" t="s">
-        <v>439</v>
+        <v>623</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>499</v>
+        <v>624</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>500</v>
+        <v>62</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>501</v>
+        <v>625</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>626</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>502</v>
+        <v>627</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>503</v>
+        <v>628</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>504</v>
+        <v>629</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41754</v>
+        <v>41765</v>
       </c>
       <c r="B63" t="s">
-        <v>495</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>496</v>
+        <v>630</v>
       </c>
       <c r="E63" t="s">
-        <v>497</v>
+        <v>18</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>7</v>
+        <v>631</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>498</v>
+        <v>632</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41745</v>
+        <v>41765</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>477</v>
+        <v>633</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>478</v>
+        <v>628</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>479</v>
+        <v>634</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41744</v>
+        <v>41761</v>
       </c>
       <c r="B65" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>481</v>
+        <v>635</v>
       </c>
       <c r="E65" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>482</v>
+        <v>127</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>483</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41743</v>
+        <v>41761</v>
       </c>
       <c r="B66" t="s">
-        <v>484</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>485</v>
+        <v>636</v>
       </c>
       <c r="E66" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>486</v>
+        <v>637</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>487</v>
+        <v>638</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41743</v>
+        <v>41759</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>505</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>19</v>
+        <v>507</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41743</v>
+        <v>41758</v>
       </c>
       <c r="B68" t="s">
-        <v>490</v>
+        <v>439</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="E68" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41743</v>
+        <v>41758</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
@@ -3958,596 +4041,596 @@
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="E69" t="s">
         <v>18</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41740</v>
+        <v>41754</v>
       </c>
       <c r="B70" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="E70" t="s">
-        <v>58</v>
+        <v>497</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41740</v>
+        <v>41745</v>
       </c>
       <c r="B71" t="s">
-        <v>458</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="E71" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>62</v>
+        <v>478</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41740</v>
+        <v>41744</v>
       </c>
       <c r="B72" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="E72" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41739</v>
+        <v>41743</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>484</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41739</v>
+        <v>41743</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="E74" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41739</v>
+        <v>41743</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>490</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41739</v>
+        <v>41743</v>
       </c>
       <c r="B76" t="s">
-        <v>473</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41738</v>
+        <v>41740</v>
       </c>
       <c r="B77" t="s">
-        <v>336</v>
+        <v>455</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E77" t="s">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41738</v>
+        <v>41740</v>
       </c>
       <c r="B78" t="s">
-        <v>291</v>
+        <v>458</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>451</v>
+        <v>62</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41737</v>
+        <v>41740</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="B80" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>327</v>
+        <v>466</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="B81" t="s">
-        <v>439</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="E81" t="s">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>435</v>
+        <v>187</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="B82" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="B83" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41736</v>
+        <v>41738</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>336</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>419</v>
+        <v>32</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41736</v>
+        <v>41738</v>
       </c>
       <c r="B85" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>331</v>
+        <v>451</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41733</v>
+        <v>41737</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41733</v>
+        <v>41737</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>407</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="E87" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41732</v>
+        <v>41736</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="E88" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41731</v>
+        <v>41736</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>442</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41731</v>
+        <v>41736</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>67</v>
+        <v>448</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41731</v>
+        <v>41736</v>
       </c>
       <c r="B91" t="s">
-        <v>407</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>327</v>
+        <v>419</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41730</v>
+        <v>41736</v>
       </c>
       <c r="B92" t="s">
-        <v>410</v>
+        <v>329</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="E92" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>412</v>
+        <v>331</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41730</v>
+        <v>41733</v>
       </c>
       <c r="B93" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>32</v>
+        <v>424</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41729</v>
+        <v>41733</v>
       </c>
       <c r="B94" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="E94" t="s">
         <v>140</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41729</v>
+        <v>41732</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
@@ -4556,131 +4639,131 @@
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="E95" t="s">
         <v>18</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>373</v>
+        <v>430</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B96" t="s">
-        <v>374</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="E96" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>59</v>
+        <v>432</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>376</v>
+        <v>433</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B97" t="s">
-        <v>377</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="E97" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B98" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="E98" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>410</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>388</v>
+        <v>32</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4688,22 +4771,22 @@
         <v>41729</v>
       </c>
       <c r="B101" t="s">
-        <v>390</v>
+        <v>209</v>
       </c>
       <c r="C101" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="E101" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>392</v>
+        <v>40</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4711,22 +4794,22 @@
         <v>41729</v>
       </c>
       <c r="B102" t="s">
-        <v>393</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4734,22 +4817,22 @@
         <v>41729</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>374</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="E103" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4757,22 +4840,22 @@
         <v>41729</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>377</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="E104" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4780,22 +4863,22 @@
         <v>41729</v>
       </c>
       <c r="B105" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4803,22 +4886,22 @@
         <v>41729</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4826,482 +4909,482 @@
         <v>41729</v>
       </c>
       <c r="B107" t="s">
-        <v>367</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>390</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="E109" t="s">
         <v>10</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="E110" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>350</v>
+        <v>37</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="E111" t="s">
         <v>2</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>397</v>
       </c>
       <c r="C112" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="E112" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>40</v>
+        <v>399</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>367</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>7</v>
+        <v>369</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41722</v>
+        <v>41725</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>32</v>
+        <v>362</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41722</v>
+        <v>41725</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="E116" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>32</v>
+        <v>359</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41719</v>
+        <v>41725</v>
       </c>
       <c r="B117" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E117" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41718</v>
+        <v>41724</v>
       </c>
       <c r="B118" t="s">
-        <v>329</v>
+        <v>36</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="E118" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41718</v>
+        <v>41724</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>334</v>
+        <v>40</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41718</v>
+        <v>41724</v>
       </c>
       <c r="B120" t="s">
-        <v>336</v>
+        <v>42</v>
       </c>
       <c r="C120" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="E120" t="s">
-        <v>338</v>
+        <v>43</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>192</v>
+        <v>356</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B121" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="E121" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>271</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="E122" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>273</v>
+        <v>345</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>274</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41717</v>
+        <v>41719</v>
       </c>
       <c r="B124" t="s">
-        <v>36</v>
+        <v>340</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="E124" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>37</v>
+        <v>342</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>276</v>
+        <v>343</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B125" t="s">
-        <v>39</v>
+        <v>329</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="E125" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="E126" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B127" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -5309,252 +5392,252 @@
         <v>41717</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E128" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>33</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B129" t="s">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="E129" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B130" t="s">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="C130" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E130" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B131" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>293</v>
+        <v>37</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>33</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B132" t="s">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>295</v>
+        <v>40</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B133" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C133" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="E133" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>37</v>
+        <v>279</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B134" t="s">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E134" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B135" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C135" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E135" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>301</v>
+        <v>192</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>302</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E136" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B137" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E137" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B138" t="s">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="E138" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>308</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5562,22 +5645,22 @@
         <v>41715</v>
       </c>
       <c r="B139" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E139" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5585,22 +5668,22 @@
         <v>41715</v>
       </c>
       <c r="B140" t="s">
-        <v>312</v>
+        <v>36</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>314</v>
+        <v>37</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5608,22 +5691,22 @@
         <v>41715</v>
       </c>
       <c r="B141" t="s">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>318</v>
+        <v>40</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5631,22 +5714,22 @@
         <v>41715</v>
       </c>
       <c r="B142" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C142" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5654,22 +5737,22 @@
         <v>41715</v>
       </c>
       <c r="B143" t="s">
-        <v>322</v>
+        <v>36</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>323</v>
+        <v>37</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5677,220 +5760,220 @@
         <v>41715</v>
       </c>
       <c r="B144" t="s">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C145" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="E145" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B146" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>41709</v>
+        <v>41715</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>312</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="E147" t="s">
         <v>10</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>175</v>
+        <v>314</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B148" t="s">
-        <v>258</v>
+        <v>316</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="E148" t="s">
         <v>10</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="E149" t="s">
         <v>10</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>264</v>
+        <v>321</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B150" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="E150" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>59</v>
+        <v>323</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>248</v>
+        <v>324</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B151" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="E151" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>62</v>
+        <v>327</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>41708</v>
+        <v>41712</v>
       </c>
       <c r="B152" t="s">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E152" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>41708</v>
+        <v>41711</v>
       </c>
       <c r="B153" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="E153" t="s">
         <v>31</v>
@@ -5899,1493 +5982,1493 @@
         <v>32</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>41705</v>
+        <v>41709</v>
       </c>
       <c r="B154" t="s">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="E154" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="E155" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B156" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="E156" t="s">
         <v>10</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>234</v>
+        <v>59</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B158" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="E158" t="s">
-        <v>238</v>
+        <v>58</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B159" t="s">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="E159" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>41698</v>
+        <v>41708</v>
       </c>
       <c r="B160" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="E160" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>41698</v>
+        <v>41705</v>
       </c>
       <c r="B161" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="C161" t="s">
         <v>1</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="E161" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B162" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="C162" t="s">
         <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E162" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>41697</v>
+        <v>41703</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="E163" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>41696</v>
+        <v>41703</v>
       </c>
       <c r="B164" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E164" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>41696</v>
+        <v>41703</v>
       </c>
       <c r="B165" t="s">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="E165" t="s">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>41696</v>
+        <v>41703</v>
       </c>
       <c r="B166" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="E166" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>41690</v>
+        <v>41698</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C167" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E167" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>41689</v>
+        <v>41698</v>
       </c>
       <c r="B168" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
         <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="E168" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>41689</v>
+        <v>41698</v>
       </c>
       <c r="B169" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="E169" t="s">
         <v>2</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>41689</v>
+        <v>41697</v>
       </c>
       <c r="B170" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C170" t="s">
         <v>17</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E170" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B171" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="C171" t="s">
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="E171" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B172" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="C172" t="s">
         <v>1</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="E172" t="s">
         <v>2</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B173" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C173" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="E173" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>41687</v>
+        <v>41690</v>
       </c>
       <c r="B174" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C174" t="s">
         <v>1</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E174" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B175" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="E175" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C177" t="s">
         <v>17</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="E177" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>41684</v>
+        <v>41689</v>
       </c>
       <c r="B178" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C178" t="s">
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E178" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B179" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="C179" t="s">
         <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E179" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B180" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="E180" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B181" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C181" t="s">
         <v>1</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="E181" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B182" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="C182" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="E182" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B183" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="E183" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B185" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="C185" t="s">
         <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B186" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B187" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C187" t="s">
         <v>1</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="E187" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>41680</v>
+        <v>41682</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="C188" t="s">
         <v>1</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E188" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>41680</v>
+        <v>41682</v>
       </c>
       <c r="B189" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="C189" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E189" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B190" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="C190" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="E190" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B191" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="E191" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B192" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="E192" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="C193" t="s">
         <v>1</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="E193" t="s">
         <v>10</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B194" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="C194" t="s">
         <v>1</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="E194" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B195" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="E195" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B196" t="s">
         <v>16</v>
       </c>
       <c r="C196" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E196" t="s">
         <v>18</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B197" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C197" t="s">
         <v>1</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E197" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>41675</v>
+        <v>41677</v>
       </c>
       <c r="B198" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="C198" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E198" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B199" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E199" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B200" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C200" t="s">
         <v>1</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E200" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B201" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E201" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B202" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E202" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>41670</v>
+        <v>41676</v>
       </c>
       <c r="B203" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C203" t="s">
         <v>1</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="E203" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>41670</v>
+        <v>41676</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="E204" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>41663</v>
+        <v>41675</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C205" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>41662</v>
+        <v>41674</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="C206" t="s">
         <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>41661</v>
+        <v>41674</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C207" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="E207" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>41656</v>
+        <v>41674</v>
       </c>
       <c r="B208" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="E208" t="s">
         <v>2</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B209" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C209" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E209" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>41655</v>
+        <v>41670</v>
       </c>
       <c r="B210" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E210" t="s">
         <v>2</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>41655</v>
+        <v>41670</v>
       </c>
       <c r="B211" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E211" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>41654</v>
+        <v>41663</v>
       </c>
       <c r="B212" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E212" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>41653</v>
+        <v>41662</v>
       </c>
       <c r="B213" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C213" t="s">
         <v>1</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E213" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>41653</v>
+        <v>41661</v>
       </c>
       <c r="B214" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C214" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E214" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="B215" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C215" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E215" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C216" t="s">
         <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E217" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B218" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C218" t="s">
         <v>1</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E218" t="s">
         <v>31</v>
@@ -7394,282 +7477,443 @@
         <v>32</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B219" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C219" t="s">
         <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E219" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B220" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E220" t="s">
         <v>2</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B221" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C221" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E221" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C222" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E222" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B223" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C223" t="s">
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E223" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B224" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E224" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B225" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C225" t="s">
         <v>1</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E225" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B226" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C226" t="s">
         <v>1</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E226" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B227" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C227" t="s">
         <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E227" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B228" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C228" t="s">
         <v>17</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E228" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B229" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C229" t="s">
         <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E229" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B230" t="s">
+        <v>52</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E230" t="s">
+        <v>2</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B231" t="s">
+        <v>39</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E231" t="s">
+        <v>2</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B232" t="s">
+        <v>57</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E232" t="s">
+        <v>58</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B233" t="s">
+        <v>61</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E233" t="s">
+        <v>58</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B234" t="s">
+        <v>64</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E234" t="s">
+        <v>58</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B235" t="s">
+        <v>16</v>
+      </c>
+      <c r="C235" t="s">
+        <v>17</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E235" t="s">
+        <v>18</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
         <v>41648</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B236" t="s">
+        <v>69</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E236" t="s">
+        <v>2</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B237" t="s">
         <v>16</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C237" t="s">
         <v>17</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="D237" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E237" t="s">
         <v>18</v>
       </c>
-      <c r="F230" s="3" t="s">
+      <c r="F237" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G230" s="3" t="s">
+      <c r="G237" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/docs/backup/cuenta_3940694600.xlsx
+++ b/docs/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="695">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -2103,6 +2103,12 @@
   </si>
   <si>
     <t>76.95</t>
+  </si>
+  <si>
+    <t>0000114614</t>
+  </si>
+  <si>
+    <t>27.13</t>
   </si>
 </sst>
 </file>
@@ -2425,10 +2431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:H238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H1:H7"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2440,29 +2446,29 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41793</v>
+        <v>41794</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>672</v>
+        <v>693</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>673</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>674</v>
+        <v>694</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H7" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009298728', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 256.37  , 'mo_saldo' =&gt; 47.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-03 20:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H8" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-04'), 'mo_concepto' =&gt; 'DB AH PROGRAMADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000114614', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 27.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-07 15:28:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2473,23 +2479,19 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0009269866', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 36.73  , 'mo_saldo' =&gt; 303.50, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-03 20:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2497,26 +2499,22 @@
         <v>41793</v>
       </c>
       <c r="B3" t="s">
-        <v>678</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>676</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-03'), 'mo_concepto' =&gt; '13849037-COSTO IVA CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009259585', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.04  , 'mo_saldo' =&gt; 266.77, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-03 20:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2524,26 +2522,22 @@
         <v>41793</v>
       </c>
       <c r="B4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-03'), 'mo_concepto' =&gt; '13849037-COSTO OPER CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009259581', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.31  , 'mo_saldo' =&gt; 266.81, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-03 20:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>680</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2551,26 +2545,22 @@
         <v>41793</v>
       </c>
       <c r="B5" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E5" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>686</v>
+        <v>62</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-03'), 'mo_concepto' =&gt; '13849037-EMAP Q-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009259554', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 9.83  , 'mo_saldo' =&gt; 267.12, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-03 20:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2578,26 +2568,22 @@
         <v>41793</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>684</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>67</v>
+        <v>686</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0008633296', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 200.00  , 'mo_saldo' =&gt; 276.95, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-03 20:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2605,49 +2591,45 @@
         <v>41793</v>
       </c>
       <c r="B7" t="s">
-        <v>690</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-03'), 'mo_concepto' =&gt; '13842933-MEGADATOS S.A -CB-1500583339', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005722422', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 76.15  , 'mo_saldo' =&gt; 76.95, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-03 20:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>689</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41792</v>
+        <v>41793</v>
       </c>
       <c r="B8" t="s">
-        <v>665</v>
+        <v>690</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>667</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2655,22 +2637,22 @@
         <v>41792</v>
       </c>
       <c r="B9" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E9" t="s">
-        <v>338</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>206</v>
+        <v>667</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2678,45 +2660,45 @@
         <v>41792</v>
       </c>
       <c r="B10" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>338</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41789</v>
+        <v>41792</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>658</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2724,22 +2706,22 @@
         <v>41789</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2747,45 +2729,45 @@
         <v>41789</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>570</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B14" t="s">
-        <v>644</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>646</v>
+        <v>570</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2793,22 +2775,22 @@
         <v>41788</v>
       </c>
       <c r="B15" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2816,22 +2798,22 @@
         <v>41788</v>
       </c>
       <c r="B16" t="s">
-        <v>329</v>
+        <v>648</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>570</v>
+        <v>650</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2839,45 +2821,45 @@
         <v>41788</v>
       </c>
       <c r="B17" t="s">
-        <v>439</v>
+        <v>329</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>435</v>
+        <v>570</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41785</v>
+        <v>41788</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>640</v>
+        <v>435</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>71</v>
+        <v>655</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2891,62 +2873,62 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>643</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41782</v>
+        <v>41785</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>509</v>
+        <v>641</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>32</v>
+        <v>642</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>510</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41781</v>
+        <v>41782</v>
       </c>
       <c r="B21" t="s">
-        <v>511</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>513</v>
+        <v>32</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2954,22 +2936,22 @@
         <v>41781</v>
       </c>
       <c r="B22" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2977,22 +2959,22 @@
         <v>41781</v>
       </c>
       <c r="B23" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E23" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>187</v>
+        <v>517</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3000,45 +2982,45 @@
         <v>41781</v>
       </c>
       <c r="B24" t="s">
-        <v>439</v>
+        <v>519</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>523</v>
+        <v>187</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B25" t="s">
-        <v>525</v>
+        <v>439</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3046,7 +3028,7 @@
         <v>41780</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>525</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -3058,10 +3040,10 @@
         <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>320</v>
+        <v>527</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3069,7 +3051,7 @@
         <v>41780</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -3081,10 +3063,10 @@
         <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3092,45 +3074,45 @@
         <v>41780</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>322</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E28" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>534</v>
+        <v>239</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3138,22 +3120,22 @@
         <v>41779</v>
       </c>
       <c r="B30" t="s">
-        <v>536</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>59</v>
+        <v>534</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3161,22 +3143,22 @@
         <v>41779</v>
       </c>
       <c r="B31" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E31" t="s">
         <v>58</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3184,68 +3166,68 @@
         <v>41779</v>
       </c>
       <c r="B32" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E32" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>544</v>
+        <v>62</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41778</v>
+        <v>41779</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>542</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41775</v>
+        <v>41778</v>
       </c>
       <c r="B34" t="s">
-        <v>549</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3253,22 +3235,22 @@
         <v>41775</v>
       </c>
       <c r="B35" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>22</v>
+        <v>551</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3276,45 +3258,45 @@
         <v>41775</v>
       </c>
       <c r="B36" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E36" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41774</v>
+        <v>41775</v>
       </c>
       <c r="B37" t="s">
-        <v>281</v>
+        <v>556</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>561</v>
+        <v>19</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3322,68 +3304,68 @@
         <v>41774</v>
       </c>
       <c r="B38" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="B39" t="s">
-        <v>566</v>
+        <v>329</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>11</v>
+        <v>564</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41772</v>
+        <v>41773</v>
       </c>
       <c r="B40" t="s">
-        <v>329</v>
+        <v>566</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>570</v>
+        <v>11</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3391,22 +3373,22 @@
         <v>41772</v>
       </c>
       <c r="B41" t="s">
-        <v>572</v>
+        <v>329</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E41" t="s">
-        <v>574</v>
+        <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>187</v>
+        <v>570</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3414,45 +3396,45 @@
         <v>41772</v>
       </c>
       <c r="B42" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E42" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>576</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>580</v>
+        <v>239</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3466,16 +3448,16 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3483,13 +3465,13 @@
         <v>41771</v>
       </c>
       <c r="B45" t="s">
-        <v>585</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -3498,7 +3480,7 @@
         <v>583</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3506,13 +3488,13 @@
         <v>41771</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>585</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -3521,7 +3503,7 @@
         <v>583</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3529,22 +3511,22 @@
         <v>41771</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>206</v>
+        <v>583</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3552,22 +3534,22 @@
         <v>41771</v>
       </c>
       <c r="B48" t="s">
-        <v>590</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E48" t="s">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>392</v>
+        <v>206</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3575,22 +3557,22 @@
         <v>41771</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>590</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E49" t="s">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>594</v>
+        <v>392</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3598,7 +3580,7 @@
         <v>41771</v>
       </c>
       <c r="B50" t="s">
-        <v>596</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -3610,10 +3592,10 @@
         <v>574</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3621,22 +3603,22 @@
         <v>41771</v>
       </c>
       <c r="B51" t="s">
-        <v>329</v>
+        <v>596</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>574</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3644,22 +3626,22 @@
         <v>41771</v>
       </c>
       <c r="B52" t="s">
-        <v>556</v>
+        <v>329</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E52" t="s">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>32</v>
+        <v>570</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3673,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E53" t="s">
         <v>558</v>
@@ -3682,7 +3664,7 @@
         <v>32</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3690,22 +3672,22 @@
         <v>41771</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>556</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3713,45 +3695,45 @@
         <v>41771</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>608</v>
+        <v>19</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B56" t="s">
-        <v>610</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3759,45 +3741,45 @@
         <v>41768</v>
       </c>
       <c r="B57" t="s">
-        <v>329</v>
+        <v>610</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>570</v>
+        <v>612</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41766</v>
+        <v>41768</v>
       </c>
       <c r="B58" t="s">
-        <v>556</v>
+        <v>329</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E58" t="s">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>32</v>
+        <v>570</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3805,45 +3787,45 @@
         <v>41766</v>
       </c>
       <c r="B59" t="s">
-        <v>439</v>
+        <v>556</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E59" t="s">
         <v>558</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>619</v>
+        <v>32</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B60" t="s">
-        <v>621</v>
+        <v>439</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>59</v>
+        <v>619</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>71</v>
+        <v>620</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3851,22 +3833,22 @@
         <v>41765</v>
       </c>
       <c r="B61" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E61" t="s">
         <v>58</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>625</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3874,22 +3856,22 @@
         <v>41765</v>
       </c>
       <c r="B62" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E62" t="s">
         <v>58</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>628</v>
+        <v>62</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3897,22 +3879,22 @@
         <v>41765</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>626</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3926,39 +3908,39 @@
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E65" t="s">
         <v>18</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>127</v>
+        <v>628</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>71</v>
+        <v>634</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3969,65 +3951,65 @@
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E66" t="s">
         <v>18</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>637</v>
+        <v>127</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>638</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41759</v>
+        <v>41761</v>
       </c>
       <c r="B67" t="s">
-        <v>505</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>506</v>
+        <v>636</v>
       </c>
       <c r="E67" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>507</v>
+        <v>637</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>508</v>
+        <v>638</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41758</v>
+        <v>41759</v>
       </c>
       <c r="B68" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4035,114 +4017,114 @@
         <v>41758</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41754</v>
+        <v>41758</v>
       </c>
       <c r="B70" t="s">
-        <v>495</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="E70" t="s">
-        <v>497</v>
+        <v>18</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>7</v>
+        <v>503</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41745</v>
+        <v>41754</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>495</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>497</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>478</v>
+        <v>7</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41744</v>
+        <v>41745</v>
       </c>
       <c r="B72" t="s">
-        <v>480</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E72" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="B73" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E73" t="s">
         <v>2</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4150,22 +4132,22 @@
         <v>41743</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>484</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>19</v>
+        <v>486</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4173,22 +4155,22 @@
         <v>41743</v>
       </c>
       <c r="B75" t="s">
-        <v>490</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E75" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>492</v>
+        <v>19</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4196,45 +4178,45 @@
         <v>41743</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>490</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>492</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B77" t="s">
-        <v>455</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>59</v>
+        <v>492</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4242,22 +4224,22 @@
         <v>41740</v>
       </c>
       <c r="B78" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E78" t="s">
         <v>58</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4265,45 +4247,45 @@
         <v>41740</v>
       </c>
       <c r="B79" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E79" t="s">
         <v>58</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>463</v>
+        <v>62</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4311,22 +4293,22 @@
         <v>41739</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E81" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>187</v>
+        <v>466</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4334,22 +4316,22 @@
         <v>41739</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>471</v>
+        <v>187</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4357,45 +4339,45 @@
         <v>41739</v>
       </c>
       <c r="B83" t="s">
-        <v>473</v>
+        <v>160</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B84" t="s">
-        <v>336</v>
+        <v>473</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="E84" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>32</v>
+        <v>475</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4403,45 +4385,45 @@
         <v>41738</v>
       </c>
       <c r="B85" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>451</v>
+        <v>32</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41737</v>
+        <v>41738</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4449,45 +4431,45 @@
         <v>41737</v>
       </c>
       <c r="B87" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>327</v>
+        <v>435</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B88" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E88" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>435</v>
+        <v>327</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4495,22 +4477,22 @@
         <v>41736</v>
       </c>
       <c r="B89" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C89" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4518,22 +4500,22 @@
         <v>41736</v>
       </c>
       <c r="B90" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4541,22 +4523,22 @@
         <v>41736</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>446</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4564,45 +4546,45 @@
         <v>41736</v>
       </c>
       <c r="B92" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>331</v>
+        <v>419</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>424</v>
+        <v>331</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4610,68 +4592,68 @@
         <v>41733</v>
       </c>
       <c r="B94" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E94" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>32</v>
+        <v>424</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41732</v>
+        <v>41733</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41731</v>
+        <v>41732</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4679,22 +4661,22 @@
         <v>41731</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>67</v>
+        <v>432</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4702,45 +4684,45 @@
         <v>41731</v>
       </c>
       <c r="B98" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>327</v>
+        <v>67</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B99" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E99" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>412</v>
+        <v>327</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4748,45 +4730,45 @@
         <v>41730</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>410</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>338</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>32</v>
+        <v>412</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B101" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E101" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4794,22 +4776,22 @@
         <v>41729</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C102" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>372</v>
+        <v>40</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4817,22 +4799,22 @@
         <v>41729</v>
       </c>
       <c r="B103" t="s">
-        <v>374</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E103" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4840,22 +4822,22 @@
         <v>41729</v>
       </c>
       <c r="B104" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E104" t="s">
         <v>58</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4863,22 +4845,22 @@
         <v>41729</v>
       </c>
       <c r="B105" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E105" t="s">
         <v>58</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>382</v>
+        <v>62</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4886,22 +4868,22 @@
         <v>41729</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>380</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4915,16 +4897,16 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E107" t="s">
         <v>18</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4932,22 +4914,22 @@
         <v>41729</v>
       </c>
       <c r="B108" t="s">
-        <v>390</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E108" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4955,22 +4937,22 @@
         <v>41729</v>
       </c>
       <c r="B109" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4978,22 +4960,22 @@
         <v>41729</v>
       </c>
       <c r="B110" t="s">
-        <v>36</v>
+        <v>393</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E110" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>37</v>
+        <v>395</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5001,7 +4983,7 @@
         <v>41729</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
@@ -5013,10 +4995,10 @@
         <v>2</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -5024,22 +5006,22 @@
         <v>41729</v>
       </c>
       <c r="B112" t="s">
-        <v>397</v>
+        <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>399</v>
+        <v>40</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -5047,22 +5029,22 @@
         <v>41729</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>397</v>
       </c>
       <c r="C113" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -5070,45 +5052,45 @@
         <v>41729</v>
       </c>
       <c r="B114" t="s">
-        <v>367</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E114" t="s">
         <v>10</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>367</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -5116,22 +5098,22 @@
         <v>41725</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5139,45 +5121,45 @@
         <v>41725</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="E117" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E118" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5185,7 +5167,7 @@
         <v>41724</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
@@ -5197,10 +5179,10 @@
         <v>2</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5208,22 +5190,22 @@
         <v>41724</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E120" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5231,45 +5213,45 @@
         <v>41724</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C121" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="E121" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>7</v>
+        <v>356</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -5277,68 +5259,68 @@
         <v>41722</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E123" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B124" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E124" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>342</v>
+        <v>32</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B125" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="E125" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -5346,22 +5328,22 @@
         <v>41718</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -5369,45 +5351,45 @@
         <v>41718</v>
       </c>
       <c r="B127" t="s">
-        <v>336</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E127" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>192</v>
+        <v>334</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B128" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="E128" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -5415,7 +5397,7 @@
         <v>41717</v>
       </c>
       <c r="B129" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
@@ -5427,10 +5409,10 @@
         <v>2</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5438,22 +5420,22 @@
         <v>41717</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E130" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5461,22 +5443,22 @@
         <v>41717</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C131" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E131" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5484,7 +5466,7 @@
         <v>41717</v>
       </c>
       <c r="B132" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
@@ -5496,10 +5478,10 @@
         <v>2</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5507,22 +5489,22 @@
         <v>41717</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E133" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5530,22 +5512,22 @@
         <v>41717</v>
       </c>
       <c r="B134" t="s">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="C134" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5553,45 +5535,45 @@
         <v>41717</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E135" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>33</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B136" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E136" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>288</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5605,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E137" t="s">
         <v>6</v>
@@ -5614,7 +5596,7 @@
         <v>32</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5622,45 +5604,45 @@
         <v>41716</v>
       </c>
       <c r="B138" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B139" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E139" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>296</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5668,22 +5650,22 @@
         <v>41715</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E140" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5691,7 +5673,7 @@
         <v>41715</v>
       </c>
       <c r="B141" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
@@ -5703,10 +5685,10 @@
         <v>2</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5714,22 +5696,22 @@
         <v>41715</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E142" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5737,22 +5719,22 @@
         <v>41715</v>
       </c>
       <c r="B143" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C143" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E143" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5760,7 +5742,7 @@
         <v>41715</v>
       </c>
       <c r="B144" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
@@ -5772,10 +5754,10 @@
         <v>2</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5783,22 +5765,22 @@
         <v>41715</v>
       </c>
       <c r="B145" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C145" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5806,22 +5788,22 @@
         <v>41715</v>
       </c>
       <c r="B146" t="s">
-        <v>309</v>
+        <v>42</v>
       </c>
       <c r="C146" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E146" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5829,22 +5811,22 @@
         <v>41715</v>
       </c>
       <c r="B147" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5852,22 +5834,22 @@
         <v>41715</v>
       </c>
       <c r="B148" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E148" t="s">
         <v>10</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5875,7 +5857,7 @@
         <v>41715</v>
       </c>
       <c r="B149" t="s">
-        <v>39</v>
+        <v>316</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
@@ -5887,10 +5869,10 @@
         <v>10</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5898,7 +5880,7 @@
         <v>41715</v>
       </c>
       <c r="B150" t="s">
-        <v>322</v>
+        <v>39</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
@@ -5910,10 +5892,10 @@
         <v>10</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5921,114 +5903,114 @@
         <v>41715</v>
       </c>
       <c r="B151" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E151" t="s">
         <v>10</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>325</v>
       </c>
       <c r="C152" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="E152" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="B153" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E153" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>41709</v>
+        <v>41711</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B155" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E155" t="s">
         <v>10</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -6036,22 +6018,22 @@
         <v>41708</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E156" t="s">
         <v>10</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -6059,22 +6041,22 @@
         <v>41708</v>
       </c>
       <c r="B157" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E157" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6082,22 +6064,22 @@
         <v>41708</v>
       </c>
       <c r="B158" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E158" t="s">
         <v>58</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -6105,22 +6087,22 @@
         <v>41708</v>
       </c>
       <c r="B159" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E159" t="s">
         <v>58</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -6128,68 +6110,68 @@
         <v>41708</v>
       </c>
       <c r="B160" t="s">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="C160" t="s">
         <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E160" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B161" t="s">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="C161" t="s">
         <v>1</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E161" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="C162" t="s">
         <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="E162" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -6197,22 +6179,22 @@
         <v>41703</v>
       </c>
       <c r="B163" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -6220,22 +6202,22 @@
         <v>41703</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E164" t="s">
         <v>10</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -6243,22 +6225,22 @@
         <v>41703</v>
       </c>
       <c r="B165" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E165" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -6266,45 +6248,45 @@
         <v>41703</v>
       </c>
       <c r="B166" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="E166" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B167" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E167" t="s">
         <v>140</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -6312,22 +6294,22 @@
         <v>41698</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C168" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E168" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -6335,68 +6317,68 @@
         <v>41698</v>
       </c>
       <c r="B169" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E169" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E170" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B171" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E171" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -6404,7 +6386,7 @@
         <v>41696</v>
       </c>
       <c r="B172" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C172" t="s">
         <v>1</v>
@@ -6416,10 +6398,10 @@
         <v>2</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -6427,68 +6409,68 @@
         <v>41696</v>
       </c>
       <c r="B173" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E173" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>41690</v>
+        <v>41696</v>
       </c>
       <c r="B174" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C174" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="E174" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B175" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
         <v>1</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E175" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -6496,7 +6478,7 @@
         <v>41689</v>
       </c>
       <c r="B176" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
@@ -6508,10 +6490,10 @@
         <v>2</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -6519,22 +6501,22 @@
         <v>41689</v>
       </c>
       <c r="B177" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -6542,45 +6524,45 @@
         <v>41689</v>
       </c>
       <c r="B178" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="C178" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E178" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B179" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="C179" t="s">
         <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="E179" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -6588,22 +6570,22 @@
         <v>41687</v>
       </c>
       <c r="B180" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E180" t="s">
         <v>2</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -6611,7 +6593,7 @@
         <v>41687</v>
       </c>
       <c r="B181" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C181" t="s">
         <v>1</v>
@@ -6623,10 +6605,10 @@
         <v>2</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -6634,22 +6616,22 @@
         <v>41687</v>
       </c>
       <c r="B182" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C182" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E182" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -6657,22 +6639,22 @@
         <v>41687</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C183" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -6680,45 +6662,45 @@
         <v>41687</v>
       </c>
       <c r="B184" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B185" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="C185" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -6726,45 +6708,45 @@
         <v>41684</v>
       </c>
       <c r="B186" t="s">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E186" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B187" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="C187" t="s">
         <v>1</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="E187" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -6772,22 +6754,22 @@
         <v>41682</v>
       </c>
       <c r="B188" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C188" t="s">
         <v>1</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E188" t="s">
         <v>58</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -6795,22 +6777,22 @@
         <v>41682</v>
       </c>
       <c r="B189" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E189" t="s">
         <v>58</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -6818,45 +6800,45 @@
         <v>41682</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E190" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C191" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6864,22 +6846,22 @@
         <v>41681</v>
       </c>
       <c r="B192" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E192" t="s">
         <v>10</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6893,16 +6875,16 @@
         <v>1</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E193" t="s">
         <v>10</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -6910,45 +6892,45 @@
         <v>41681</v>
       </c>
       <c r="B194" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C194" t="s">
         <v>1</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E194" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B195" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E195" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -6956,45 +6938,45 @@
         <v>41680</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="E196" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B197" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="C197" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E197" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -7002,22 +6984,22 @@
         <v>41677</v>
       </c>
       <c r="B198" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C198" t="s">
         <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E198" t="s">
         <v>58</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -7025,45 +7007,45 @@
         <v>41677</v>
       </c>
       <c r="B199" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E199" t="s">
         <v>58</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C200" t="s">
         <v>1</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -7071,22 +7053,22 @@
         <v>41676</v>
       </c>
       <c r="B201" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E201" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -7094,22 +7076,22 @@
         <v>41676</v>
       </c>
       <c r="B202" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C202" t="s">
         <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E202" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -7123,16 +7105,16 @@
         <v>1</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E203" t="s">
         <v>18</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -7140,68 +7122,68 @@
         <v>41676</v>
       </c>
       <c r="B204" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E204" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B205" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="C205" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E205" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B206" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C206" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E206" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -7209,22 +7191,22 @@
         <v>41674</v>
       </c>
       <c r="B207" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C207" t="s">
         <v>1</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E207" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -7232,7 +7214,7 @@
         <v>41674</v>
       </c>
       <c r="B208" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
@@ -7244,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -7255,45 +7237,45 @@
         <v>41674</v>
       </c>
       <c r="B209" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E209" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B210" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C210" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="E210" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -7301,137 +7283,137 @@
         <v>41670</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E211" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>41663</v>
+        <v>41670</v>
       </c>
       <c r="B212" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
         <v>1</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E213" t="s">
         <v>10</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B214" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C214" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E214" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>41656</v>
+        <v>41661</v>
       </c>
       <c r="B215" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C215" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E215" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B216" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C216" t="s">
         <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E216" t="s">
         <v>2</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -7439,22 +7421,22 @@
         <v>41655</v>
       </c>
       <c r="B217" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E217" t="s">
         <v>2</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -7462,68 +7444,68 @@
         <v>41655</v>
       </c>
       <c r="B218" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C218" t="s">
         <v>1</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E218" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B219" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C219" t="s">
         <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E219" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B220" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E220" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -7531,7 +7513,7 @@
         <v>41653</v>
       </c>
       <c r="B221" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C221" t="s">
         <v>1</v>
@@ -7543,10 +7525,10 @@
         <v>2</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -7554,45 +7536,45 @@
         <v>41653</v>
       </c>
       <c r="B222" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C222" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E222" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B223" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C223" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -7600,22 +7582,22 @@
         <v>41652</v>
       </c>
       <c r="B224" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E224" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -7623,22 +7605,22 @@
         <v>41652</v>
       </c>
       <c r="B225" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C225" t="s">
         <v>1</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E225" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -7646,22 +7628,22 @@
         <v>41652</v>
       </c>
       <c r="B226" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C226" t="s">
         <v>1</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E226" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -7669,7 +7651,7 @@
         <v>41652</v>
       </c>
       <c r="B227" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C227" t="s">
         <v>1</v>
@@ -7681,10 +7663,10 @@
         <v>2</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -7692,22 +7674,22 @@
         <v>41652</v>
       </c>
       <c r="B228" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C228" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E228" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -7715,45 +7697,45 @@
         <v>41652</v>
       </c>
       <c r="B229" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C229" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E229" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B230" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C230" t="s">
         <v>1</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E230" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -7761,7 +7743,7 @@
         <v>41649</v>
       </c>
       <c r="B231" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C231" t="s">
         <v>1</v>
@@ -7773,10 +7755,10 @@
         <v>2</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -7784,22 +7766,22 @@
         <v>41649</v>
       </c>
       <c r="B232" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C232" t="s">
         <v>1</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E232" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -7807,22 +7789,22 @@
         <v>41649</v>
       </c>
       <c r="B233" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E233" t="s">
         <v>58</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -7830,22 +7812,22 @@
         <v>41649</v>
       </c>
       <c r="B234" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C234" t="s">
         <v>1</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E234" t="s">
         <v>58</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -7853,45 +7835,45 @@
         <v>41649</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C235" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E235" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B236" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C236" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E236" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -7899,21 +7881,44 @@
         <v>41648</v>
       </c>
       <c r="B237" t="s">
+        <v>69</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E237" t="s">
+        <v>2</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B238" t="s">
         <v>16</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C238" t="s">
         <v>17</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="D238" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E238" t="s">
         <v>18</v>
       </c>
-      <c r="F237" s="3" t="s">
+      <c r="F238" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G237" s="3" t="s">
+      <c r="G238" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/docs/backup/cuenta_3940694600.xlsx
+++ b/docs/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="701">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -2109,6 +2109,24 @@
   </si>
   <si>
     <t>27.13</t>
+  </si>
+  <si>
+    <t>0008360054</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>0004629177</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>0004811103</t>
+  </si>
+  <si>
+    <t>24.13</t>
   </si>
 </sst>
 </file>
@@ -2431,10 +2449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H238"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,98 +2464,106 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41794</v>
+        <v>41806</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>329</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>570</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H8" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-04'), 'mo_concepto' =&gt; 'DB AH PROGRAMADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000114614', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 27.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-07 15:28:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-16'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008360054', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 3.00  , 'mo_saldo' =&gt; 1.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>673</v>
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>674</v>
+        <v>698</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-10'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/EL GIRON-3', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004629177', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 4.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41793</v>
+        <v>41799</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>676</v>
+        <v>570</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>677</v>
+        <v>700</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-09'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004811103', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 3.00  , 'mo_saldo' =&gt; 24.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41793</v>
+        <v>41794</v>
       </c>
       <c r="B4" t="s">
-        <v>678</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2545,22 +2571,22 @@
         <v>41793</v>
       </c>
       <c r="B5" t="s">
-        <v>681</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>673</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2568,22 +2594,22 @@
         <v>41793</v>
       </c>
       <c r="B6" t="s">
-        <v>684</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2591,22 +2617,22 @@
         <v>41793</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>678</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2614,220 +2640,220 @@
         <v>41793</v>
       </c>
       <c r="B8" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41792</v>
+        <v>41793</v>
       </c>
       <c r="B9" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41792</v>
+        <v>41793</v>
       </c>
       <c r="B10" t="s">
-        <v>669</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="E10" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41792</v>
+        <v>41793</v>
       </c>
       <c r="B11" t="s">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>659</v>
+        <v>691</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41789</v>
+        <v>41792</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>665</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
+        <v>667</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41789</v>
+        <v>41792</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>669</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>338</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41789</v>
+        <v>41792</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>658</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>570</v>
+        <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B15" t="s">
-        <v>644</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>646</v>
+        <v>40</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B16" t="s">
-        <v>648</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>650</v>
+        <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -2836,7 +2862,7 @@
         <v>570</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2844,160 +2870,160 @@
         <v>41788</v>
       </c>
       <c r="B18" t="s">
-        <v>439</v>
+        <v>644</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>435</v>
+        <v>646</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41785</v>
+        <v>41788</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>648</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>71</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41785</v>
+        <v>41788</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>642</v>
+        <v>570</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41782</v>
+        <v>41788</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>439</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>509</v>
+        <v>654</v>
       </c>
       <c r="E21" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>32</v>
+        <v>435</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>510</v>
+        <v>655</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41781</v>
+        <v>41785</v>
       </c>
       <c r="B22" t="s">
-        <v>511</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>512</v>
+        <v>639</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>513</v>
+        <v>640</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>514</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41781</v>
+        <v>41785</v>
       </c>
       <c r="B23" t="s">
-        <v>515</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>516</v>
+        <v>641</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>517</v>
+        <v>642</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>518</v>
+        <v>643</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41781</v>
+        <v>41782</v>
       </c>
       <c r="B24" t="s">
-        <v>519</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3005,91 +3031,91 @@
         <v>41781</v>
       </c>
       <c r="B25" t="s">
-        <v>439</v>
+        <v>511</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B26" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>519</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>320</v>
+        <v>187</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B28" t="s">
-        <v>322</v>
+        <v>439</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>323</v>
+        <v>523</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3097,91 +3123,91 @@
         <v>41780</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>525</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>239</v>
+        <v>527</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>534</v>
+        <v>320</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B31" t="s">
-        <v>536</v>
+        <v>322</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>59</v>
+        <v>323</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B32" t="s">
-        <v>539</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3189,321 +3215,321 @@
         <v>41779</v>
       </c>
       <c r="B33" t="s">
-        <v>542</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41778</v>
+        <v>41779</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>536</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>547</v>
+        <v>59</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41775</v>
+        <v>41779</v>
       </c>
       <c r="B35" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E35" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>551</v>
+        <v>62</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41775</v>
+        <v>41779</v>
       </c>
       <c r="B36" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>22</v>
+        <v>544</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41775</v>
+        <v>41778</v>
       </c>
       <c r="B37" t="s">
-        <v>556</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="E37" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>19</v>
+        <v>547</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41774</v>
+        <v>41775</v>
       </c>
       <c r="B38" t="s">
-        <v>281</v>
+        <v>549</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41774</v>
+        <v>41775</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>553</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>564</v>
+        <v>22</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41773</v>
+        <v>41775</v>
       </c>
       <c r="B40" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41772</v>
+        <v>41774</v>
       </c>
       <c r="B41" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41772</v>
+        <v>41774</v>
       </c>
       <c r="B42" t="s">
-        <v>572</v>
+        <v>329</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E42" t="s">
-        <v>574</v>
+        <v>18</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>187</v>
+        <v>564</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41772</v>
+        <v>41773</v>
       </c>
       <c r="B43" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="E43" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>572</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>574</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>583</v>
+        <v>187</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B46" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>583</v>
+        <v>239</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3517,16 +3543,16 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3534,22 +3560,22 @@
         <v>41771</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>206</v>
+        <v>583</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3557,22 +3583,22 @@
         <v>41771</v>
       </c>
       <c r="B49" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E49" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>392</v>
+        <v>583</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3580,22 +3606,22 @@
         <v>41771</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E50" t="s">
-        <v>574</v>
+        <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3603,22 +3629,22 @@
         <v>41771</v>
       </c>
       <c r="B51" t="s">
-        <v>596</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E51" t="s">
-        <v>574</v>
+        <v>169</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>597</v>
+        <v>206</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3626,22 +3652,22 @@
         <v>41771</v>
       </c>
       <c r="B52" t="s">
-        <v>329</v>
+        <v>590</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>570</v>
+        <v>392</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3649,22 +3675,22 @@
         <v>41771</v>
       </c>
       <c r="B53" t="s">
-        <v>556</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E53" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>32</v>
+        <v>594</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3672,22 +3698,22 @@
         <v>41771</v>
       </c>
       <c r="B54" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E54" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>32</v>
+        <v>597</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3695,22 +3721,22 @@
         <v>41771</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E55" t="s">
         <v>18</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3718,183 +3744,183 @@
         <v>41771</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>556</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>608</v>
+        <v>32</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B57" t="s">
-        <v>610</v>
+        <v>556</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>612</v>
+        <v>32</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B58" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="E58" t="s">
         <v>18</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="B59" t="s">
-        <v>556</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="E59" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>32</v>
+        <v>608</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41766</v>
+        <v>41768</v>
       </c>
       <c r="B60" t="s">
-        <v>439</v>
+        <v>610</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="E60" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41765</v>
+        <v>41768</v>
       </c>
       <c r="B61" t="s">
-        <v>621</v>
+        <v>329</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E61" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>59</v>
+        <v>570</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>71</v>
+        <v>615</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B62" t="s">
-        <v>623</v>
+        <v>556</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B63" t="s">
-        <v>626</v>
+        <v>439</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E63" t="s">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3902,22 +3928,22 @@
         <v>41765</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>621</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>631</v>
+        <v>59</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>632</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3925,50 +3951,50 @@
         <v>41765</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>623</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>628</v>
+        <v>62</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>626</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>127</v>
+        <v>628</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>71</v>
+        <v>629</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
@@ -3977,67 +4003,67 @@
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E67" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41759</v>
+        <v>41765</v>
       </c>
       <c r="B68" t="s">
-        <v>505</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>506</v>
+        <v>633</v>
       </c>
       <c r="E68" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>507</v>
+        <v>628</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>508</v>
+        <v>634</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41758</v>
+        <v>41761</v>
       </c>
       <c r="B69" t="s">
-        <v>439</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>499</v>
+        <v>635</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>500</v>
+        <v>127</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>501</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41758</v>
+        <v>41761</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
@@ -4046,154 +4072,154 @@
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>502</v>
+        <v>636</v>
       </c>
       <c r="E70" t="s">
         <v>18</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>503</v>
+        <v>637</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>504</v>
+        <v>638</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41754</v>
+        <v>41759</v>
       </c>
       <c r="B71" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="E71" t="s">
-        <v>497</v>
+        <v>338</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>7</v>
+        <v>507</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41745</v>
+        <v>41758</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>439</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41744</v>
+        <v>41758</v>
       </c>
       <c r="B73" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="E73" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41743</v>
+        <v>41754</v>
       </c>
       <c r="B74" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="E74" t="s">
-        <v>2</v>
+        <v>497</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>486</v>
+        <v>7</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41743</v>
+        <v>41745</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>19</v>
+        <v>478</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="B76" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4201,160 +4227,160 @@
         <v>41743</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>484</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B78" t="s">
-        <v>455</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="E78" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B79" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="E79" t="s">
         <v>58</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>62</v>
+        <v>492</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B80" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="E80" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>455</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>458</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E82" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>461</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4362,183 +4388,183 @@
         <v>41739</v>
       </c>
       <c r="B84" t="s">
-        <v>473</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B85" t="s">
-        <v>336</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="E85" t="s">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B86" t="s">
-        <v>291</v>
+        <v>160</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>473</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="E87" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41737</v>
+        <v>41738</v>
       </c>
       <c r="B88" t="s">
-        <v>407</v>
+        <v>336</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>327</v>
+        <v>32</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41736</v>
+        <v>41738</v>
       </c>
       <c r="B89" t="s">
-        <v>439</v>
+        <v>291</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="E89" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B90" t="s">
-        <v>442</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B91" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>448</v>
+        <v>327</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4546,22 +4572,22 @@
         <v>41736</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>439</v>
       </c>
       <c r="C92" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4569,96 +4595,96 @@
         <v>41736</v>
       </c>
       <c r="B93" t="s">
-        <v>329</v>
+        <v>442</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>331</v>
+        <v>444</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>446</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B95" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E95" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>32</v>
+        <v>419</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41732</v>
+        <v>41736</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E96" t="s">
         <v>18</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>429</v>
+        <v>331</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41731</v>
+        <v>41733</v>
       </c>
       <c r="B97" t="s">
         <v>13</v>
@@ -4667,177 +4693,177 @@
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E97" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41731</v>
+        <v>41733</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41731</v>
+        <v>41732</v>
       </c>
       <c r="B99" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>327</v>
+        <v>429</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B100" t="s">
-        <v>410</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="E100" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B102" t="s">
-        <v>209</v>
+        <v>407</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E102" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>410</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B104" t="s">
-        <v>374</v>
+        <v>123</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="E104" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4845,22 +4871,22 @@
         <v>41729</v>
       </c>
       <c r="B105" t="s">
-        <v>377</v>
+        <v>209</v>
       </c>
       <c r="C105" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="E105" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4868,22 +4894,22 @@
         <v>41729</v>
       </c>
       <c r="B106" t="s">
-        <v>380</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E106" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4891,22 +4917,22 @@
         <v>41729</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>374</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>385</v>
+        <v>59</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4914,22 +4940,22 @@
         <v>41729</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>377</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>388</v>
+        <v>62</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4937,22 +4963,22 @@
         <v>41729</v>
       </c>
       <c r="B109" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E109" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4960,22 +4986,22 @@
         <v>41729</v>
       </c>
       <c r="B110" t="s">
-        <v>393</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4983,22 +5009,22 @@
         <v>41729</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E111" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>37</v>
+        <v>388</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -5006,22 +5032,22 @@
         <v>41729</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>390</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E112" t="s">
         <v>2</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>40</v>
+        <v>392</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -5029,22 +5055,22 @@
         <v>41729</v>
       </c>
       <c r="B113" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -5052,22 +5078,22 @@
         <v>41729</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -5075,50 +5101,50 @@
         <v>41729</v>
       </c>
       <c r="B115" t="s">
-        <v>367</v>
+        <v>39</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>397</v>
       </c>
       <c r="C116" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="E116" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B117" t="s">
         <v>13</v>
@@ -5127,108 +5153,108 @@
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>367</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="E118" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="E119" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E120" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -5236,229 +5262,229 @@
         <v>41724</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E122" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E123" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C124" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="E124" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>32</v>
+        <v>356</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41719</v>
+        <v>41724</v>
       </c>
       <c r="B125" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="E125" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>342</v>
+        <v>7</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41718</v>
+        <v>41722</v>
       </c>
       <c r="B126" t="s">
-        <v>329</v>
+        <v>123</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="E126" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>331</v>
+        <v>32</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41718</v>
+        <v>41722</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B128" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E128" t="s">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>192</v>
+        <v>342</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B129" t="s">
-        <v>36</v>
+        <v>329</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="E129" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="E130" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>274</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5472,7 +5498,7 @@
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
@@ -5481,7 +5507,7 @@
         <v>37</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5495,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
@@ -5504,7 +5530,7 @@
         <v>40</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5518,16 +5544,16 @@
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E134" t="s">
         <v>43</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>279</v>
+        <v>181</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5535,22 +5561,22 @@
         <v>41717</v>
       </c>
       <c r="B135" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5558,88 +5584,88 @@
         <v>41717</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E136" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B137" t="s">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="C137" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E137" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B138" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E138" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B139" t="s">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>33</v>
@@ -5647,71 +5673,71 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B140" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E141" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B142" t="s">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E142" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>299</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5719,22 +5745,22 @@
         <v>41715</v>
       </c>
       <c r="B143" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5748,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
@@ -5757,7 +5783,7 @@
         <v>37</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5771,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
@@ -5780,7 +5806,7 @@
         <v>40</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5794,16 +5820,16 @@
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E146" t="s">
         <v>43</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5811,22 +5837,22 @@
         <v>41715</v>
       </c>
       <c r="B147" t="s">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E147" t="s">
         <v>2</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5834,22 +5860,22 @@
         <v>41715</v>
       </c>
       <c r="B148" t="s">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5857,22 +5883,22 @@
         <v>41715</v>
       </c>
       <c r="B149" t="s">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="C149" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5880,22 +5906,22 @@
         <v>41715</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>309</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>320</v>
+        <v>175</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5903,22 +5929,22 @@
         <v>41715</v>
       </c>
       <c r="B151" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E151" t="s">
         <v>10</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5926,160 +5952,160 @@
         <v>41715</v>
       </c>
       <c r="B152" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E152" t="s">
         <v>10</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="E153" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B154" t="s">
-        <v>123</v>
+        <v>322</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>41709</v>
+        <v>41715</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="E155" t="s">
         <v>10</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>175</v>
+        <v>327</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>41708</v>
+        <v>41712</v>
       </c>
       <c r="B156" t="s">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>41708</v>
+        <v>41711</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B158" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E158" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -6087,22 +6113,22 @@
         <v>41708</v>
       </c>
       <c r="B159" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E159" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -6110,22 +6136,22 @@
         <v>41708</v>
       </c>
       <c r="B160" t="s">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="C160" t="s">
         <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E160" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -6133,114 +6159,114 @@
         <v>41708</v>
       </c>
       <c r="B161" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="C161" t="s">
         <v>1</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E161" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B162" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C162" t="s">
         <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E162" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="E163" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B164" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -6248,22 +6274,22 @@
         <v>41703</v>
       </c>
       <c r="B166" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E166" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -6271,275 +6297,275 @@
         <v>41703</v>
       </c>
       <c r="B167" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="C167" t="s">
         <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="E167" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B168" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="E168" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B169" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="E169" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B170" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="C170" t="s">
         <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E170" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C171" t="s">
         <v>17</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E171" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B172" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C172" t="s">
         <v>1</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E172" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B173" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E173" t="s">
         <v>2</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B174" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C174" t="s">
         <v>17</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E174" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>41690</v>
+        <v>41696</v>
       </c>
       <c r="B175" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C175" t="s">
         <v>1</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E175" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B176" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E176" t="s">
         <v>2</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B177" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C177" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="E177" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B178" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E178" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -6547,91 +6573,91 @@
         <v>41689</v>
       </c>
       <c r="B179" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="C179" t="s">
         <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E179" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B180" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="E180" t="s">
         <v>2</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B181" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C181" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E181" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B182" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="E182" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -6639,22 +6665,22 @@
         <v>41687</v>
       </c>
       <c r="B183" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E183" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -6662,22 +6688,22 @@
         <v>41687</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C184" t="s">
         <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -6685,137 +6711,137 @@
         <v>41687</v>
       </c>
       <c r="B185" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C185" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E185" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B186" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="C186" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E186" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B187" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C187" t="s">
         <v>1</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E187" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B188" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="E188" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B189" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B190" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C190" t="s">
         <v>1</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="E190" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -6823,91 +6849,91 @@
         <v>41682</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C191" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E191" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B193" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C193" t="s">
         <v>1</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B194" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -6915,88 +6941,88 @@
         <v>41681</v>
       </c>
       <c r="B195" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E195" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B196" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="C196" t="s">
         <v>1</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E196" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E197" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B198" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="C198" t="s">
         <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="E198" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>112</v>
@@ -7004,117 +7030,117 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B199" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="E199" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B200" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C200" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E200" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B202" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C202" t="s">
         <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E202" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="C203" t="s">
         <v>1</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E203" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -7122,22 +7148,22 @@
         <v>41676</v>
       </c>
       <c r="B204" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E204" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -7145,114 +7171,114 @@
         <v>41676</v>
       </c>
       <c r="B205" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E205" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B206" t="s">
         <v>16</v>
       </c>
       <c r="C206" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E206" t="s">
         <v>18</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B207" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C207" t="s">
         <v>1</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E207" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B208" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E208" t="s">
         <v>2</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B209" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C209" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E209" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -7260,390 +7286,390 @@
         <v>41674</v>
       </c>
       <c r="B210" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E210" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B211" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E211" t="s">
         <v>2</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="E212" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>41663</v>
+        <v>41674</v>
       </c>
       <c r="B213" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C213" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>41662</v>
+        <v>41670</v>
       </c>
       <c r="B214" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>41661</v>
+        <v>41670</v>
       </c>
       <c r="B215" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E215" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>41656</v>
+        <v>41663</v>
       </c>
       <c r="B216" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
         <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E216" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>41655</v>
+        <v>41662</v>
       </c>
       <c r="B217" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E217" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="B218" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C218" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E218" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B219" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C219" t="s">
         <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E219" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B220" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E220" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B221" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C221" t="s">
         <v>1</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E221" t="s">
         <v>2</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B222" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C222" t="s">
         <v>1</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E222" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B223" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C223" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E223" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B224" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C225" t="s">
         <v>1</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E225" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B226" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C226" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E226" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -7651,22 +7677,22 @@
         <v>41652</v>
       </c>
       <c r="B227" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C227" t="s">
         <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E227" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -7674,22 +7700,22 @@
         <v>41652</v>
       </c>
       <c r="B228" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C228" t="s">
         <v>1</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E228" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -7697,22 +7723,22 @@
         <v>41652</v>
       </c>
       <c r="B229" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C229" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E229" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -7720,91 +7746,91 @@
         <v>41652</v>
       </c>
       <c r="B230" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C230" t="s">
         <v>1</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E230" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B231" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C231" t="s">
         <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E231" t="s">
         <v>2</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B232" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C232" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E232" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B233" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E233" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -7812,22 +7838,22 @@
         <v>41649</v>
       </c>
       <c r="B234" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C234" t="s">
         <v>1</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E234" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -7835,22 +7861,22 @@
         <v>41649</v>
       </c>
       <c r="B235" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C235" t="s">
         <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E235" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -7858,67 +7884,136 @@
         <v>41649</v>
       </c>
       <c r="B236" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C236" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E236" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B237" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E237" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B238" t="s">
+        <v>64</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E238" t="s">
+        <v>58</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B239" t="s">
+        <v>16</v>
+      </c>
+      <c r="C239" t="s">
+        <v>17</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E239" t="s">
+        <v>18</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
         <v>41648</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B240" t="s">
+        <v>69</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E240" t="s">
+        <v>2</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B241" t="s">
         <v>16</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C241" t="s">
         <v>17</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D241" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E241" t="s">
         <v>18</v>
       </c>
-      <c r="F238" s="3" t="s">
+      <c r="F241" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G238" s="3" t="s">
+      <c r="G241" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/docs/backup/cuenta_3940694600.xlsx
+++ b/docs/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="724">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -2127,6 +2127,75 @@
   </si>
   <si>
     <t>24.13</t>
+  </si>
+  <si>
+    <t>0005026708</t>
+  </si>
+  <si>
+    <t>475.18  </t>
+  </si>
+  <si>
+    <t>418.07</t>
+  </si>
+  <si>
+    <t>0004991854</t>
+  </si>
+  <si>
+    <t>280.60  </t>
+  </si>
+  <si>
+    <t>893.25</t>
+  </si>
+  <si>
+    <t>0004379059</t>
+  </si>
+  <si>
+    <t>14043780-MEGADATOS S.A -CB-1500583339</t>
+  </si>
+  <si>
+    <t>0008651952</t>
+  </si>
+  <si>
+    <t>93.85</t>
+  </si>
+  <si>
+    <t>0005875591</t>
+  </si>
+  <si>
+    <t>170.00  </t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>0003722472</t>
+  </si>
+  <si>
+    <t>729.66  </t>
+  </si>
+  <si>
+    <t>0004909773</t>
+  </si>
+  <si>
+    <t>729.66</t>
+  </si>
+  <si>
+    <t>729.93</t>
+  </si>
+  <si>
+    <t>0004909753</t>
+  </si>
+  <si>
+    <t>728.83  </t>
+  </si>
+  <si>
+    <t>729.96</t>
+  </si>
+  <si>
+    <t>1080.00  </t>
+  </si>
+  <si>
+    <t>1173.85</t>
   </si>
 </sst>
 </file>
@@ -2449,10 +2518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H3"/>
+      <selection activeCell="H1" sqref="H1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,1279 +2533,1303 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41806</v>
+        <v>41823</v>
       </c>
       <c r="B1" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>570</v>
+        <v>702</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-16'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008360054', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 3.00  , 'mo_saldo' =&gt; 1.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H9" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005026708', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 475.18  , 'mo_saldo' =&gt; 418.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41800</v>
+        <v>41823</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
+        <v>705</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-10'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/EL GIRON-3', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004629177', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 4.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004991854', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 280.60  , 'mo_saldo' =&gt; 893.25, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41799</v>
+        <v>41823</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>439</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>570</v>
+        <v>722</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>700</v>
+        <v>723</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-09'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004811103', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 3.00  , 'mo_saldo' =&gt; 24.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; 'DEPOSITO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0004379059', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 1080.00  , 'mo_saldo' =&gt; 1173.85, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41794</v>
+        <v>41822</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>708</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>694</v>
+        <v>710</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; '14043780-MEGADATOS S.A -CB-1500583339', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008651952', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 76.15  , 'mo_saldo' =&gt; 93.85, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41793</v>
+        <v>41822</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>672</v>
+        <v>711</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>674</v>
+        <v>713</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0005875591', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 170.00  , 'mo_saldo' =&gt; 170.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41793</v>
+        <v>41816</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>676</v>
+        <v>715</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>677</v>
+        <v>71</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-26'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0003722472', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 729.66  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41793</v>
+        <v>41815</v>
       </c>
       <c r="B7" t="s">
-        <v>678</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>679</v>
+        <v>716</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>680</v>
+        <v>717</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-25'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004909773', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 729.66, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41793</v>
+        <v>41815</v>
       </c>
       <c r="B8" t="s">
-        <v>681</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>682</v>
+        <v>716</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>683</v>
+        <v>718</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-25'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004909773', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 729.93, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41793</v>
+        <v>41815</v>
       </c>
       <c r="B9" t="s">
-        <v>684</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>685</v>
+        <v>719</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>686</v>
+        <v>720</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>687</v>
+        <v>721</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-25'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0004909753', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 728.83  , 'mo_saldo' =&gt; 729.96, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41793</v>
+        <v>41806</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>67</v>
+        <v>570</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="B11" t="s">
-        <v>690</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41792</v>
+        <v>41799</v>
       </c>
       <c r="B12" t="s">
-        <v>665</v>
+        <v>329</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>666</v>
+        <v>699</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>667</v>
+        <v>570</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41792</v>
+        <v>41794</v>
       </c>
       <c r="B13" t="s">
-        <v>669</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="E13" t="s">
-        <v>338</v>
+        <v>140</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41792</v>
+        <v>41793</v>
       </c>
       <c r="B14" t="s">
-        <v>658</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>32</v>
+        <v>673</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41789</v>
+        <v>41793</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
+        <v>676</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41789</v>
+        <v>41793</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>678</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41789</v>
+        <v>41793</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>681</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>570</v>
+        <v>62</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B18" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>645</v>
+        <v>685</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>646</v>
+        <v>686</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>647</v>
+        <v>687</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B19" t="s">
-        <v>648</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>649</v>
+        <v>688</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>650</v>
+        <v>67</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>651</v>
+        <v>689</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B20" t="s">
-        <v>329</v>
+        <v>690</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>652</v>
+        <v>691</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>570</v>
+        <v>22</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>653</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="B21" t="s">
-        <v>439</v>
+        <v>665</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>435</v>
+        <v>667</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41785</v>
+        <v>41792</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>669</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>639</v>
+        <v>670</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>640</v>
+        <v>206</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>71</v>
+        <v>671</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41785</v>
+        <v>41792</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>658</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>642</v>
+        <v>32</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41782</v>
+        <v>41789</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>509</v>
+        <v>661</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>510</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41781</v>
+        <v>41789</v>
       </c>
       <c r="B25" t="s">
-        <v>511</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>512</v>
+        <v>663</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>513</v>
+        <v>32</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>514</v>
+        <v>664</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41781</v>
+        <v>41789</v>
       </c>
       <c r="B26" t="s">
-        <v>515</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>516</v>
+        <v>656</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>517</v>
+        <v>570</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>518</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41781</v>
+        <v>41788</v>
       </c>
       <c r="B27" t="s">
-        <v>519</v>
+        <v>644</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>520</v>
+        <v>645</v>
       </c>
       <c r="E27" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>187</v>
+        <v>646</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>521</v>
+        <v>647</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41781</v>
+        <v>41788</v>
       </c>
       <c r="B28" t="s">
-        <v>439</v>
+        <v>648</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>522</v>
+        <v>649</v>
       </c>
       <c r="E28" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>523</v>
+        <v>650</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>524</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41780</v>
+        <v>41788</v>
       </c>
       <c r="B29" t="s">
-        <v>525</v>
+        <v>329</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>526</v>
+        <v>652</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>528</v>
+        <v>653</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41780</v>
+        <v>41788</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>439</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>526</v>
+        <v>654</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>320</v>
+        <v>435</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>529</v>
+        <v>655</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41780</v>
+        <v>41785</v>
       </c>
       <c r="B31" t="s">
-        <v>322</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>526</v>
+        <v>639</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>323</v>
+        <v>640</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>530</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41780</v>
+        <v>41785</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>531</v>
+        <v>641</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>239</v>
+        <v>642</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>532</v>
+        <v>643</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41779</v>
+        <v>41782</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>534</v>
+        <v>32</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41779</v>
+        <v>41781</v>
       </c>
       <c r="B34" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="E34" t="s">
         <v>58</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>59</v>
+        <v>513</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41779</v>
+        <v>41781</v>
       </c>
       <c r="B35" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>62</v>
+        <v>517</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41779</v>
+        <v>41781</v>
       </c>
       <c r="B36" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>544</v>
+        <v>187</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41778</v>
+        <v>41781</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>439</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41775</v>
+        <v>41780</v>
       </c>
       <c r="B38" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="E38" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41775</v>
+        <v>41780</v>
       </c>
       <c r="B39" t="s">
-        <v>553</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41775</v>
+        <v>41780</v>
       </c>
       <c r="B40" t="s">
-        <v>556</v>
+        <v>322</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
       <c r="E40" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>19</v>
+        <v>323</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41774</v>
+        <v>41780</v>
       </c>
       <c r="B41" t="s">
-        <v>281</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>561</v>
+        <v>239</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41774</v>
+        <v>41779</v>
       </c>
       <c r="B42" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41773</v>
+        <v>41779</v>
       </c>
       <c r="B43" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>539</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>570</v>
+        <v>62</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="B45" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="E45" t="s">
-        <v>574</v>
+        <v>58</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>187</v>
+        <v>544</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41772</v>
+        <v>41778</v>
       </c>
       <c r="B46" t="s">
-        <v>576</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="E46" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>239</v>
+        <v>547</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41771</v>
+        <v>41775</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>549</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>579</v>
+        <v>550</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41771</v>
+        <v>41775</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>553</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>583</v>
+        <v>22</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41771</v>
+        <v>41775</v>
       </c>
       <c r="B49" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>583</v>
+        <v>19</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41771</v>
+        <v>41774</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>281</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41771</v>
+        <v>41774</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>206</v>
+        <v>564</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41771</v>
+        <v>41773</v>
       </c>
       <c r="B52" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="E52" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>392</v>
+        <v>11</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>329</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="E53" t="s">
-        <v>574</v>
+        <v>18</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B54" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="E54" t="s">
         <v>574</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>597</v>
+        <v>187</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B55" t="s">
-        <v>329</v>
+        <v>576</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>570</v>
+        <v>239</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3744,22 +3837,22 @@
         <v>41771</v>
       </c>
       <c r="B56" t="s">
-        <v>556</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="E56" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>32</v>
+        <v>580</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3767,22 +3860,22 @@
         <v>41771</v>
       </c>
       <c r="B57" t="s">
-        <v>556</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="E57" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>32</v>
+        <v>583</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3790,22 +3883,22 @@
         <v>41771</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>585</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>19</v>
+        <v>583</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3813,188 +3906,188 @@
         <v>41771</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B60" t="s">
-        <v>610</v>
+        <v>167</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>612</v>
+        <v>206</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B61" t="s">
-        <v>329</v>
+        <v>590</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>570</v>
+        <v>392</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="B62" t="s">
-        <v>556</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="E62" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>32</v>
+        <v>594</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="B63" t="s">
-        <v>439</v>
+        <v>596</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="E63" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B64" t="s">
-        <v>621</v>
+        <v>329</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="E64" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>59</v>
+        <v>570</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>71</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B65" t="s">
-        <v>623</v>
+        <v>556</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="E65" t="s">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B66" t="s">
-        <v>626</v>
+        <v>556</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="E66" t="s">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>628</v>
+        <v>32</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
@@ -4003,113 +4096,113 @@
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="E67" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>631</v>
+        <v>19</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41761</v>
+        <v>41768</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>610</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>127</v>
+        <v>612</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>71</v>
+        <v>613</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41761</v>
+        <v>41768</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>636</v>
+        <v>614</v>
       </c>
       <c r="E70" t="s">
         <v>18</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>637</v>
+        <v>570</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="B71" t="s">
-        <v>505</v>
+        <v>556</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>506</v>
+        <v>616</v>
       </c>
       <c r="E71" t="s">
-        <v>338</v>
+        <v>558</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>507</v>
+        <v>32</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>508</v>
+        <v>617</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41758</v>
+        <v>41766</v>
       </c>
       <c r="B72" t="s">
         <v>439</v>
@@ -4118,959 +4211,959 @@
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>499</v>
+        <v>618</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>558</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>500</v>
+        <v>619</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>501</v>
+        <v>620</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>621</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>502</v>
+        <v>622</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>503</v>
+        <v>59</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>504</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41754</v>
+        <v>41765</v>
       </c>
       <c r="B74" t="s">
-        <v>495</v>
+        <v>623</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>496</v>
+        <v>624</v>
       </c>
       <c r="E74" t="s">
-        <v>497</v>
+        <v>58</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>498</v>
+        <v>625</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41745</v>
+        <v>41765</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>626</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>477</v>
+        <v>627</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>478</v>
+        <v>628</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>479</v>
+        <v>629</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41744</v>
+        <v>41765</v>
       </c>
       <c r="B76" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>481</v>
+        <v>630</v>
       </c>
       <c r="E76" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>482</v>
+        <v>631</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>483</v>
+        <v>632</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41743</v>
+        <v>41765</v>
       </c>
       <c r="B77" t="s">
-        <v>484</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>485</v>
+        <v>633</v>
       </c>
       <c r="E77" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>486</v>
+        <v>628</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>487</v>
+        <v>634</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41743</v>
+        <v>41761</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>488</v>
+        <v>635</v>
       </c>
       <c r="E78" t="s">
         <v>18</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>489</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41743</v>
+        <v>41761</v>
       </c>
       <c r="B79" t="s">
-        <v>490</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>491</v>
+        <v>636</v>
       </c>
       <c r="E79" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>492</v>
+        <v>637</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>457</v>
+        <v>638</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41743</v>
+        <v>41759</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>505</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41740</v>
+        <v>41758</v>
       </c>
       <c r="B81" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C81" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="E81" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>59</v>
+        <v>500</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41740</v>
+        <v>41758</v>
       </c>
       <c r="B82" t="s">
-        <v>458</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="E82" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>62</v>
+        <v>503</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41740</v>
+        <v>41754</v>
       </c>
       <c r="B83" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E83" t="s">
-        <v>58</v>
+        <v>497</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>463</v>
+        <v>7</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41739</v>
+        <v>41745</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41739</v>
+        <v>41744</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>480</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>187</v>
+        <v>482</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41739</v>
+        <v>41743</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>484</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41739</v>
+        <v>41743</v>
       </c>
       <c r="B87" t="s">
-        <v>473</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>475</v>
+        <v>19</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41738</v>
+        <v>41743</v>
       </c>
       <c r="B88" t="s">
-        <v>336</v>
+        <v>490</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="E88" t="s">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>32</v>
+        <v>492</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41738</v>
+        <v>41743</v>
       </c>
       <c r="B89" t="s">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41737</v>
+        <v>41740</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>455</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>435</v>
+        <v>59</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41737</v>
+        <v>41740</v>
       </c>
       <c r="B91" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>327</v>
+        <v>62</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41736</v>
+        <v>41740</v>
       </c>
       <c r="B92" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="E92" t="s">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="B93" t="s">
-        <v>442</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="B94" t="s">
-        <v>446</v>
+        <v>167</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>448</v>
+        <v>187</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="B96" t="s">
-        <v>329</v>
+        <v>473</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>331</v>
+        <v>475</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41733</v>
+        <v>41738</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>336</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>424</v>
+        <v>32</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41733</v>
+        <v>41738</v>
       </c>
       <c r="B98" t="s">
-        <v>138</v>
+        <v>291</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="E98" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>32</v>
+        <v>451</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41732</v>
+        <v>41737</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E99" t="s">
         <v>18</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41731</v>
+        <v>41737</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>407</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>432</v>
+        <v>327</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41731</v>
+        <v>41736</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="C101" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>67</v>
+        <v>435</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41731</v>
+        <v>41736</v>
       </c>
       <c r="B102" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>327</v>
+        <v>444</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41730</v>
+        <v>41736</v>
       </c>
       <c r="B103" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="E103" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41730</v>
+        <v>41736</v>
       </c>
       <c r="B104" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>32</v>
+        <v>419</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>329</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E105" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41729</v>
+        <v>41733</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41729</v>
+        <v>41733</v>
       </c>
       <c r="B107" t="s">
-        <v>374</v>
+        <v>138</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="E107" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41729</v>
+        <v>41732</v>
       </c>
       <c r="B108" t="s">
-        <v>377</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="E108" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B109" t="s">
-        <v>380</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="E109" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="E110" t="s">
         <v>18</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>385</v>
+        <v>67</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>407</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B112" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="E112" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B113" t="s">
-        <v>393</v>
+        <v>123</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>395</v>
+        <v>32</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -5078,22 +5171,22 @@
         <v>41729</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="C114" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="E114" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -5101,22 +5194,22 @@
         <v>41729</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="E115" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>40</v>
+        <v>372</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -5124,22 +5217,22 @@
         <v>41729</v>
       </c>
       <c r="B116" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>399</v>
+        <v>59</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5147,22 +5240,22 @@
         <v>41729</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>377</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>365</v>
+        <v>62</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -5170,602 +5263,602 @@
         <v>41729</v>
       </c>
       <c r="B118" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="E119" t="s">
         <v>18</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>390</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="E121" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>393</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="E122" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>37</v>
+        <v>395</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B123" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="E123" t="s">
         <v>2</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="E124" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>397</v>
       </c>
       <c r="C125" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="E125" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>7</v>
+        <v>399</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41722</v>
+        <v>41729</v>
       </c>
       <c r="B126" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>32</v>
+        <v>365</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41722</v>
+        <v>41729</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>367</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="E127" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>32</v>
+        <v>369</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41719</v>
+        <v>41725</v>
       </c>
       <c r="B128" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="E128" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41718</v>
+        <v>41725</v>
       </c>
       <c r="B129" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="E129" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41718</v>
+        <v>41725</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>41718</v>
+        <v>41724</v>
       </c>
       <c r="B131" t="s">
-        <v>336</v>
+        <v>36</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="E131" t="s">
-        <v>338</v>
+        <v>2</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B133" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C133" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
       <c r="E133" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>272</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>273</v>
+        <v>347</v>
       </c>
       <c r="E134" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="B135" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="E135" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>276</v>
+        <v>343</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="B136" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="E136" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>277</v>
+        <v>346</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41717</v>
+        <v>41719</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="E137" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>280</v>
+        <v>343</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B138" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>192</v>
+        <v>334</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>33</v>
+        <v>335</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>41716</v>
+        <v>41718</v>
       </c>
       <c r="B140" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="E140" t="s">
-        <v>6</v>
+        <v>338</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B141" t="s">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="E141" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B142" t="s">
-        <v>291</v>
+        <v>39</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B143" t="s">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="C143" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>295</v>
+        <v>181</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B144" t="s">
         <v>36</v>
@@ -5774,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
@@ -5783,12 +5876,12 @@
         <v>37</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B145" t="s">
         <v>39</v>
@@ -5797,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
@@ -5806,12 +5899,12 @@
         <v>40</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B146" t="s">
         <v>42</v>
@@ -5820,131 +5913,131 @@
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="E146" t="s">
         <v>43</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B147" t="s">
-        <v>36</v>
+        <v>281</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="E147" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>37</v>
+        <v>283</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B148" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="E148" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>305</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B149" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="C149" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E149" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>307</v>
+        <v>32</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B150" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="E150" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B151" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E151" t="s">
         <v>10</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>315</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5952,22 +6045,22 @@
         <v>41715</v>
       </c>
       <c r="B152" t="s">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E152" t="s">
         <v>10</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5975,22 +6068,22 @@
         <v>41715</v>
       </c>
       <c r="B153" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>320</v>
+        <v>37</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5998,22 +6091,22 @@
         <v>41715</v>
       </c>
       <c r="B154" t="s">
-        <v>322</v>
+        <v>39</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -6021,671 +6114,671 @@
         <v>41715</v>
       </c>
       <c r="B155" t="s">
-        <v>325</v>
+        <v>42</v>
       </c>
       <c r="C155" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="E156" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B157" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="E157" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>41709</v>
+        <v>41715</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C158" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B159" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>312</v>
       </c>
       <c r="C160" t="s">
         <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="E160" t="s">
         <v>10</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B161" t="s">
-        <v>246</v>
+        <v>316</v>
       </c>
       <c r="C161" t="s">
         <v>1</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="E161" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>59</v>
+        <v>318</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B162" t="s">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c r="C162" t="s">
         <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="E162" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>251</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B163" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="E163" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B164" t="s">
-        <v>30</v>
+        <v>325</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
       <c r="E164" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>242</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>41705</v>
+        <v>41712</v>
       </c>
       <c r="B165" t="s">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="E165" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>41703</v>
+        <v>41711</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="E166" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>41703</v>
+        <v>41709</v>
       </c>
       <c r="B167" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="C167" t="s">
         <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E167" t="s">
         <v>10</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="C168" t="s">
         <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="E168" t="s">
         <v>10</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B169" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="E169" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B170" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="C170" t="s">
         <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="E170" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>41698</v>
+        <v>41708</v>
       </c>
       <c r="B171" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="E171" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>41698</v>
+        <v>41708</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="C172" t="s">
         <v>1</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="E172" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>41698</v>
+        <v>41708</v>
       </c>
       <c r="B173" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="E173" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>41697</v>
+        <v>41705</v>
       </c>
       <c r="B174" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="E174" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>41696</v>
+        <v>41703</v>
       </c>
       <c r="B175" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
         <v>1</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E175" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>41696</v>
+        <v>41703</v>
       </c>
       <c r="B176" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E176" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>41696</v>
+        <v>41703</v>
       </c>
       <c r="B177" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>41690</v>
+        <v>41703</v>
       </c>
       <c r="B178" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="C178" t="s">
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="E178" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>41689</v>
+        <v>41703</v>
       </c>
       <c r="B179" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C179" t="s">
         <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E179" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>41689</v>
+        <v>41698</v>
       </c>
       <c r="B180" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="C180" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E180" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>41689</v>
+        <v>41698</v>
       </c>
       <c r="B181" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E181" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>41689</v>
+        <v>41698</v>
       </c>
       <c r="B182" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E182" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>41687</v>
+        <v>41697</v>
       </c>
       <c r="B183" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="E183" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B184" t="s">
         <v>36</v>
@@ -6694,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E184" t="s">
         <v>2</v>
@@ -6703,12 +6796,12 @@
         <v>37</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B185" t="s">
         <v>39</v>
@@ -6717,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E185" t="s">
         <v>2</v>
@@ -6726,12 +6819,12 @@
         <v>40</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B186" t="s">
         <v>42</v>
@@ -6740,297 +6833,297 @@
         <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="E186" t="s">
         <v>43</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>41687</v>
+        <v>41690</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C187" t="s">
         <v>1</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B188" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C188" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E188" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>41684</v>
+        <v>41689</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E189" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>41684</v>
+        <v>41689</v>
       </c>
       <c r="B190" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C190" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E190" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>41682</v>
+        <v>41689</v>
       </c>
       <c r="B191" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="E191" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B192" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="E192" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B193" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="C193" t="s">
         <v>1</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="E193" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E194" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C195" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B196" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C196" t="s">
         <v>1</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="E196" t="s">
         <v>10</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B197" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C197" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B198" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C198" t="s">
         <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="E198" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>41680</v>
+        <v>41684</v>
       </c>
       <c r="B199" t="s">
         <v>30</v>
@@ -7039,7 +7132,7 @@
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="E199" t="s">
         <v>31</v>
@@ -7048,104 +7141,104 @@
         <v>32</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>41680</v>
+        <v>41682</v>
       </c>
       <c r="B200" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E200" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B201" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="E201" t="s">
         <v>58</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B202" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="C202" t="s">
         <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E202" t="s">
         <v>58</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B203" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C203" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="E203" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B204" t="s">
         <v>13</v>
@@ -7154,113 +7247,113 @@
         <v>1</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="E204" t="s">
         <v>10</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B205" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="E205" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B206" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C206" t="s">
         <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E206" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C207" t="s">
         <v>1</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="E207" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B208" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="E208" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>41675</v>
+        <v>41680</v>
       </c>
       <c r="B209" t="s">
         <v>16</v>
@@ -7269,205 +7362,205 @@
         <v>17</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E209" t="s">
         <v>18</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B210" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="E210" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B211" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E211" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B212" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E212" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B213" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C213" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E213" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>41670</v>
+        <v>41676</v>
       </c>
       <c r="B214" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="E214" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>41670</v>
+        <v>41676</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C215" t="s">
         <v>1</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E215" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>41663</v>
+        <v>41676</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C216" t="s">
         <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>41662</v>
+        <v>41676</v>
       </c>
       <c r="B217" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>41661</v>
+        <v>41675</v>
       </c>
       <c r="B218" t="s">
         <v>16</v>
@@ -7476,544 +7569,751 @@
         <v>17</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="E218" t="s">
         <v>18</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>41656</v>
+        <v>41674</v>
       </c>
       <c r="B219" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="C219" t="s">
         <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="E219" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B220" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E220" t="s">
         <v>2</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B221" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C221" t="s">
         <v>1</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E221" t="s">
         <v>2</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B222" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C222" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E222" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>41654</v>
+        <v>41670</v>
       </c>
       <c r="B223" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C223" t="s">
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E223" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>41653</v>
+        <v>41670</v>
       </c>
       <c r="B224" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E224" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>41653</v>
+        <v>41663</v>
       </c>
       <c r="B225" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
         <v>1</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E225" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>41653</v>
+        <v>41662</v>
       </c>
       <c r="B226" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E226" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>41652</v>
+        <v>41661</v>
       </c>
       <c r="B227" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C227" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>41652</v>
+        <v>41656</v>
       </c>
       <c r="B228" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C228" t="s">
         <v>1</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E228" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B229" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C229" t="s">
         <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E229" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B230" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C230" t="s">
         <v>1</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E230" t="s">
         <v>2</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B231" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C231" t="s">
         <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E231" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B232" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C232" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E232" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E233" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B234" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C234" t="s">
         <v>1</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E234" t="s">
         <v>2</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B235" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C235" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E235" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B236" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C236" t="s">
         <v>1</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E236" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B237" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E237" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B238" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C238" t="s">
         <v>1</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E238" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B239" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C239" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E239" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B240" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C240" t="s">
         <v>1</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E240" t="s">
         <v>2</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B241" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C241" t="s">
         <v>17</v>
       </c>
       <c r="D241" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E241" t="s">
+        <v>43</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B242" t="s">
+        <v>16</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E242" t="s">
+        <v>18</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B243" t="s">
+        <v>52</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E243" t="s">
+        <v>2</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B244" t="s">
+        <v>39</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E244" t="s">
+        <v>2</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B245" t="s">
+        <v>57</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E245" t="s">
+        <v>58</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B246" t="s">
+        <v>61</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E246" t="s">
+        <v>58</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B247" t="s">
+        <v>64</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E247" t="s">
+        <v>58</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B248" t="s">
+        <v>16</v>
+      </c>
+      <c r="C248" t="s">
+        <v>17</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E248" t="s">
+        <v>18</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B249" t="s">
+        <v>69</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E249" t="s">
+        <v>2</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B250" t="s">
+        <v>16</v>
+      </c>
+      <c r="C250" t="s">
+        <v>17</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E250" t="s">
         <v>18</v>
       </c>
-      <c r="F241" s="3" t="s">
+      <c r="F250" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G241" s="3" t="s">
+      <c r="G250" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/docs/backup/cuenta_3940694600.xlsx
+++ b/docs/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="753">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -2196,6 +2196,93 @@
   </si>
   <si>
     <t>1173.85</t>
+  </si>
+  <si>
+    <t>0000686901</t>
+  </si>
+  <si>
+    <t>16.14  </t>
+  </si>
+  <si>
+    <t>14075187-COSTO IVA CASH-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0015842437</t>
+  </si>
+  <si>
+    <t>16.14</t>
+  </si>
+  <si>
+    <t>14075187-COSTO OPER CASH-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0015842428</t>
+  </si>
+  <si>
+    <t>16.18</t>
+  </si>
+  <si>
+    <t>14075187-EMAP Q-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0015842373</t>
+  </si>
+  <si>
+    <t>16.49</t>
+  </si>
+  <si>
+    <t>0011610620</t>
+  </si>
+  <si>
+    <t>25.03</t>
+  </si>
+  <si>
+    <t>0011404139</t>
+  </si>
+  <si>
+    <t>1.89  </t>
+  </si>
+  <si>
+    <t>45.03</t>
+  </si>
+  <si>
+    <t>0010999462</t>
+  </si>
+  <si>
+    <t>46.92</t>
+  </si>
+  <si>
+    <t>0001155243</t>
+  </si>
+  <si>
+    <t>49.92</t>
+  </si>
+  <si>
+    <t>0001132874</t>
+  </si>
+  <si>
+    <t>35.15  </t>
+  </si>
+  <si>
+    <t>89.92</t>
+  </si>
+  <si>
+    <t>0000216567</t>
+  </si>
+  <si>
+    <t>125.07</t>
+  </si>
+  <si>
+    <t>0008720653</t>
+  </si>
+  <si>
+    <t>145.07</t>
+  </si>
+  <si>
+    <t>0007780041</t>
+  </si>
+  <si>
+    <t>415.07</t>
   </si>
 </sst>
 </file>
@@ -2518,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H9"/>
+      <selection activeCell="H1" sqref="H1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,7 +2620,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41823</v>
+        <v>41830</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -2542,133 +2629,133 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>701</v>
+        <v>724</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>702</v>
+        <v>725</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>703</v>
+        <v>71</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H9" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005026708', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 475.18  , 'mo_saldo' =&gt; 418.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H12" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-10'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000686901', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 16.14  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41823</v>
+        <v>41827</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>726</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>704</v>
+        <v>727</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>705</v>
+        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004991854', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 280.60  , 'mo_saldo' =&gt; 893.25, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '14075187-COSTO IVA CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0015842437', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.04  , 'mo_saldo' =&gt; 16.14, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41823</v>
+        <v>41827</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>729</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>707</v>
+        <v>730</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>722</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; 'DEPOSITO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0004379059', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 1080.00  , 'mo_saldo' =&gt; 1173.85, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '14075187-COSTO OPER CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0015842428', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.31  , 'mo_saldo' =&gt; 16.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41822</v>
+        <v>41827</v>
       </c>
       <c r="B4" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>382</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>710</v>
+        <v>734</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; '14043780-MEGADATOS S.A -CB-1500583339', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008651952', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 76.15  , 'mo_saldo' =&gt; 93.85, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '14075187-EMAP Q-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0015842373', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 8.54  , 'mo_saldo' =&gt; 16.49, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41822</v>
+        <v>41827</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>712</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>713</v>
+        <v>736</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0005875591', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 170.00  , 'mo_saldo' =&gt; 170.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 2', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0011610620', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 25.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41816</v>
+        <v>41827</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -2677,152 +2764,160 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>714</v>
+        <v>737</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>71</v>
+        <v>739</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-26'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0003722472', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 729.66  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0011404139', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 1.89  , 'mo_saldo' =&gt; 45.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41815</v>
+        <v>41827</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>716</v>
+        <v>740</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>570</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>717</v>
+        <v>741</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-25'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004909773', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 729.66, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010999462', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 3.00  , 'mo_saldo' =&gt; 46.92, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41815</v>
+        <v>41827</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-25'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004909773', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 729.93, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001155243', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 40.00  , 'mo_saldo' =&gt; 49.92, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41815</v>
+        <v>41827</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-25'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0004909753', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 728.83  , 'mo_saldo' =&gt; 729.96, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001132874', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 35.15  , 'mo_saldo' =&gt; 89.92, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41806</v>
+        <v>41824</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>695</v>
+        <v>747</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>570</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>696</v>
+        <v>748</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-04'), 'mo_concepto' =&gt; 'DB AH PROGRAMADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000216567', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 125.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41800</v>
+        <v>41823</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>697</v>
+        <v>749</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>698</v>
+        <v>750</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008720653', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 270.00  , 'mo_saldo' =&gt; 145.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41799</v>
+        <v>41823</v>
       </c>
       <c r="B12" t="s">
         <v>329</v>
@@ -2831,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>699</v>
+        <v>751</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -2840,35 +2935,39 @@
         <v>570</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>700</v>
+        <v>752</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007780041', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 3.00  , 'mo_saldo' =&gt; 415.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41794</v>
+        <v>41823</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>702</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41793</v>
+        <v>41823</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -2877,1235 +2976,1235 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41793</v>
+        <v>41823</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>677</v>
+        <v>723</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41793</v>
+        <v>41822</v>
       </c>
       <c r="B16" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41793</v>
+        <v>41822</v>
       </c>
       <c r="B17" t="s">
-        <v>681</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>682</v>
+        <v>711</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>62</v>
+        <v>712</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41793</v>
+        <v>41816</v>
       </c>
       <c r="B18" t="s">
-        <v>684</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>685</v>
+        <v>714</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>686</v>
+        <v>715</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>687</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41793</v>
+        <v>41815</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41793</v>
+        <v>41815</v>
       </c>
       <c r="B20" t="s">
-        <v>690</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>691</v>
+        <v>716</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41792</v>
+        <v>41815</v>
       </c>
       <c r="B21" t="s">
-        <v>665</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>666</v>
+        <v>719</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>667</v>
+        <v>720</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>668</v>
+        <v>721</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41792</v>
+        <v>41806</v>
       </c>
       <c r="B22" t="s">
-        <v>669</v>
+        <v>329</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>670</v>
+        <v>695</v>
       </c>
       <c r="E22" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>206</v>
+        <v>570</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>671</v>
+        <v>696</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41792</v>
+        <v>41800</v>
       </c>
       <c r="B23" t="s">
-        <v>658</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>659</v>
+        <v>697</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>660</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41789</v>
+        <v>41799</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>329</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>40</v>
+        <v>570</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>662</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41789</v>
+        <v>41794</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>663</v>
+        <v>693</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>664</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41789</v>
+        <v>41793</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>570</v>
+        <v>673</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B27" t="s">
-        <v>644</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>646</v>
+        <v>676</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>647</v>
+        <v>677</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B28" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>650</v>
+        <v>59</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>651</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B29" t="s">
-        <v>329</v>
+        <v>681</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>652</v>
+        <v>682</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>570</v>
+        <v>62</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>653</v>
+        <v>683</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B30" t="s">
-        <v>439</v>
+        <v>684</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>654</v>
+        <v>685</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>435</v>
+        <v>686</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>655</v>
+        <v>687</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41785</v>
+        <v>41793</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>639</v>
+        <v>688</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>640</v>
+        <v>67</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>71</v>
+        <v>689</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41785</v>
+        <v>41793</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>690</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>641</v>
+        <v>691</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>642</v>
+        <v>22</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41782</v>
+        <v>41792</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>665</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>509</v>
+        <v>666</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>32</v>
+        <v>667</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>510</v>
+        <v>668</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41781</v>
+        <v>41792</v>
       </c>
       <c r="B34" t="s">
-        <v>511</v>
+        <v>669</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>512</v>
+        <v>670</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>338</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>513</v>
+        <v>206</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>514</v>
+        <v>671</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41781</v>
+        <v>41792</v>
       </c>
       <c r="B35" t="s">
-        <v>515</v>
+        <v>658</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>516</v>
+        <v>659</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>517</v>
+        <v>32</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>518</v>
+        <v>660</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41781</v>
+        <v>41789</v>
       </c>
       <c r="B36" t="s">
-        <v>519</v>
+        <v>209</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>520</v>
+        <v>661</v>
       </c>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>521</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41781</v>
+        <v>41789</v>
       </c>
       <c r="B37" t="s">
-        <v>439</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>522</v>
+        <v>663</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>523</v>
+        <v>32</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>524</v>
+        <v>664</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41780</v>
+        <v>41789</v>
       </c>
       <c r="B38" t="s">
-        <v>525</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>526</v>
+        <v>656</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>528</v>
+        <v>657</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41780</v>
+        <v>41788</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>644</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>526</v>
+        <v>645</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>320</v>
+        <v>646</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>529</v>
+        <v>647</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41780</v>
+        <v>41788</v>
       </c>
       <c r="B40" t="s">
-        <v>322</v>
+        <v>648</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>526</v>
+        <v>649</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>323</v>
+        <v>650</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>530</v>
+        <v>651</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41780</v>
+        <v>41788</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>531</v>
+        <v>652</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>239</v>
+        <v>570</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>532</v>
+        <v>653</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41779</v>
+        <v>41788</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>533</v>
+        <v>654</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>534</v>
+        <v>435</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>535</v>
+        <v>655</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41779</v>
+        <v>41785</v>
       </c>
       <c r="B43" t="s">
-        <v>536</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>537</v>
+        <v>639</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>59</v>
+        <v>640</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41779</v>
+        <v>41785</v>
       </c>
       <c r="B44" t="s">
-        <v>539</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>540</v>
+        <v>641</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>62</v>
+        <v>642</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>541</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41779</v>
+        <v>41782</v>
       </c>
       <c r="B45" t="s">
-        <v>542</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>544</v>
+        <v>32</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>545</v>
+        <v>510</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41778</v>
+        <v>41781</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>511</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41775</v>
+        <v>41781</v>
       </c>
       <c r="B47" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="E47" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41775</v>
+        <v>41781</v>
       </c>
       <c r="B48" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41775</v>
+        <v>41781</v>
       </c>
       <c r="B49" t="s">
-        <v>556</v>
+        <v>439</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="E49" t="s">
-        <v>558</v>
+        <v>169</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>19</v>
+        <v>523</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41774</v>
+        <v>41780</v>
       </c>
       <c r="B50" t="s">
-        <v>281</v>
+        <v>525</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41774</v>
+        <v>41780</v>
       </c>
       <c r="B51" t="s">
-        <v>329</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>563</v>
+        <v>526</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>564</v>
+        <v>320</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41773</v>
+        <v>41780</v>
       </c>
       <c r="B52" t="s">
-        <v>566</v>
+        <v>322</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>567</v>
+        <v>526</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>568</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41772</v>
+        <v>41780</v>
       </c>
       <c r="B53" t="s">
-        <v>329</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>570</v>
+        <v>239</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="B54" t="s">
-        <v>572</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="E54" t="s">
-        <v>574</v>
+        <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>187</v>
+        <v>534</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="B55" t="s">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
       <c r="E55" t="s">
-        <v>558</v>
+        <v>58</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41771</v>
+        <v>41779</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>539</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>579</v>
+        <v>540</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>580</v>
+        <v>62</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41771</v>
+        <v>41779</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>542</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>583</v>
+        <v>544</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>584</v>
+        <v>545</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41771</v>
+        <v>41778</v>
       </c>
       <c r="B58" t="s">
-        <v>585</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>587</v>
+        <v>548</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41771</v>
+        <v>41775</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>549</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41771</v>
+        <v>41775</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>553</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>589</v>
+        <v>554</v>
       </c>
       <c r="E60" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41771</v>
+        <v>41775</v>
       </c>
       <c r="B61" t="s">
-        <v>590</v>
+        <v>556</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="E61" t="s">
-        <v>2</v>
+        <v>558</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>392</v>
+        <v>19</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41771</v>
+        <v>41774</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="E62" t="s">
-        <v>574</v>
+        <v>10</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>595</v>
+        <v>562</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41771</v>
+        <v>41774</v>
       </c>
       <c r="B63" t="s">
-        <v>596</v>
+        <v>329</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="E63" t="s">
-        <v>574</v>
+        <v>18</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>598</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41771</v>
+        <v>41773</v>
       </c>
       <c r="B64" t="s">
-        <v>329</v>
+        <v>566</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>570</v>
+        <v>11</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>600</v>
+        <v>568</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B65" t="s">
-        <v>556</v>
+        <v>329</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="E65" t="s">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>32</v>
+        <v>570</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>602</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B66" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="E66" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>576</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4113,257 +4212,257 @@
         <v>41771</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B69" t="s">
-        <v>610</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B70" t="s">
-        <v>329</v>
+        <v>585</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>614</v>
+        <v>586</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>615</v>
+        <v>587</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="B71" t="s">
-        <v>556</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
       <c r="E71" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>32</v>
+        <v>583</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="B72" t="s">
-        <v>439</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="E72" t="s">
-        <v>558</v>
+        <v>169</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>619</v>
+        <v>206</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B73" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>59</v>
+        <v>392</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>71</v>
+        <v>592</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B74" t="s">
-        <v>623</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="E74" t="s">
-        <v>58</v>
+        <v>574</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>62</v>
+        <v>594</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>625</v>
+        <v>595</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B75" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>627</v>
+        <v>593</v>
       </c>
       <c r="E75" t="s">
-        <v>58</v>
+        <v>574</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>629</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>630</v>
+        <v>599</v>
       </c>
       <c r="E76" t="s">
         <v>18</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>631</v>
+        <v>570</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>632</v>
+        <v>600</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>556</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>633</v>
+        <v>601</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>628</v>
+        <v>32</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>634</v>
+        <v>602</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41761</v>
+        <v>41771</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>556</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>635</v>
+        <v>603</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>71</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41761</v>
+        <v>41771</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
@@ -4372,228 +4471,228 @@
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
       <c r="E79" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>637</v>
+        <v>19</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>638</v>
+        <v>606</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41759</v>
+        <v>41771</v>
       </c>
       <c r="B80" t="s">
-        <v>505</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>506</v>
+        <v>607</v>
       </c>
       <c r="E80" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>507</v>
+        <v>608</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>508</v>
+        <v>609</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41758</v>
+        <v>41768</v>
       </c>
       <c r="B81" t="s">
-        <v>439</v>
+        <v>610</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>499</v>
+        <v>611</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>500</v>
+        <v>612</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>501</v>
+        <v>613</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41758</v>
+        <v>41768</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>502</v>
+        <v>614</v>
       </c>
       <c r="E82" t="s">
         <v>18</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>503</v>
+        <v>570</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41754</v>
+        <v>41766</v>
       </c>
       <c r="B83" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>496</v>
+        <v>616</v>
       </c>
       <c r="E83" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>498</v>
+        <v>617</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41745</v>
+        <v>41766</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>439</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>477</v>
+        <v>618</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>478</v>
+        <v>619</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>479</v>
+        <v>620</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41744</v>
+        <v>41765</v>
       </c>
       <c r="B85" t="s">
-        <v>480</v>
+        <v>621</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>481</v>
+        <v>622</v>
       </c>
       <c r="E85" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>482</v>
+        <v>59</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>483</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41743</v>
+        <v>41765</v>
       </c>
       <c r="B86" t="s">
-        <v>484</v>
+        <v>623</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>485</v>
+        <v>624</v>
       </c>
       <c r="E86" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>486</v>
+        <v>62</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>487</v>
+        <v>625</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41743</v>
+        <v>41765</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>626</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>488</v>
+        <v>627</v>
       </c>
       <c r="E87" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>19</v>
+        <v>628</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>489</v>
+        <v>629</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41743</v>
+        <v>41765</v>
       </c>
       <c r="B88" t="s">
-        <v>490</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>491</v>
+        <v>630</v>
       </c>
       <c r="E88" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>492</v>
+        <v>631</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>457</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41743</v>
+        <v>41765</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
@@ -4602,844 +4701,844 @@
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>493</v>
+        <v>633</v>
       </c>
       <c r="E89" t="s">
         <v>18</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>492</v>
+        <v>628</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>494</v>
+        <v>634</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41740</v>
+        <v>41761</v>
       </c>
       <c r="B90" t="s">
-        <v>455</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>456</v>
+        <v>635</v>
       </c>
       <c r="E90" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>457</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41740</v>
+        <v>41761</v>
       </c>
       <c r="B91" t="s">
-        <v>458</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>459</v>
+        <v>636</v>
       </c>
       <c r="E91" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>62</v>
+        <v>637</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>460</v>
+        <v>638</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41740</v>
+        <v>41759</v>
       </c>
       <c r="B92" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="E92" t="s">
-        <v>58</v>
+        <v>338</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41739</v>
+        <v>41758</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41739</v>
+        <v>41758</v>
       </c>
       <c r="B94" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="E94" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>187</v>
+        <v>503</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41739</v>
+        <v>41754</v>
       </c>
       <c r="B95" t="s">
-        <v>160</v>
+        <v>495</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>497</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>471</v>
+        <v>7</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41739</v>
+        <v>41745</v>
       </c>
       <c r="B96" t="s">
-        <v>473</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41738</v>
+        <v>41744</v>
       </c>
       <c r="B97" t="s">
-        <v>336</v>
+        <v>480</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="E97" t="s">
-        <v>338</v>
+        <v>2</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>32</v>
+        <v>482</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41738</v>
+        <v>41743</v>
       </c>
       <c r="B98" t="s">
-        <v>291</v>
+        <v>484</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>452</v>
+        <v>487</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41737</v>
+        <v>41743</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="E99" t="s">
         <v>18</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>435</v>
+        <v>19</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41737</v>
+        <v>41743</v>
       </c>
       <c r="B100" t="s">
-        <v>407</v>
+        <v>490</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>327</v>
+        <v>492</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41736</v>
+        <v>41743</v>
       </c>
       <c r="B101" t="s">
-        <v>439</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="E101" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41736</v>
+        <v>41740</v>
       </c>
       <c r="B102" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>444</v>
+        <v>59</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41736</v>
+        <v>41740</v>
       </c>
       <c r="B103" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>448</v>
+        <v>62</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41736</v>
+        <v>41740</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>461</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="B105" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="E105" t="s">
         <v>18</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>331</v>
+        <v>466</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41733</v>
+        <v>41739</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>424</v>
+        <v>187</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41733</v>
+        <v>41739</v>
       </c>
       <c r="B107" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="E107" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>32</v>
+        <v>471</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41732</v>
+        <v>41739</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>473</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41731</v>
+        <v>41738</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>336</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>432</v>
+        <v>32</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41731</v>
+        <v>41738</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="E110" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>67</v>
+        <v>451</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41731</v>
+        <v>41737</v>
       </c>
       <c r="B111" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>327</v>
+        <v>435</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="B112" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="E112" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>412</v>
+        <v>327</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41730</v>
+        <v>41736</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>439</v>
       </c>
       <c r="C113" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="E113" t="s">
-        <v>31</v>
+        <v>338</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>32</v>
+        <v>435</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B114" t="s">
-        <v>209</v>
+        <v>442</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="E114" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>40</v>
+        <v>444</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>371</v>
+        <v>447</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>372</v>
+        <v>448</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>373</v>
+        <v>449</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B116" t="s">
-        <v>374</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="E116" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>59</v>
+        <v>419</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B117" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="E117" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>62</v>
+        <v>331</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41729</v>
+        <v>41733</v>
       </c>
       <c r="B118" t="s">
-        <v>380</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="E118" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41729</v>
+        <v>41733</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="E119" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>385</v>
+        <v>32</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41729</v>
+        <v>41732</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="E120" t="s">
         <v>18</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B121" t="s">
-        <v>390</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="E121" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B122" t="s">
-        <v>393</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>395</v>
+        <v>67</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B123" t="s">
-        <v>36</v>
+        <v>407</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="E123" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>37</v>
+        <v>327</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>410</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="E124" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B125" t="s">
-        <v>397</v>
+        <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>399</v>
+        <v>32</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -5447,22 +5546,22 @@
         <v>41729</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="C126" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>365</v>
+        <v>40</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -5470,487 +5569,487 @@
         <v>41729</v>
       </c>
       <c r="B127" t="s">
-        <v>367</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>374</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E128" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>362</v>
+        <v>59</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>377</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>359</v>
+        <v>62</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>380</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E130" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="E131" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>37</v>
+        <v>385</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B132" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="E132" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>40</v>
+        <v>388</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>390</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="E133" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>393</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="E134" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>7</v>
+        <v>395</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41722</v>
+        <v>41729</v>
       </c>
       <c r="B135" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="E135" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41722</v>
+        <v>41729</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="E136" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>346</v>
+        <v>401</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41719</v>
+        <v>41729</v>
       </c>
       <c r="B137" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="C137" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="E137" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41718</v>
+        <v>41729</v>
       </c>
       <c r="B138" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="E138" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>41718</v>
+        <v>41729</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>367</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="E139" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>41718</v>
+        <v>41725</v>
       </c>
       <c r="B140" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E140" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>192</v>
+        <v>362</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>41717</v>
+        <v>41725</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>270</v>
+        <v>358</v>
       </c>
       <c r="E141" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>41717</v>
+        <v>41725</v>
       </c>
       <c r="B142" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="E142" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B143" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>274</v>
+        <v>353</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B145" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C145" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="E145" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B146" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="E146" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="B147" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
@@ -5959,113 +6058,113 @@
         <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="E148" t="s">
         <v>18</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>33</v>
+        <v>346</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>41716</v>
+        <v>41719</v>
       </c>
       <c r="B149" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="E149" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>32</v>
+        <v>342</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>41716</v>
+        <v>41718</v>
       </c>
       <c r="B150" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="E150" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>32</v>
+        <v>331</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>41716</v>
+        <v>41718</v>
       </c>
       <c r="B151" t="s">
-        <v>291</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="E151" t="s">
         <v>10</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>33</v>
+        <v>335</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>41715</v>
+        <v>41718</v>
       </c>
       <c r="B152" t="s">
-        <v>258</v>
+        <v>336</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>295</v>
+        <v>192</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B153" t="s">
         <v>36</v>
@@ -6074,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="E153" t="s">
         <v>2</v>
@@ -6083,12 +6182,12 @@
         <v>37</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B154" t="s">
         <v>39</v>
@@ -6097,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="E154" t="s">
         <v>2</v>
@@ -6106,12 +6205,12 @@
         <v>40</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B155" t="s">
         <v>42</v>
@@ -6120,21 +6219,21 @@
         <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="E155" t="s">
         <v>43</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>301</v>
+        <v>181</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B156" t="s">
         <v>36</v>
@@ -6143,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="E156" t="s">
         <v>2</v>
@@ -6152,12 +6251,12 @@
         <v>37</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B157" t="s">
         <v>39</v>
@@ -6166,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="E157" t="s">
         <v>2</v>
@@ -6175,12 +6274,12 @@
         <v>40</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B158" t="s">
         <v>42</v>
@@ -6189,131 +6288,131 @@
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="E158" t="s">
         <v>43</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B159" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E159" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B160" t="s">
-        <v>312</v>
+        <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>314</v>
+        <v>192</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>315</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B161" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C161" t="s">
         <v>1</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B162" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="C162" t="s">
         <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B163" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="E163" t="s">
         <v>10</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>324</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -6321,533 +6420,533 @@
         <v>41715</v>
       </c>
       <c r="B164" t="s">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="E164" t="s">
         <v>10</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="E165" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B166" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="E166" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>41709</v>
+        <v>41715</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C167" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B168" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="C168" t="s">
         <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B170" t="s">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="C170" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="E170" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>59</v>
+        <v>307</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B171" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="C171" t="s">
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="E171" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B172" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="C172" t="s">
         <v>1</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="E172" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B173" t="s">
-        <v>30</v>
+        <v>316</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="E173" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>32</v>
+        <v>318</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>41705</v>
+        <v>41715</v>
       </c>
       <c r="B174" t="s">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="C174" t="s">
         <v>1</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>244</v>
+        <v>317</v>
       </c>
       <c r="E174" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>245</v>
+        <v>321</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B175" t="s">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="C175" t="s">
         <v>1</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>226</v>
+        <v>317</v>
       </c>
       <c r="E175" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B176" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>230</v>
+        <v>326</v>
       </c>
       <c r="E176" t="s">
         <v>10</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>231</v>
+        <v>327</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>232</v>
+        <v>328</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>41703</v>
+        <v>41712</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C177" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>41703</v>
+        <v>41711</v>
       </c>
       <c r="B178" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="C178" t="s">
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="E178" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>41703</v>
+        <v>41709</v>
       </c>
       <c r="B179" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C179" t="s">
         <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="E179" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>41698</v>
+        <v>41708</v>
       </c>
       <c r="B180" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="C180" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="E180" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>41698</v>
+        <v>41708</v>
       </c>
       <c r="B181" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C181" t="s">
         <v>1</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="E181" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>127</v>
+        <v>263</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>41698</v>
+        <v>41708</v>
       </c>
       <c r="B182" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="E182" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>41697</v>
+        <v>41708</v>
       </c>
       <c r="B183" t="s">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E183" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>41696</v>
+        <v>41708</v>
       </c>
       <c r="B184" t="s">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="C184" t="s">
         <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="E184" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>41696</v>
+        <v>41708</v>
       </c>
       <c r="B185" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C185" t="s">
         <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="E185" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>41696</v>
+        <v>41705</v>
       </c>
       <c r="B186" t="s">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="E186" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>41690</v>
+        <v>41703</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
@@ -6856,504 +6955,504 @@
         <v>1</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="E187" t="s">
         <v>18</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>41689</v>
+        <v>41703</v>
       </c>
       <c r="B188" t="s">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="C188" t="s">
         <v>1</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="E188" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>41689</v>
+        <v>41703</v>
       </c>
       <c r="B189" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="E189" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>41689</v>
+        <v>41703</v>
       </c>
       <c r="B190" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="E190" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>41689</v>
+        <v>41703</v>
       </c>
       <c r="B191" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E191" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>41687</v>
+        <v>41698</v>
       </c>
       <c r="B192" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="C192" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="E192" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>41687</v>
+        <v>41698</v>
       </c>
       <c r="B193" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C193" t="s">
         <v>1</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="E193" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>41687</v>
+        <v>41698</v>
       </c>
       <c r="B194" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="C194" t="s">
         <v>1</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="E194" t="s">
         <v>2</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>41687</v>
+        <v>41697</v>
       </c>
       <c r="B195" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C195" t="s">
         <v>17</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="E195" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C196" t="s">
         <v>1</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="E197" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>41684</v>
+        <v>41696</v>
       </c>
       <c r="B198" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="C198" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="E198" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>41684</v>
+        <v>41690</v>
       </c>
       <c r="B199" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E199" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>41682</v>
+        <v>41689</v>
       </c>
       <c r="B200" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="C200" t="s">
         <v>1</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>41682</v>
+        <v>41689</v>
       </c>
       <c r="B201" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="E201" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>41682</v>
+        <v>41689</v>
       </c>
       <c r="B202" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="C202" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="E202" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>41682</v>
+        <v>41689</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="E203" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B205" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B206" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="C206" t="s">
         <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B207" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="C207" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E207" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>41680</v>
+        <v>41687</v>
       </c>
       <c r="B208" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E208" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>41680</v>
+        <v>41687</v>
       </c>
       <c r="B209" t="s">
         <v>16</v>
@@ -7362,958 +7461,1234 @@
         <v>17</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="E209" t="s">
         <v>18</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>41677</v>
+        <v>41684</v>
       </c>
       <c r="B210" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="E210" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>41677</v>
+        <v>41684</v>
       </c>
       <c r="B211" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="E211" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B212" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E212" t="s">
         <v>58</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>41676</v>
+        <v>41682</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="C213" t="s">
         <v>1</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>41676</v>
+        <v>41682</v>
       </c>
       <c r="B214" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="E214" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>41676</v>
+        <v>41682</v>
       </c>
       <c r="B215" t="s">
         <v>16</v>
       </c>
       <c r="C215" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="E215" t="s">
         <v>18</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B216" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C216" t="s">
         <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="E216" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B217" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E217" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>41675</v>
+        <v>41681</v>
       </c>
       <c r="B218" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C218" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="E218" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="B219" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C219" t="s">
         <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E219" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>41674</v>
+        <v>41680</v>
       </c>
       <c r="B220" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="E220" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>41674</v>
+        <v>41680</v>
       </c>
       <c r="B221" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C221" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="E221" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B222" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C222" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E222" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>41670</v>
+        <v>41677</v>
       </c>
       <c r="B223" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="C223" t="s">
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="E223" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>41670</v>
+        <v>41677</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E224" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>41663</v>
+        <v>41676</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C225" t="s">
         <v>1</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="E225" t="s">
         <v>10</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>41662</v>
+        <v>41676</v>
       </c>
       <c r="B226" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C226" t="s">
         <v>1</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>41661</v>
+        <v>41676</v>
       </c>
       <c r="B227" t="s">
         <v>16</v>
       </c>
       <c r="C227" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="E227" t="s">
         <v>18</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>41656</v>
+        <v>41676</v>
       </c>
       <c r="B228" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C228" t="s">
         <v>1</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="E228" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>41655</v>
+        <v>41676</v>
       </c>
       <c r="B229" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="C229" t="s">
         <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="E229" t="s">
         <v>2</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>41655</v>
+        <v>41675</v>
       </c>
       <c r="B230" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C230" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E230" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B231" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="C231" t="s">
         <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E231" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>41654</v>
+        <v>41674</v>
       </c>
       <c r="B232" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C232" t="s">
         <v>1</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E232" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>41653</v>
+        <v>41674</v>
       </c>
       <c r="B233" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E233" t="s">
         <v>2</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>41653</v>
+        <v>41674</v>
       </c>
       <c r="B234" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C234" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E234" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>41653</v>
+        <v>41670</v>
       </c>
       <c r="B235" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C235" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E235" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>41652</v>
+        <v>41670</v>
       </c>
       <c r="B236" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>1</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>41652</v>
+        <v>41663</v>
       </c>
       <c r="B237" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E237" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>41652</v>
+        <v>41662</v>
       </c>
       <c r="B238" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C238" t="s">
         <v>1</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E238" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>41652</v>
+        <v>41661</v>
       </c>
       <c r="B239" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C239" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E239" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>41652</v>
+        <v>41656</v>
       </c>
       <c r="B240" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C240" t="s">
         <v>1</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E240" t="s">
         <v>2</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B241" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C241" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E241" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B242" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C242" t="s">
         <v>1</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E242" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>41649</v>
+        <v>41655</v>
       </c>
       <c r="B243" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C243" t="s">
         <v>1</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E243" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>41649</v>
+        <v>41654</v>
       </c>
       <c r="B244" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C244" t="s">
         <v>1</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E244" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B245" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C245" t="s">
         <v>1</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E245" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B246" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C246" t="s">
         <v>1</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E246" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B247" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C247" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E247" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B248" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C248" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E248" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B249" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C249" t="s">
         <v>1</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E249" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B250" t="s">
+        <v>49</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E250" t="s">
+        <v>31</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B251" t="s">
+        <v>36</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E251" t="s">
+        <v>2</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B252" t="s">
+        <v>39</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E252" t="s">
+        <v>2</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B253" t="s">
+        <v>42</v>
+      </c>
+      <c r="C253" t="s">
+        <v>17</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E253" t="s">
+        <v>43</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B254" t="s">
+        <v>16</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E254" t="s">
+        <v>18</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B255" t="s">
+        <v>52</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E255" t="s">
+        <v>2</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B256" t="s">
+        <v>39</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E256" t="s">
+        <v>2</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B257" t="s">
+        <v>57</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E257" t="s">
+        <v>58</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B258" t="s">
+        <v>61</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E258" t="s">
+        <v>58</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B259" t="s">
+        <v>64</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E259" t="s">
+        <v>58</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B260" t="s">
+        <v>16</v>
+      </c>
+      <c r="C260" t="s">
+        <v>17</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E260" t="s">
+        <v>18</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
         <v>41648</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B261" t="s">
+        <v>69</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E261" t="s">
+        <v>2</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B262" t="s">
         <v>16</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C262" t="s">
         <v>17</v>
       </c>
-      <c r="D250" s="2" t="s">
+      <c r="D262" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E262" t="s">
         <v>18</v>
       </c>
-      <c r="F250" s="3" t="s">
+      <c r="F262" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G250" s="3" t="s">
+      <c r="G262" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/docs/backup/cuenta_3940694600.xlsx
+++ b/docs/backup/cuenta_3940694600.xlsx
@@ -2642,7 +2642,7 @@
       </c>
       <c r="H1" t="str">
         <f t="shared" ref="H1:H12" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-10'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000686901', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 16.14  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-10'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000686901', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 16.14  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '14075187-COSTO IVA CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0015842437', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.04  , 'mo_saldo' =&gt; 16.14, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '14075187-COSTO IVA CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0015842437', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.04  , 'mo_saldo' =&gt; 16.14, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '14075187-COSTO OPER CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0015842428', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.31  , 'mo_saldo' =&gt; 16.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '14075187-COSTO OPER CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0015842428', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.31  , 'mo_saldo' =&gt; 16.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '14075187-EMAP Q-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0015842373', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 8.54  , 'mo_saldo' =&gt; 16.49, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '14075187-EMAP Q-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0015842373', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 8.54  , 'mo_saldo' =&gt; 16.49, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 2', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0011610620', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 25.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 2', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0011610620', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 25.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0011404139', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 1.89  , 'mo_saldo' =&gt; 45.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0011404139', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 1.89  , 'mo_saldo' =&gt; 45.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010999462', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 3.00  , 'mo_saldo' =&gt; 46.92, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010999462', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 3.00  , 'mo_saldo' =&gt; 46.92, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001155243', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 40.00  , 'mo_saldo' =&gt; 49.92, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001155243', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 40.00  , 'mo_saldo' =&gt; 49.92, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001132874', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 35.15  , 'mo_saldo' =&gt; 89.92, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001132874', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 35.15  , 'mo_saldo' =&gt; 89.92, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-04'), 'mo_concepto' =&gt; 'DB AH PROGRAMADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000216567', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 125.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-04'), 'mo_concepto' =&gt; 'DB AH PROGRAMADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000216567', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 125.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008720653', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 270.00  , 'mo_saldo' =&gt; 145.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008720653', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 270.00  , 'mo_saldo' =&gt; 145.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007780041', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 3.00  , 'mo_saldo' =&gt; 415.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007780041', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 3.00  , 'mo_saldo' =&gt; 415.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">

--- a/docs/backup/cuenta_3940694600.xlsx
+++ b/docs/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="758">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -2283,6 +2283,21 @@
   </si>
   <si>
     <t>415.07</t>
+  </si>
+  <si>
+    <t>0007018508</t>
+  </si>
+  <si>
+    <t>173.85  </t>
+  </si>
+  <si>
+    <t>76.15</t>
+  </si>
+  <si>
+    <t>0006979294</t>
+  </si>
+  <si>
+    <t>250.00</t>
   </si>
 </sst>
 </file>
@@ -2605,10 +2620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H262"/>
+  <dimension ref="A1:H264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H12"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,7 +2635,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41830</v>
+        <v>41855</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -2629,74 +2644,70 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>724</v>
+        <v>753</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>725</v>
+        <v>754</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>71</v>
+        <v>755</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H12" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-10'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000686901', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 16.14  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H14" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-04'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007018508', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 173.85  , 'mo_saldo' =&gt; 76.15, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-03 22:39:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41827</v>
+        <v>41855</v>
       </c>
       <c r="B2" t="s">
-        <v>726</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>727</v>
+        <v>756</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>385</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>728</v>
+        <v>757</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '14075187-COSTO IVA CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0015842437', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.04  , 'mo_saldo' =&gt; 16.14, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-04'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0006979294', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 250.00  , 'mo_saldo' =&gt; 250.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-03 22:39:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41827</v>
+        <v>41830</v>
       </c>
       <c r="B3" t="s">
-        <v>729</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>725</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '14075187-COSTO OPER CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0015842428', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.31  , 'mo_saldo' =&gt; 16.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2704,26 +2715,22 @@
         <v>41827</v>
       </c>
       <c r="B4" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>382</v>
+        <v>59</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '14075187-EMAP Q-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0015842373', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 8.54  , 'mo_saldo' =&gt; 16.49, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2731,26 +2738,22 @@
         <v>41827</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>729</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 2', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0011610620', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 25.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2758,26 +2761,22 @@
         <v>41827</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>732</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>738</v>
+        <v>382</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0011404139', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 1.89  , 'mo_saldo' =&gt; 45.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2785,26 +2784,22 @@
         <v>41827</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>570</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010999462', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 3.00  , 'mo_saldo' =&gt; 46.92, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>736</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2818,20 +2813,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>192</v>
+        <v>738</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001155243', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 40.00  , 'mo_saldo' =&gt; 49.92, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>739</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2839,58 +2830,50 @@
         <v>41827</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>745</v>
+        <v>570</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001132874', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 35.15  , 'mo_saldo' =&gt; 89.92, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>741</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41824</v>
+        <v>41827</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-04'), 'mo_concepto' =&gt; 'DB AH PROGRAMADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000216567', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 125.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>743</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41823</v>
+        <v>41827</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -2899,47 +2882,39 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>127</v>
+        <v>745</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008720653', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 270.00  , 'mo_saldo' =&gt; 145.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>746</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41823</v>
+        <v>41824</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>570</v>
+        <v>32</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007780041', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 3.00  , 'mo_saldo' =&gt; 415.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>748</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2953,16 +2928,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>701</v>
+        <v>749</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>702</v>
+        <v>127</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>703</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2970,22 +2945,22 @@
         <v>41823</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>704</v>
+        <v>751</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>705</v>
+        <v>570</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>706</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2993,137 +2968,137 @@
         <v>41823</v>
       </c>
       <c r="B15" t="s">
-        <v>439</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41822</v>
+        <v>41823</v>
       </c>
       <c r="B16" t="s">
-        <v>708</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>22</v>
+        <v>705</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41822</v>
+        <v>41823</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41816</v>
+        <v>41822</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>708</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>715</v>
+        <v>22</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>71</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41815</v>
+        <v>41822</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E19" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>712</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41815</v>
+        <v>41816</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>40</v>
+        <v>715</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>718</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3131,73 +3106,73 @@
         <v>41815</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>720</v>
+        <v>37</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41806</v>
+        <v>41815</v>
       </c>
       <c r="B22" t="s">
-        <v>329</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>695</v>
+        <v>716</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>570</v>
+        <v>40</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41800</v>
+        <v>41815</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>32</v>
+        <v>720</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41799</v>
+        <v>41806</v>
       </c>
       <c r="B24" t="s">
         <v>329</v>
@@ -3206,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -3215,76 +3190,76 @@
         <v>570</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41794</v>
+        <v>41800</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41793</v>
+        <v>41799</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>672</v>
+        <v>699</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>673</v>
+        <v>570</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>674</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41793</v>
+        <v>41794</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>676</v>
+        <v>32</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3292,22 +3267,22 @@
         <v>41793</v>
       </c>
       <c r="B28" t="s">
-        <v>678</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>59</v>
+        <v>673</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3315,22 +3290,22 @@
         <v>41793</v>
       </c>
       <c r="B29" t="s">
-        <v>681</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>62</v>
+        <v>676</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3338,22 +3313,22 @@
         <v>41793</v>
       </c>
       <c r="B30" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E30" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>686</v>
+        <v>59</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3361,22 +3336,22 @@
         <v>41793</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>681</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3384,68 +3359,68 @@
         <v>41793</v>
       </c>
       <c r="B32" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E32" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>22</v>
+        <v>686</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41792</v>
+        <v>41793</v>
       </c>
       <c r="B33" t="s">
-        <v>665</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>666</v>
+        <v>688</v>
       </c>
       <c r="E33" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>667</v>
+        <v>67</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>668</v>
+        <v>689</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41792</v>
+        <v>41793</v>
       </c>
       <c r="B34" t="s">
-        <v>669</v>
+        <v>690</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>670</v>
+        <v>691</v>
       </c>
       <c r="E34" t="s">
-        <v>338</v>
+        <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>671</v>
+        <v>692</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3453,68 +3428,68 @@
         <v>41792</v>
       </c>
       <c r="B35" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>32</v>
+        <v>667</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41789</v>
+        <v>41792</v>
       </c>
       <c r="B36" t="s">
-        <v>209</v>
+        <v>669</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41789</v>
+        <v>41792</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>658</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3522,68 +3497,68 @@
         <v>41789</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>570</v>
+        <v>40</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B39" t="s">
-        <v>644</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>646</v>
+        <v>32</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B40" t="s">
-        <v>648</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3591,22 +3566,22 @@
         <v>41788</v>
       </c>
       <c r="B41" t="s">
-        <v>329</v>
+        <v>644</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3614,137 +3589,137 @@
         <v>41788</v>
       </c>
       <c r="B42" t="s">
-        <v>439</v>
+        <v>648</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>435</v>
+        <v>650</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41785</v>
+        <v>41788</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>640</v>
+        <v>570</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>71</v>
+        <v>653</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41785</v>
+        <v>41788</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>642</v>
+        <v>435</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41782</v>
+        <v>41785</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>509</v>
+        <v>639</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>32</v>
+        <v>640</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>510</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41781</v>
+        <v>41785</v>
       </c>
       <c r="B46" t="s">
-        <v>511</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>512</v>
+        <v>641</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>513</v>
+        <v>642</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>514</v>
+        <v>643</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41781</v>
+        <v>41782</v>
       </c>
       <c r="B47" t="s">
-        <v>515</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>517</v>
+        <v>32</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3752,22 +3727,22 @@
         <v>41781</v>
       </c>
       <c r="B48" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>58</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>187</v>
+        <v>513</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3775,68 +3750,68 @@
         <v>41781</v>
       </c>
       <c r="B49" t="s">
-        <v>439</v>
+        <v>515</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B50" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>527</v>
+        <v>187</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>439</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>320</v>
+        <v>523</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3844,7 +3819,7 @@
         <v>41780</v>
       </c>
       <c r="B52" t="s">
-        <v>322</v>
+        <v>525</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -3856,10 +3831,10 @@
         <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>323</v>
+        <v>527</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3867,68 +3842,68 @@
         <v>41780</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>534</v>
+        <v>323</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B55" t="s">
-        <v>536</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3936,22 +3911,22 @@
         <v>41779</v>
       </c>
       <c r="B56" t="s">
-        <v>539</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E56" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>62</v>
+        <v>534</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3959,91 +3934,91 @@
         <v>41779</v>
       </c>
       <c r="B57" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E57" t="s">
         <v>58</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>544</v>
+        <v>59</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41778</v>
+        <v>41779</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>539</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>547</v>
+        <v>62</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41775</v>
+        <v>41779</v>
       </c>
       <c r="B59" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="E59" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41775</v>
+        <v>41778</v>
       </c>
       <c r="B60" t="s">
-        <v>553</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>22</v>
+        <v>547</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4051,96 +4026,96 @@
         <v>41775</v>
       </c>
       <c r="B61" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="E61" t="s">
-        <v>558</v>
+        <v>2</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>19</v>
+        <v>551</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41774</v>
+        <v>41775</v>
       </c>
       <c r="B62" t="s">
-        <v>281</v>
+        <v>553</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>561</v>
+        <v>22</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41774</v>
+        <v>41775</v>
       </c>
       <c r="B63" t="s">
-        <v>329</v>
+        <v>556</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>564</v>
+        <v>19</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="B64" t="s">
-        <v>566</v>
+        <v>281</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>11</v>
+        <v>561</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41772</v>
+        <v>41774</v>
       </c>
       <c r="B65" t="s">
         <v>329</v>
@@ -4149,39 +4124,39 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E65" t="s">
         <v>18</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41772</v>
+        <v>41773</v>
       </c>
       <c r="B66" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E66" t="s">
-        <v>574</v>
+        <v>10</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4189,68 +4164,68 @@
         <v>41772</v>
       </c>
       <c r="B67" t="s">
-        <v>576</v>
+        <v>329</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E67" t="s">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>239</v>
+        <v>570</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>572</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>574</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>580</v>
+        <v>187</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>576</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>583</v>
+        <v>239</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4258,22 +4233,22 @@
         <v>41771</v>
       </c>
       <c r="B70" t="s">
-        <v>585</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4287,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
@@ -4304,19 +4279,19 @@
         <v>41771</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>585</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E72" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>206</v>
+        <v>583</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>587</v>
@@ -4327,22 +4302,22 @@
         <v>41771</v>
       </c>
       <c r="B73" t="s">
-        <v>590</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E73" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>392</v>
+        <v>583</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4350,22 +4325,22 @@
         <v>41771</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E74" t="s">
-        <v>574</v>
+        <v>169</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>594</v>
+        <v>206</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4373,22 +4348,22 @@
         <v>41771</v>
       </c>
       <c r="B75" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E75" t="s">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>597</v>
+        <v>392</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4396,22 +4371,22 @@
         <v>41771</v>
       </c>
       <c r="B76" t="s">
-        <v>329</v>
+        <v>39</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>574</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4419,22 +4394,22 @@
         <v>41771</v>
       </c>
       <c r="B77" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E77" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>32</v>
+        <v>597</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4442,22 +4417,22 @@
         <v>41771</v>
       </c>
       <c r="B78" t="s">
-        <v>556</v>
+        <v>329</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E78" t="s">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>32</v>
+        <v>570</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4465,22 +4440,22 @@
         <v>41771</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>556</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4488,160 +4463,160 @@
         <v>41771</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>556</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>608</v>
+        <v>32</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B81" t="s">
-        <v>610</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>612</v>
+        <v>19</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B82" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>570</v>
+        <v>608</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41766</v>
+        <v>41768</v>
       </c>
       <c r="B83" t="s">
-        <v>556</v>
+        <v>610</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E83" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>32</v>
+        <v>612</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41766</v>
+        <v>41768</v>
       </c>
       <c r="B84" t="s">
-        <v>439</v>
+        <v>329</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E84" t="s">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>619</v>
+        <v>570</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B85" t="s">
-        <v>621</v>
+        <v>556</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E85" t="s">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>71</v>
+        <v>617</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B86" t="s">
-        <v>623</v>
+        <v>439</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E86" t="s">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>62</v>
+        <v>619</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4649,22 +4624,22 @@
         <v>41765</v>
       </c>
       <c r="B87" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E87" t="s">
         <v>58</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>628</v>
+        <v>59</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>629</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4672,22 +4647,22 @@
         <v>41765</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>623</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E88" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>631</v>
+        <v>62</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4695,50 +4670,50 @@
         <v>41765</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>626</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>628</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E90" t="s">
         <v>18</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>127</v>
+        <v>631</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>71</v>
+        <v>632</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
@@ -4747,200 +4722,200 @@
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E91" t="s">
         <v>18</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41759</v>
+        <v>41761</v>
       </c>
       <c r="B92" t="s">
-        <v>505</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
       <c r="E92" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>507</v>
+        <v>127</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>508</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41758</v>
+        <v>41761</v>
       </c>
       <c r="B93" t="s">
-        <v>439</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>499</v>
+        <v>636</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>500</v>
+        <v>637</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>501</v>
+        <v>638</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41758</v>
+        <v>41759</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>505</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E94" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41754</v>
+        <v>41758</v>
       </c>
       <c r="B95" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="C95" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E95" t="s">
-        <v>497</v>
+        <v>43</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41745</v>
+        <v>41758</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41744</v>
+        <v>41754</v>
       </c>
       <c r="B97" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="E97" t="s">
-        <v>2</v>
+        <v>497</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>482</v>
+        <v>7</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41743</v>
+        <v>41745</v>
       </c>
       <c r="B98" t="s">
-        <v>484</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E98" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>19</v>
+        <v>482</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4948,22 +4923,22 @@
         <v>41743</v>
       </c>
       <c r="B100" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E100" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4977,36 +4952,36 @@
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E101" t="s">
         <v>18</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>492</v>
+        <v>19</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B102" t="s">
-        <v>455</v>
+        <v>490</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="E102" t="s">
         <v>58</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>59</v>
+        <v>492</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>457</v>
@@ -5014,25 +4989,25 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B103" t="s">
-        <v>458</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="E103" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>62</v>
+        <v>492</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -5040,68 +5015,68 @@
         <v>41740</v>
       </c>
       <c r="B104" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E104" t="s">
         <v>58</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>463</v>
+        <v>59</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>458</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>466</v>
+        <v>62</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B106" t="s">
-        <v>167</v>
+        <v>461</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E106" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>187</v>
+        <v>463</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -5109,22 +5084,22 @@
         <v>41739</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -5132,160 +5107,160 @@
         <v>41739</v>
       </c>
       <c r="B108" t="s">
-        <v>473</v>
+        <v>167</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>475</v>
+        <v>187</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B109" t="s">
-        <v>336</v>
+        <v>160</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="E109" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>32</v>
+        <v>471</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B110" t="s">
-        <v>291</v>
+        <v>473</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41737</v>
+        <v>41738</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>336</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>435</v>
+        <v>32</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41737</v>
+        <v>41738</v>
       </c>
       <c r="B112" t="s">
-        <v>407</v>
+        <v>291</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="E112" t="s">
         <v>10</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>327</v>
+        <v>451</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B113" t="s">
-        <v>439</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E113" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>435</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B114" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E114" t="s">
         <v>10</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>444</v>
+        <v>327</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -5293,22 +5268,22 @@
         <v>41736</v>
       </c>
       <c r="B115" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C115" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -5316,22 +5291,22 @@
         <v>41736</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>442</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5339,27 +5314,27 @@
         <v>41736</v>
       </c>
       <c r="B117" t="s">
-        <v>329</v>
+        <v>446</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="E117" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>331</v>
+        <v>448</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B118" t="s">
         <v>13</v>
@@ -5368,90 +5343,90 @@
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E118" t="s">
         <v>10</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B119" t="s">
-        <v>138</v>
+        <v>329</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E119" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>32</v>
+        <v>331</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41732</v>
+        <v>41733</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E120" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41731</v>
+        <v>41733</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>432</v>
+        <v>32</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41731</v>
+        <v>41732</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
@@ -5460,16 +5435,16 @@
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="E122" t="s">
         <v>18</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>67</v>
+        <v>429</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -5477,114 +5452,114 @@
         <v>41731</v>
       </c>
       <c r="B123" t="s">
-        <v>407</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="E123" t="s">
         <v>10</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>327</v>
+        <v>432</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B124" t="s">
-        <v>410</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E124" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>412</v>
+        <v>67</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>407</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B126" t="s">
-        <v>209</v>
+        <v>410</v>
       </c>
       <c r="C126" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E126" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="E127" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>372</v>
+        <v>32</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -5592,22 +5567,22 @@
         <v>41729</v>
       </c>
       <c r="B128" t="s">
-        <v>374</v>
+        <v>209</v>
       </c>
       <c r="C128" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="E128" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -5615,22 +5590,22 @@
         <v>41729</v>
       </c>
       <c r="B129" t="s">
-        <v>377</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E129" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>62</v>
+        <v>372</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5638,22 +5613,22 @@
         <v>41729</v>
       </c>
       <c r="B130" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E130" t="s">
         <v>58</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>382</v>
+        <v>59</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5661,22 +5636,22 @@
         <v>41729</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>377</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E131" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>385</v>
+        <v>62</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5684,22 +5659,22 @@
         <v>41729</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>380</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E132" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5707,22 +5682,22 @@
         <v>41729</v>
       </c>
       <c r="B133" t="s">
-        <v>390</v>
+        <v>16</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E133" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5730,22 +5705,22 @@
         <v>41729</v>
       </c>
       <c r="B134" t="s">
-        <v>393</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5753,22 +5728,22 @@
         <v>41729</v>
       </c>
       <c r="B135" t="s">
-        <v>36</v>
+        <v>390</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>37</v>
+        <v>392</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5776,22 +5751,22 @@
         <v>41729</v>
       </c>
       <c r="B136" t="s">
-        <v>39</v>
+        <v>393</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E136" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>40</v>
+        <v>395</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5799,22 +5774,22 @@
         <v>41729</v>
       </c>
       <c r="B137" t="s">
-        <v>397</v>
+        <v>36</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E137" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>399</v>
+        <v>37</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5822,22 +5797,22 @@
         <v>41729</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>365</v>
+        <v>40</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5845,68 +5820,68 @@
         <v>41729</v>
       </c>
       <c r="B139" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="C139" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E140" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>367</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5917,65 +5892,65 @@
         <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="E142" t="s">
         <v>18</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B143" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E143" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B144" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E144" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5983,22 +5958,22 @@
         <v>41724</v>
       </c>
       <c r="B145" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C145" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>356</v>
+        <v>37</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -6006,50 +5981,50 @@
         <v>41724</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E146" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B147" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="C147" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>32</v>
+        <v>356</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
@@ -6058,36 +6033,36 @@
         <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E148" t="s">
         <v>18</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B149" t="s">
-        <v>340</v>
+        <v>123</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E149" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>342</v>
+        <v>32</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>343</v>
@@ -6095,48 +6070,48 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>41718</v>
+        <v>41722</v>
       </c>
       <c r="B150" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="E150" t="s">
         <v>18</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>331</v>
+        <v>32</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -6144,68 +6119,68 @@
         <v>41718</v>
       </c>
       <c r="B152" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E152" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>192</v>
+        <v>331</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B153" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="E153" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>37</v>
+        <v>334</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B154" t="s">
-        <v>39</v>
+        <v>336</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="E154" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -6213,22 +6188,22 @@
         <v>41717</v>
       </c>
       <c r="B155" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E155" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -6236,22 +6211,22 @@
         <v>41717</v>
       </c>
       <c r="B156" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E156" t="s">
         <v>2</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -6259,22 +6234,22 @@
         <v>41717</v>
       </c>
       <c r="B157" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C157" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E157" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6282,22 +6257,22 @@
         <v>41717</v>
       </c>
       <c r="B158" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E158" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -6305,22 +6280,22 @@
         <v>41717</v>
       </c>
       <c r="B159" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -6328,68 +6303,68 @@
         <v>41717</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C160" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E160" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>192</v>
+        <v>279</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B161" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C161" t="s">
         <v>1</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E161" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B162" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E162" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -6397,68 +6372,68 @@
         <v>41716</v>
       </c>
       <c r="B163" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>33</v>
+        <v>288</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B164" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B165" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E165" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>298</v>
+        <v>33</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -6466,22 +6441,22 @@
         <v>41715</v>
       </c>
       <c r="B166" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E166" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -6489,22 +6464,22 @@
         <v>41715</v>
       </c>
       <c r="B167" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E167" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -6512,22 +6487,22 @@
         <v>41715</v>
       </c>
       <c r="B168" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C168" t="s">
         <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E168" t="s">
         <v>2</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -6535,22 +6510,22 @@
         <v>41715</v>
       </c>
       <c r="B169" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C169" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E169" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -6558,22 +6533,22 @@
         <v>41715</v>
       </c>
       <c r="B170" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E170" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>307</v>
+        <v>37</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -6581,22 +6556,22 @@
         <v>41715</v>
       </c>
       <c r="B171" t="s">
-        <v>309</v>
+        <v>39</v>
       </c>
       <c r="C171" t="s">
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E171" t="s">
         <v>2</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -6604,22 +6579,22 @@
         <v>41715</v>
       </c>
       <c r="B172" t="s">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="C172" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -6627,22 +6602,22 @@
         <v>41715</v>
       </c>
       <c r="B173" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>318</v>
+        <v>175</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -6650,22 +6625,22 @@
         <v>41715</v>
       </c>
       <c r="B174" t="s">
-        <v>39</v>
+        <v>312</v>
       </c>
       <c r="C174" t="s">
         <v>1</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E174" t="s">
         <v>10</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -6673,7 +6648,7 @@
         <v>41715</v>
       </c>
       <c r="B175" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C175" t="s">
         <v>1</v>
@@ -6685,10 +6660,10 @@
         <v>10</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -6696,119 +6671,119 @@
         <v>41715</v>
       </c>
       <c r="B176" t="s">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E176" t="s">
         <v>10</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="E177" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B178" t="s">
-        <v>123</v>
+        <v>325</v>
       </c>
       <c r="C178" t="s">
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="E178" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>41709</v>
+        <v>41712</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>175</v>
+        <v>266</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>41708</v>
+        <v>41711</v>
       </c>
       <c r="B180" t="s">
-        <v>258</v>
+        <v>123</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B181" t="s">
         <v>13</v>
@@ -6817,16 +6792,16 @@
         <v>1</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E181" t="s">
         <v>10</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -6834,22 +6809,22 @@
         <v>41708</v>
       </c>
       <c r="B182" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E182" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -6857,22 +6832,22 @@
         <v>41708</v>
       </c>
       <c r="B183" t="s">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="C183" t="s">
         <v>1</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E183" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -6880,22 +6855,22 @@
         <v>41708</v>
       </c>
       <c r="B184" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C184" t="s">
         <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E184" t="s">
         <v>58</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -6903,91 +6878,91 @@
         <v>41708</v>
       </c>
       <c r="B185" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="C185" t="s">
         <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E185" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B186" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="E186" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B187" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C187" t="s">
         <v>1</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="E187" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B188" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C188" t="s">
         <v>1</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -6995,22 +6970,22 @@
         <v>41703</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -7018,22 +6993,22 @@
         <v>41703</v>
       </c>
       <c r="B190" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C190" t="s">
         <v>1</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E190" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -7041,68 +7016,68 @@
         <v>41703</v>
       </c>
       <c r="B191" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="E191" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B192" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C192" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="E192" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C193" t="s">
         <v>1</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E193" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -7110,91 +7085,91 @@
         <v>41698</v>
       </c>
       <c r="B194" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C194" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E194" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B195" t="s">
         <v>16</v>
       </c>
       <c r="C195" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E195" t="s">
         <v>18</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B196" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="C196" t="s">
         <v>1</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E196" t="s">
         <v>2</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B197" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C197" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E197" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -7202,91 +7177,91 @@
         <v>41696</v>
       </c>
       <c r="B198" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C198" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E198" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>41690</v>
+        <v>41696</v>
       </c>
       <c r="B199" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E199" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B200" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C200" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="E200" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B201" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E201" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -7294,22 +7269,22 @@
         <v>41689</v>
       </c>
       <c r="B202" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E202" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -7317,68 +7292,68 @@
         <v>41689</v>
       </c>
       <c r="B203" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="C203" t="s">
         <v>1</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E203" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B204" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="C204" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="E204" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B205" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="E205" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -7386,22 +7361,22 @@
         <v>41687</v>
       </c>
       <c r="B206" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="C206" t="s">
         <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E206" t="s">
         <v>2</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -7409,22 +7384,22 @@
         <v>41687</v>
       </c>
       <c r="B207" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C207" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E207" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -7432,22 +7407,22 @@
         <v>41687</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -7455,114 +7430,114 @@
         <v>41687</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C209" t="s">
         <v>17</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E209" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B210" t="s">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E210" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B211" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C211" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E211" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B212" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="E212" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B213" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="C213" t="s">
         <v>1</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E213" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -7570,22 +7545,22 @@
         <v>41682</v>
       </c>
       <c r="B214" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E214" t="s">
         <v>58</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -7593,68 +7568,68 @@
         <v>41682</v>
       </c>
       <c r="B215" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C215" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E215" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C216" t="s">
         <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B217" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C217" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -7662,22 +7637,22 @@
         <v>41681</v>
       </c>
       <c r="B218" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C218" t="s">
         <v>1</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E218" t="s">
         <v>10</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -7685,114 +7660,114 @@
         <v>41681</v>
       </c>
       <c r="B219" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C219" t="s">
         <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E219" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B220" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E220" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B221" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C221" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E221" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B222" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C222" t="s">
         <v>1</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="E222" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B223" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="C223" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="E223" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -7800,68 +7775,68 @@
         <v>41677</v>
       </c>
       <c r="B224" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E224" t="s">
         <v>58</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="C225" t="s">
         <v>1</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B226" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C226" t="s">
         <v>1</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E226" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -7869,22 +7844,22 @@
         <v>41676</v>
       </c>
       <c r="B227" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C227" t="s">
         <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E227" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -7892,22 +7867,22 @@
         <v>41676</v>
       </c>
       <c r="B228" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C228" t="s">
         <v>1</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E228" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -7915,91 +7890,91 @@
         <v>41676</v>
       </c>
       <c r="B229" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="C229" t="s">
         <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E229" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B230" t="s">
         <v>16</v>
       </c>
       <c r="C230" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E230" t="s">
         <v>18</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B231" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C231" t="s">
         <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E231" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B232" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C232" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E232" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -8007,22 +7982,22 @@
         <v>41674</v>
       </c>
       <c r="B233" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E233" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -8030,206 +8005,206 @@
         <v>41674</v>
       </c>
       <c r="B234" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C234" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E234" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B235" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C235" t="s">
         <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E235" t="s">
         <v>2</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C236" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E236" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>41663</v>
+        <v>41670</v>
       </c>
       <c r="B237" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>41662</v>
+        <v>41670</v>
       </c>
       <c r="B238" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>1</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>41661</v>
+        <v>41663</v>
       </c>
       <c r="B239" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C239" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E239" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>41656</v>
+        <v>41662</v>
       </c>
       <c r="B240" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C240" t="s">
         <v>1</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E240" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="B241" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C241" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E241" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B242" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C242" t="s">
         <v>1</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E242" t="s">
         <v>2</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -8237,91 +8212,91 @@
         <v>41655</v>
       </c>
       <c r="B243" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C243" t="s">
         <v>1</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E243" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B244" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C244" t="s">
         <v>1</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E244" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B245" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C245" t="s">
         <v>1</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E245" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B246" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C246" t="s">
         <v>1</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E246" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -8329,68 +8304,68 @@
         <v>41653</v>
       </c>
       <c r="B247" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C247" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E247" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B248" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C248" t="s">
         <v>1</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E248" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B249" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C249" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E249" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -8398,22 +8373,22 @@
         <v>41652</v>
       </c>
       <c r="B250" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C250" t="s">
         <v>1</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E250" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -8421,22 +8396,22 @@
         <v>41652</v>
       </c>
       <c r="B251" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C251" t="s">
         <v>1</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E251" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -8444,22 +8419,22 @@
         <v>41652</v>
       </c>
       <c r="B252" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C252" t="s">
         <v>1</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E252" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -8467,22 +8442,22 @@
         <v>41652</v>
       </c>
       <c r="B253" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C253" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E253" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -8490,68 +8465,68 @@
         <v>41652</v>
       </c>
       <c r="B254" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C254" t="s">
         <v>1</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E254" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B255" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C255" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E255" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B256" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C256" t="s">
         <v>1</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E256" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -8559,22 +8534,22 @@
         <v>41649</v>
       </c>
       <c r="B257" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C257" t="s">
         <v>1</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E257" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -8582,22 +8557,22 @@
         <v>41649</v>
       </c>
       <c r="B258" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C258" t="s">
         <v>1</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E258" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -8605,22 +8580,22 @@
         <v>41649</v>
       </c>
       <c r="B259" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C259" t="s">
         <v>1</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E259" t="s">
         <v>58</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -8628,50 +8603,50 @@
         <v>41649</v>
       </c>
       <c r="B260" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C260" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E260" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B261" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C261" t="s">
         <v>1</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E261" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B262" t="s">
         <v>16</v>
@@ -8680,15 +8655,61 @@
         <v>17</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E262" t="s">
         <v>18</v>
       </c>
       <c r="F262" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B263" t="s">
+        <v>69</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E263" t="s">
+        <v>2</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B264" t="s">
+        <v>16</v>
+      </c>
+      <c r="C264" t="s">
+        <v>17</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E264" t="s">
+        <v>18</v>
+      </c>
+      <c r="F264" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G262" s="3" t="s">
+      <c r="G264" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/docs/backup/cuenta_3940694600.xlsx
+++ b/docs/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="785">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -1190,9 +1190,6 @@
     <t>0015125198</t>
   </si>
   <si>
-    <t>1,000.00  </t>
-  </si>
-  <si>
     <t>317.55</t>
   </si>
   <si>
@@ -2298,6 +2295,90 @@
   </si>
   <si>
     <t>250.00</t>
+  </si>
+  <si>
+    <t>14359200-COSTO IVA CASH-EQ-12430000</t>
+  </si>
+  <si>
+    <t>0009611122</t>
+  </si>
+  <si>
+    <t>46.85</t>
+  </si>
+  <si>
+    <t>14359200-COSTO OPER CASH-EQ-12430000</t>
+  </si>
+  <si>
+    <t>0009611118</t>
+  </si>
+  <si>
+    <t>46.89</t>
+  </si>
+  <si>
+    <t>14359200-E E Q-EQ-12430000</t>
+  </si>
+  <si>
+    <t>0009611111</t>
+  </si>
+  <si>
+    <t>47.00  </t>
+  </si>
+  <si>
+    <t>47.20</t>
+  </si>
+  <si>
+    <t>0005100182</t>
+  </si>
+  <si>
+    <t>94.20</t>
+  </si>
+  <si>
+    <t>0017937809</t>
+  </si>
+  <si>
+    <t>0005633105</t>
+  </si>
+  <si>
+    <t>111.68  </t>
+  </si>
+  <si>
+    <t>119.46</t>
+  </si>
+  <si>
+    <t>0005354441</t>
+  </si>
+  <si>
+    <t>231.14</t>
+  </si>
+  <si>
+    <t>0008745928</t>
+  </si>
+  <si>
+    <t>8.86  </t>
+  </si>
+  <si>
+    <t>251.14</t>
+  </si>
+  <si>
+    <t>0008452331</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>0008791225</t>
+  </si>
+  <si>
+    <t>0006379471</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>14346107-MEGADATOS S.A -CB-1500583339</t>
+  </si>
+  <si>
+    <t>0012502340</t>
   </si>
 </sst>
 </file>
@@ -2620,10 +2701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H264"/>
+  <dimension ref="A1:H276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="H1" sqref="H1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,291 +2716,331 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41855</v>
+        <v>41870</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>757</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>754</v>
+        <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H14" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-04'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007018508', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 173.85  , 'mo_saldo' =&gt; 76.15, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-03 22:39:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H12" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-19'), 'mo_concepto' =&gt; '14359200-COSTO IVA CASH-EQ-12430000', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009611122', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.04  , 'mo_saldo' =&gt; 46.85, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41855</v>
+        <v>41870</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>760</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>385</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-04'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0006979294', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 250.00  , 'mo_saldo' =&gt; 250.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-03 22:39:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-19'), 'mo_concepto' =&gt; '14359200-COSTO OPER CASH-EQ-12430000', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009611118', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.31  , 'mo_saldo' =&gt; 46.89, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41830</v>
+        <v>41870</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>763</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>724</v>
+        <v>764</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>725</v>
+        <v>765</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>71</v>
+        <v>766</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-19'), 'mo_concepto' =&gt; '14359200-E E Q-EQ-12430000', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009611111', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 47.00  , 'mo_saldo' =&gt; 47.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41827</v>
+        <v>41870</v>
       </c>
       <c r="B4" t="s">
-        <v>726</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>727</v>
+        <v>767</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>728</v>
+        <v>768</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-19'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005100182', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 10.00  , 'mo_saldo' =&gt; 94.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41827</v>
+        <v>41869</v>
       </c>
       <c r="B5" t="s">
-        <v>729</v>
+        <v>565</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>730</v>
+        <v>769</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>731</v>
+        <v>311</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-18'), 'mo_concepto' =&gt; 'CONSUMO VISA NA MI GASOLINERA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0017937809', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 15.26  , 'mo_saldo' =&gt; 104.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41827</v>
+        <v>41869</v>
       </c>
       <c r="B6" t="s">
-        <v>732</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>733</v>
+        <v>770</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>382</v>
+        <v>771</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>734</v>
+        <v>772</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-18'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005633105', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 111.68  , 'mo_saldo' =&gt; 119.46, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41827</v>
+        <v>41869</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>336</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>735</v>
+        <v>773</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>338</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>736</v>
+        <v>774</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-18'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/KENNEDY 3', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005354441', 'mo_oficina' =&gt; 'KENNEDY', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 231.14, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41827</v>
+        <v>41865</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>737</v>
+        <v>775</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>738</v>
+        <v>776</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>739</v>
+        <v>777</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-14'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008745928', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 8.86  , 'mo_saldo' =&gt; 251.14, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41827</v>
+        <v>41865</v>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>740</v>
+        <v>778</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>570</v>
+        <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>741</v>
+        <v>779</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-14'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/KENNEDY 3', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008452331', 'mo_oficina' =&gt; 'KENNEDY', 'mo_monto' =&gt; 10.00  , 'mo_saldo' =&gt; 260.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41827</v>
+        <v>41864</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>742</v>
+        <v>780</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>192</v>
+        <v>711</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>743</v>
+        <v>637</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-13'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0008791225', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 170.00  , 'mo_saldo' =&gt; 270.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41827</v>
+        <v>41862</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>744</v>
+        <v>781</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>745</v>
+        <v>19</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>746</v>
+        <v>782</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-11'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0006379471', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 100.00  , 'mo_saldo' =&gt; 100.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41824</v>
+        <v>41855</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>783</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>747</v>
+        <v>784</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>748</v>
+        <v>71</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-04'), 'mo_concepto' =&gt; '14346107-MEGADATOS S.A -CB-1500583339', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0012502340', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 76.15  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41823</v>
+        <v>41855</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -2928,44 +3049,44 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>127</v>
+        <v>753</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41823</v>
+        <v>41855</v>
       </c>
       <c r="B14" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>570</v>
+        <v>385</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41823</v>
+        <v>41830</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -2974,113 +3095,113 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>703</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41823</v>
+        <v>41827</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>725</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>705</v>
+        <v>59</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>706</v>
+        <v>727</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41823</v>
+        <v>41827</v>
       </c>
       <c r="B17" t="s">
-        <v>439</v>
+        <v>728</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>722</v>
+        <v>62</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41822</v>
+        <v>41827</v>
       </c>
       <c r="B18" t="s">
-        <v>708</v>
+        <v>731</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>709</v>
+        <v>732</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>22</v>
+        <v>382</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>710</v>
+        <v>733</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41822</v>
+        <v>41827</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>711</v>
+        <v>734</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>712</v>
+        <v>32</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41816</v>
+        <v>41827</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -3089,136 +3210,136 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>714</v>
+        <v>736</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>71</v>
+        <v>738</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41815</v>
+        <v>41827</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>329</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>37</v>
+        <v>569</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>717</v>
+        <v>740</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41815</v>
+        <v>41827</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41815</v>
+        <v>41827</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41806</v>
+        <v>41824</v>
       </c>
       <c r="B24" t="s">
-        <v>329</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>695</v>
+        <v>746</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>570</v>
+        <v>32</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>696</v>
+        <v>747</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41800</v>
+        <v>41823</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>697</v>
+        <v>748</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>698</v>
+        <v>749</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41799</v>
+        <v>41823</v>
       </c>
       <c r="B26" t="s">
         <v>329</v>
@@ -3227,44 +3348,44 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>699</v>
+        <v>750</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>700</v>
+        <v>751</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41794</v>
+        <v>41823</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>32</v>
+        <v>701</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41793</v>
+        <v>41823</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -3273,1235 +3394,1235 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>672</v>
+        <v>703</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>673</v>
+        <v>704</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>674</v>
+        <v>705</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41793</v>
+        <v>41823</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>438</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>675</v>
+        <v>706</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>676</v>
+        <v>721</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>677</v>
+        <v>722</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41793</v>
+        <v>41822</v>
       </c>
       <c r="B30" t="s">
-        <v>678</v>
+        <v>707</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>679</v>
+        <v>708</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>680</v>
+        <v>709</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41793</v>
+        <v>41822</v>
       </c>
       <c r="B31" t="s">
-        <v>681</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>682</v>
+        <v>710</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>62</v>
+        <v>711</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>683</v>
+        <v>712</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41793</v>
+        <v>41816</v>
       </c>
       <c r="B32" t="s">
-        <v>684</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>685</v>
+        <v>713</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>687</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41793</v>
+        <v>41815</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>688</v>
+        <v>715</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>689</v>
+        <v>716</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41793</v>
+        <v>41815</v>
       </c>
       <c r="B34" t="s">
-        <v>690</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="E34" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>692</v>
+        <v>717</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41792</v>
+        <v>41815</v>
       </c>
       <c r="B35" t="s">
-        <v>665</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>666</v>
+        <v>718</v>
       </c>
       <c r="E35" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>667</v>
+        <v>719</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>668</v>
+        <v>720</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41792</v>
+        <v>41806</v>
       </c>
       <c r="B36" t="s">
-        <v>669</v>
+        <v>329</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="E36" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>206</v>
+        <v>569</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41792</v>
+        <v>41800</v>
       </c>
       <c r="B37" t="s">
-        <v>658</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>659</v>
+        <v>696</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>660</v>
+        <v>697</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41789</v>
+        <v>41799</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>329</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>661</v>
+        <v>698</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>40</v>
+        <v>569</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>662</v>
+        <v>699</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41789</v>
+        <v>41794</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>663</v>
+        <v>692</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>664</v>
+        <v>693</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41789</v>
+        <v>41793</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>570</v>
+        <v>672</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B41" t="s">
-        <v>644</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>645</v>
+        <v>674</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>646</v>
+        <v>675</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>647</v>
+        <v>676</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B42" t="s">
-        <v>648</v>
+        <v>677</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>649</v>
+        <v>678</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>650</v>
+        <v>59</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>651</v>
+        <v>679</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B43" t="s">
-        <v>329</v>
+        <v>680</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>652</v>
+        <v>681</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>570</v>
+        <v>62</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>653</v>
+        <v>682</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B44" t="s">
-        <v>439</v>
+        <v>683</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>435</v>
+        <v>685</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>655</v>
+        <v>686</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41785</v>
+        <v>41793</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>639</v>
+        <v>687</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>640</v>
+        <v>67</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>71</v>
+        <v>688</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41785</v>
+        <v>41793</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>689</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>642</v>
+        <v>22</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>643</v>
+        <v>691</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41782</v>
+        <v>41792</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>664</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>509</v>
+        <v>665</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>32</v>
+        <v>666</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>510</v>
+        <v>667</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41781</v>
+        <v>41792</v>
       </c>
       <c r="B48" t="s">
-        <v>511</v>
+        <v>668</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>512</v>
+        <v>669</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>338</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>513</v>
+        <v>206</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>514</v>
+        <v>670</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41781</v>
+        <v>41792</v>
       </c>
       <c r="B49" t="s">
-        <v>515</v>
+        <v>657</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>516</v>
+        <v>658</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>517</v>
+        <v>32</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41781</v>
+        <v>41789</v>
       </c>
       <c r="B50" t="s">
-        <v>519</v>
+        <v>209</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>520</v>
+        <v>660</v>
       </c>
       <c r="E50" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>521</v>
+        <v>661</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41781</v>
+        <v>41789</v>
       </c>
       <c r="B51" t="s">
-        <v>439</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>522</v>
+        <v>662</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>523</v>
+        <v>32</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>524</v>
+        <v>663</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41780</v>
+        <v>41789</v>
       </c>
       <c r="B52" t="s">
-        <v>525</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>526</v>
+        <v>655</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>528</v>
+        <v>656</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41780</v>
+        <v>41788</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>643</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>526</v>
+        <v>644</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>320</v>
+        <v>645</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41780</v>
+        <v>41788</v>
       </c>
       <c r="B54" t="s">
-        <v>322</v>
+        <v>647</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>526</v>
+        <v>648</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>323</v>
+        <v>649</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>530</v>
+        <v>650</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41780</v>
+        <v>41788</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>531</v>
+        <v>651</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>239</v>
+        <v>569</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>532</v>
+        <v>652</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41779</v>
+        <v>41788</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>438</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>533</v>
+        <v>653</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>534</v>
+        <v>434</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>535</v>
+        <v>654</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41779</v>
+        <v>41785</v>
       </c>
       <c r="B57" t="s">
-        <v>536</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>537</v>
+        <v>638</v>
       </c>
       <c r="E57" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>59</v>
+        <v>639</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41779</v>
+        <v>41785</v>
       </c>
       <c r="B58" t="s">
-        <v>539</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="E58" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>62</v>
+        <v>641</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>541</v>
+        <v>642</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41779</v>
+        <v>41782</v>
       </c>
       <c r="B59" t="s">
-        <v>542</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="E59" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>544</v>
+        <v>32</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41778</v>
+        <v>41781</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>510</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>546</v>
+        <v>511</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41775</v>
+        <v>41781</v>
       </c>
       <c r="B61" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="E61" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41775</v>
+        <v>41781</v>
       </c>
       <c r="B62" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41775</v>
+        <v>41781</v>
       </c>
       <c r="B63" t="s">
-        <v>556</v>
+        <v>438</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="E63" t="s">
-        <v>558</v>
+        <v>169</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>19</v>
+        <v>522</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41774</v>
+        <v>41780</v>
       </c>
       <c r="B64" t="s">
-        <v>281</v>
+        <v>524</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41774</v>
+        <v>41780</v>
       </c>
       <c r="B65" t="s">
-        <v>329</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>564</v>
+        <v>320</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>565</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41773</v>
+        <v>41780</v>
       </c>
       <c r="B66" t="s">
-        <v>566</v>
+        <v>322</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>567</v>
+        <v>525</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41772</v>
+        <v>41780</v>
       </c>
       <c r="B67" t="s">
-        <v>329</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>570</v>
+        <v>239</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>571</v>
+        <v>531</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="B68" t="s">
-        <v>572</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="E68" t="s">
-        <v>574</v>
+        <v>18</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>187</v>
+        <v>533</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="B69" t="s">
-        <v>576</v>
+        <v>535</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>577</v>
+        <v>536</v>
       </c>
       <c r="E69" t="s">
-        <v>558</v>
+        <v>58</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>578</v>
+        <v>537</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41771</v>
+        <v>41779</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>538</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>580</v>
+        <v>62</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>581</v>
+        <v>540</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41771</v>
+        <v>41779</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>541</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>583</v>
+        <v>543</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>584</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41771</v>
+        <v>41778</v>
       </c>
       <c r="B72" t="s">
-        <v>585</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>583</v>
+        <v>546</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>587</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41771</v>
+        <v>41775</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>548</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>584</v>
+        <v>551</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41771</v>
+        <v>41775</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>552</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="E74" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>587</v>
+        <v>554</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41771</v>
+        <v>41775</v>
       </c>
       <c r="B75" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="E75" t="s">
-        <v>2</v>
+        <v>557</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>392</v>
+        <v>19</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>592</v>
+        <v>558</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41771</v>
+        <v>41774</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>593</v>
+        <v>559</v>
       </c>
       <c r="E76" t="s">
-        <v>574</v>
+        <v>10</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>595</v>
+        <v>561</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41771</v>
+        <v>41774</v>
       </c>
       <c r="B77" t="s">
-        <v>596</v>
+        <v>329</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>593</v>
+        <v>562</v>
       </c>
       <c r="E77" t="s">
-        <v>574</v>
+        <v>18</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>598</v>
+        <v>564</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41771</v>
+        <v>41773</v>
       </c>
       <c r="B78" t="s">
-        <v>329</v>
+        <v>565</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>599</v>
+        <v>566</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>570</v>
+        <v>11</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>600</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B79" t="s">
-        <v>556</v>
+        <v>329</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
       <c r="E79" t="s">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>32</v>
+        <v>569</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B80" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="E80" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>575</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>557</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4509,257 +4630,257 @@
         <v>41771</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>607</v>
+        <v>578</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B83" t="s">
-        <v>610</v>
+        <v>160</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>613</v>
+        <v>583</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B84" t="s">
-        <v>329</v>
+        <v>584</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>614</v>
+        <v>585</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>615</v>
+        <v>586</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="B85" t="s">
-        <v>556</v>
+        <v>160</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="E85" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>32</v>
+        <v>582</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>617</v>
+        <v>583</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="B86" t="s">
-        <v>439</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="E86" t="s">
-        <v>558</v>
+        <v>169</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>619</v>
+        <v>206</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>620</v>
+        <v>586</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B87" t="s">
-        <v>621</v>
+        <v>589</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="E87" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>59</v>
+        <v>391</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>71</v>
+        <v>591</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B88" t="s">
-        <v>623</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
       <c r="E88" t="s">
-        <v>58</v>
+        <v>573</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>62</v>
+        <v>593</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>625</v>
+        <v>594</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B89" t="s">
-        <v>626</v>
+        <v>595</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>627</v>
+        <v>592</v>
       </c>
       <c r="E89" t="s">
-        <v>58</v>
+        <v>573</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>628</v>
+        <v>596</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>629</v>
+        <v>597</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
       <c r="E90" t="s">
         <v>18</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>631</v>
+        <v>569</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>632</v>
+        <v>599</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>555</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="E91" t="s">
-        <v>18</v>
+        <v>557</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>628</v>
+        <v>32</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41761</v>
+        <v>41771</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>555</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>557</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>71</v>
+        <v>603</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41761</v>
+        <v>41771</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
@@ -4768,228 +4889,228 @@
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="E93" t="s">
         <v>18</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>637</v>
+        <v>19</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41759</v>
+        <v>41771</v>
       </c>
       <c r="B94" t="s">
-        <v>505</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>506</v>
+        <v>606</v>
       </c>
       <c r="E94" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>507</v>
+        <v>607</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>508</v>
+        <v>608</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41758</v>
+        <v>41768</v>
       </c>
       <c r="B95" t="s">
-        <v>439</v>
+        <v>609</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41758</v>
+        <v>41768</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>502</v>
+        <v>613</v>
       </c>
       <c r="E96" t="s">
         <v>18</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>504</v>
+        <v>614</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41754</v>
+        <v>41766</v>
       </c>
       <c r="B97" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
       <c r="E97" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>498</v>
+        <v>616</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41745</v>
+        <v>41766</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>438</v>
       </c>
       <c r="C98" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>477</v>
+        <v>617</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>557</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>478</v>
+        <v>618</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>479</v>
+        <v>619</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41744</v>
+        <v>41765</v>
       </c>
       <c r="B99" t="s">
-        <v>480</v>
+        <v>620</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>481</v>
+        <v>621</v>
       </c>
       <c r="E99" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>482</v>
+        <v>59</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>483</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41743</v>
+        <v>41765</v>
       </c>
       <c r="B100" t="s">
-        <v>484</v>
+        <v>622</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>485</v>
+        <v>623</v>
       </c>
       <c r="E100" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>486</v>
+        <v>62</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>487</v>
+        <v>624</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41743</v>
+        <v>41765</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>625</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>488</v>
+        <v>626</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>19</v>
+        <v>627</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>489</v>
+        <v>628</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41743</v>
+        <v>41765</v>
       </c>
       <c r="B102" t="s">
-        <v>490</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>491</v>
+        <v>629</v>
       </c>
       <c r="E102" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>492</v>
+        <v>630</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>457</v>
+        <v>631</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41743</v>
+        <v>41765</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
@@ -4998,844 +5119,844 @@
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>493</v>
+        <v>632</v>
       </c>
       <c r="E103" t="s">
         <v>18</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>492</v>
+        <v>627</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>494</v>
+        <v>633</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41740</v>
+        <v>41761</v>
       </c>
       <c r="B104" t="s">
-        <v>455</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>456</v>
+        <v>634</v>
       </c>
       <c r="E104" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>457</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41740</v>
+        <v>41761</v>
       </c>
       <c r="B105" t="s">
-        <v>458</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>459</v>
+        <v>635</v>
       </c>
       <c r="E105" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>62</v>
+        <v>636</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>460</v>
+        <v>637</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41740</v>
+        <v>41759</v>
       </c>
       <c r="B106" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="E106" t="s">
-        <v>58</v>
+        <v>338</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41739</v>
+        <v>41758</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>438</v>
       </c>
       <c r="C107" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41739</v>
+        <v>41758</v>
       </c>
       <c r="B108" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="E108" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>187</v>
+        <v>502</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41739</v>
+        <v>41754</v>
       </c>
       <c r="B109" t="s">
-        <v>160</v>
+        <v>494</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>496</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>471</v>
+        <v>7</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41739</v>
+        <v>41745</v>
       </c>
       <c r="B110" t="s">
-        <v>473</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41738</v>
+        <v>41744</v>
       </c>
       <c r="B111" t="s">
-        <v>336</v>
+        <v>479</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="E111" t="s">
-        <v>338</v>
+        <v>2</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>32</v>
+        <v>481</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41738</v>
+        <v>41743</v>
       </c>
       <c r="B112" t="s">
-        <v>291</v>
+        <v>483</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41737</v>
+        <v>41743</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="E113" t="s">
         <v>18</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>435</v>
+        <v>19</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41737</v>
+        <v>41743</v>
       </c>
       <c r="B114" t="s">
-        <v>407</v>
+        <v>489</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>327</v>
+        <v>491</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41736</v>
+        <v>41743</v>
       </c>
       <c r="B115" t="s">
-        <v>439</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="E115" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41736</v>
+        <v>41740</v>
       </c>
       <c r="B116" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>444</v>
+        <v>59</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41736</v>
+        <v>41740</v>
       </c>
       <c r="B117" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>448</v>
+        <v>62</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41736</v>
+        <v>41740</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>460</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="B119" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="E119" t="s">
         <v>18</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>331</v>
+        <v>465</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41733</v>
+        <v>41739</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>424</v>
+        <v>187</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41733</v>
+        <v>41739</v>
       </c>
       <c r="B121" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="E121" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>32</v>
+        <v>470</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41732</v>
+        <v>41739</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>472</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="E122" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41731</v>
+        <v>41738</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>336</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>432</v>
+        <v>32</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41731</v>
+        <v>41738</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="E124" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>67</v>
+        <v>450</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41731</v>
+        <v>41737</v>
       </c>
       <c r="B125" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>327</v>
+        <v>434</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="B126" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="E126" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>412</v>
+        <v>327</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41730</v>
+        <v>41736</v>
       </c>
       <c r="B127" t="s">
-        <v>123</v>
+        <v>438</v>
       </c>
       <c r="C127" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>338</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>32</v>
+        <v>434</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B128" t="s">
-        <v>209</v>
+        <v>441</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="E128" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>40</v>
+        <v>443</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>445</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>371</v>
+        <v>446</v>
       </c>
       <c r="E129" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>372</v>
+        <v>447</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>373</v>
+        <v>448</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B130" t="s">
-        <v>374</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="E130" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>59</v>
+        <v>418</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B131" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="E131" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>62</v>
+        <v>331</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>41729</v>
+        <v>41733</v>
       </c>
       <c r="B132" t="s">
-        <v>380</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="E132" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>41729</v>
+        <v>41733</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="E133" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>385</v>
+        <v>32</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>41729</v>
+        <v>41732</v>
       </c>
       <c r="B134" t="s">
         <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="E134" t="s">
         <v>18</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B135" t="s">
-        <v>390</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="E135" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B136" t="s">
-        <v>393</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>395</v>
+        <v>67</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>406</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="E137" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>37</v>
+        <v>327</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B138" t="s">
-        <v>39</v>
+        <v>409</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="E138" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>40</v>
+        <v>411</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B139" t="s">
-        <v>397</v>
+        <v>123</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="E139" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>399</v>
+        <v>32</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5843,22 +5964,22 @@
         <v>41729</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="C140" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>365</v>
+        <v>40</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5866,487 +5987,487 @@
         <v>41729</v>
       </c>
       <c r="B141" t="s">
-        <v>367</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>374</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E142" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>362</v>
+        <v>59</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>377</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>359</v>
+        <v>62</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>380</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E144" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B145" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="E145" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>37</v>
+        <v>385</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B146" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="E146" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>40</v>
+        <v>398</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B147" t="s">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="E147" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>392</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="E148" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>7</v>
+        <v>394</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>41722</v>
+        <v>41729</v>
       </c>
       <c r="B149" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>41722</v>
+        <v>41729</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C150" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="E150" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>41719</v>
+        <v>41729</v>
       </c>
       <c r="B151" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="C151" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="E151" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>41718</v>
+        <v>41729</v>
       </c>
       <c r="B152" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="E152" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>41718</v>
+        <v>41729</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>367</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="E153" t="s">
         <v>10</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>41718</v>
+        <v>41725</v>
       </c>
       <c r="B154" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E154" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>192</v>
+        <v>362</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>41717</v>
+        <v>41725</v>
       </c>
       <c r="B155" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>270</v>
+        <v>358</v>
       </c>
       <c r="E155" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>41717</v>
+        <v>41725</v>
       </c>
       <c r="B156" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="E156" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B157" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C157" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="E157" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>274</v>
+        <v>353</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B158" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="E158" t="s">
         <v>2</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B159" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C159" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="E159" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B160" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C160" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="B161" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
       <c r="C161" t="s">
         <v>1</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="B162" t="s">
         <v>16</v>
@@ -6355,113 +6476,113 @@
         <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="E162" t="s">
         <v>18</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>33</v>
+        <v>346</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>41716</v>
+        <v>41719</v>
       </c>
       <c r="B163" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="E163" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>32</v>
+        <v>342</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>41716</v>
+        <v>41718</v>
       </c>
       <c r="B164" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="E164" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>32</v>
+        <v>331</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>41716</v>
+        <v>41718</v>
       </c>
       <c r="B165" t="s">
-        <v>291</v>
+        <v>13</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="E165" t="s">
         <v>10</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>33</v>
+        <v>335</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>41715</v>
+        <v>41718</v>
       </c>
       <c r="B166" t="s">
-        <v>258</v>
+        <v>336</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>295</v>
+        <v>192</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B167" t="s">
         <v>36</v>
@@ -6470,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="E167" t="s">
         <v>2</v>
@@ -6479,12 +6600,12 @@
         <v>37</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B168" t="s">
         <v>39</v>
@@ -6493,7 +6614,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="E168" t="s">
         <v>2</v>
@@ -6502,12 +6623,12 @@
         <v>40</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B169" t="s">
         <v>42</v>
@@ -6516,21 +6637,21 @@
         <v>17</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="E169" t="s">
         <v>43</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>301</v>
+        <v>181</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B170" t="s">
         <v>36</v>
@@ -6539,7 +6660,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="E170" t="s">
         <v>2</v>
@@ -6548,12 +6669,12 @@
         <v>37</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B171" t="s">
         <v>39</v>
@@ -6562,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="E171" t="s">
         <v>2</v>
@@ -6571,12 +6692,12 @@
         <v>40</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B172" t="s">
         <v>42</v>
@@ -6585,131 +6706,131 @@
         <v>17</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="E172" t="s">
         <v>43</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B173" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E173" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B174" t="s">
-        <v>312</v>
+        <v>16</v>
       </c>
       <c r="C174" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>314</v>
+        <v>192</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>315</v>
+        <v>33</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B175" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C175" t="s">
         <v>1</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B176" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B177" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="C177" t="s">
         <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="E177" t="s">
         <v>10</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>324</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -6717,533 +6838,533 @@
         <v>41715</v>
       </c>
       <c r="B178" t="s">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="C178" t="s">
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="E178" t="s">
         <v>10</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B179" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="E179" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B180" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="E180" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>41709</v>
+        <v>41715</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C181" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B182" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C183" t="s">
         <v>1</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B184" t="s">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="C184" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="E184" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>59</v>
+        <v>307</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B185" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="C185" t="s">
         <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="E185" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B186" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="E186" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B187" t="s">
-        <v>30</v>
+        <v>316</v>
       </c>
       <c r="C187" t="s">
         <v>1</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="E187" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>32</v>
+        <v>318</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>41705</v>
+        <v>41715</v>
       </c>
       <c r="B188" t="s">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="C188" t="s">
         <v>1</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>244</v>
+        <v>317</v>
       </c>
       <c r="E188" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>245</v>
+        <v>321</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B189" t="s">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>226</v>
+        <v>317</v>
       </c>
       <c r="E189" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B190" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
       <c r="C190" t="s">
         <v>1</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>230</v>
+        <v>326</v>
       </c>
       <c r="E190" t="s">
         <v>10</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>231</v>
+        <v>327</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>232</v>
+        <v>328</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>41703</v>
+        <v>41712</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C191" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>41703</v>
+        <v>41711</v>
       </c>
       <c r="B192" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="E192" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>41703</v>
+        <v>41709</v>
       </c>
       <c r="B193" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C193" t="s">
         <v>1</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="E193" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>41698</v>
+        <v>41708</v>
       </c>
       <c r="B194" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="E194" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>41698</v>
+        <v>41708</v>
       </c>
       <c r="B195" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="E195" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>127</v>
+        <v>263</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>41698</v>
+        <v>41708</v>
       </c>
       <c r="B196" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C196" t="s">
         <v>1</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="E196" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>41697</v>
+        <v>41708</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E197" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>41696</v>
+        <v>41708</v>
       </c>
       <c r="B198" t="s">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="C198" t="s">
         <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="E198" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>41696</v>
+        <v>41708</v>
       </c>
       <c r="B199" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="E199" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>41696</v>
+        <v>41705</v>
       </c>
       <c r="B200" t="s">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="E200" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>41690</v>
+        <v>41703</v>
       </c>
       <c r="B201" t="s">
         <v>16</v>
@@ -7252,504 +7373,504 @@
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="E201" t="s">
         <v>18</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>41689</v>
+        <v>41703</v>
       </c>
       <c r="B202" t="s">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="C202" t="s">
         <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="E202" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>41689</v>
+        <v>41703</v>
       </c>
       <c r="B203" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C203" t="s">
         <v>1</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="E203" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>41689</v>
+        <v>41703</v>
       </c>
       <c r="B204" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="C204" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="E204" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>41689</v>
+        <v>41703</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E205" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>41687</v>
+        <v>41698</v>
       </c>
       <c r="B206" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="E206" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>41687</v>
+        <v>41698</v>
       </c>
       <c r="B207" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C207" t="s">
         <v>1</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="E207" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>41687</v>
+        <v>41698</v>
       </c>
       <c r="B208" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="E208" t="s">
         <v>2</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>41687</v>
+        <v>41697</v>
       </c>
       <c r="B209" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C209" t="s">
         <v>17</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="E209" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B210" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B211" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C211" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="E211" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>41684</v>
+        <v>41696</v>
       </c>
       <c r="B212" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="C212" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="E212" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>41684</v>
+        <v>41690</v>
       </c>
       <c r="B213" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C213" t="s">
         <v>1</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E213" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>41682</v>
+        <v>41689</v>
       </c>
       <c r="B214" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="E214" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>41682</v>
+        <v>41689</v>
       </c>
       <c r="B215" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C215" t="s">
         <v>1</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="E215" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>41682</v>
+        <v>41689</v>
       </c>
       <c r="B216" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="C216" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="E216" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>41682</v>
+        <v>41689</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="C217" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="E217" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B218" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="C218" t="s">
         <v>1</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B219" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="C219" t="s">
         <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B220" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B221" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="C221" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E221" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>41680</v>
+        <v>41687</v>
       </c>
       <c r="B222" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C222" t="s">
         <v>1</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E222" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>41680</v>
+        <v>41687</v>
       </c>
       <c r="B223" t="s">
         <v>16</v>
@@ -7758,958 +7879,1234 @@
         <v>17</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="E223" t="s">
         <v>18</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>41677</v>
+        <v>41684</v>
       </c>
       <c r="B224" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="E224" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>41677</v>
+        <v>41684</v>
       </c>
       <c r="B225" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="C225" t="s">
         <v>1</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="E225" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B226" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C226" t="s">
         <v>1</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E226" t="s">
         <v>58</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>41676</v>
+        <v>41682</v>
       </c>
       <c r="B227" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="C227" t="s">
         <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>41676</v>
+        <v>41682</v>
       </c>
       <c r="B228" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C228" t="s">
         <v>1</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="E228" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>41676</v>
+        <v>41682</v>
       </c>
       <c r="B229" t="s">
         <v>16</v>
       </c>
       <c r="C229" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="E229" t="s">
         <v>18</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B230" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C230" t="s">
         <v>1</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="E230" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B231" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="C231" t="s">
         <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E231" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>41675</v>
+        <v>41681</v>
       </c>
       <c r="B232" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C232" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="E232" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="B233" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E233" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>41674</v>
+        <v>41680</v>
       </c>
       <c r="B234" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C234" t="s">
         <v>1</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="E234" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>41674</v>
+        <v>41680</v>
       </c>
       <c r="B235" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C235" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="E235" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B236" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C236" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E236" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>41670</v>
+        <v>41677</v>
       </c>
       <c r="B237" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="E237" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>41670</v>
+        <v>41677</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="C238" t="s">
         <v>1</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E238" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>41663</v>
+        <v>41676</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C239" t="s">
         <v>1</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="E239" t="s">
         <v>10</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>41662</v>
+        <v>41676</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C240" t="s">
         <v>1</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="E240" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>41661</v>
+        <v>41676</v>
       </c>
       <c r="B241" t="s">
         <v>16</v>
       </c>
       <c r="C241" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="E241" t="s">
         <v>18</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>41656</v>
+        <v>41676</v>
       </c>
       <c r="B242" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C242" t="s">
         <v>1</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="E242" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>41655</v>
+        <v>41676</v>
       </c>
       <c r="B243" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="C243" t="s">
         <v>1</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="E243" t="s">
         <v>2</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>41655</v>
+        <v>41675</v>
       </c>
       <c r="B244" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C244" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E244" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B245" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="C245" t="s">
         <v>1</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E245" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>41654</v>
+        <v>41674</v>
       </c>
       <c r="B246" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C246" t="s">
         <v>1</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E246" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>41653</v>
+        <v>41674</v>
       </c>
       <c r="B247" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C247" t="s">
         <v>1</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E247" t="s">
         <v>2</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>41653</v>
+        <v>41674</v>
       </c>
       <c r="B248" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C248" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E248" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>41653</v>
+        <v>41670</v>
       </c>
       <c r="B249" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C249" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E249" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>41652</v>
+        <v>41670</v>
       </c>
       <c r="B250" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>1</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E250" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>41652</v>
+        <v>41663</v>
       </c>
       <c r="B251" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C251" t="s">
         <v>1</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E251" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>41652</v>
+        <v>41662</v>
       </c>
       <c r="B252" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C252" t="s">
         <v>1</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E252" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>41652</v>
+        <v>41661</v>
       </c>
       <c r="B253" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C253" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E253" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>41652</v>
+        <v>41656</v>
       </c>
       <c r="B254" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C254" t="s">
         <v>1</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E254" t="s">
         <v>2</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B255" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C255" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E255" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B256" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C256" t="s">
         <v>1</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E256" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>41649</v>
+        <v>41655</v>
       </c>
       <c r="B257" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C257" t="s">
         <v>1</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E257" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>41649</v>
+        <v>41654</v>
       </c>
       <c r="B258" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C258" t="s">
         <v>1</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E258" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B259" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C259" t="s">
         <v>1</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E259" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B260" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C260" t="s">
         <v>1</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E260" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B261" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C261" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E261" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B262" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C262" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E262" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B263" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C263" t="s">
         <v>1</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E263" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B264" t="s">
+        <v>49</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E264" t="s">
+        <v>31</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B265" t="s">
+        <v>36</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E265" t="s">
+        <v>2</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B266" t="s">
+        <v>39</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E266" t="s">
+        <v>2</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B267" t="s">
+        <v>42</v>
+      </c>
+      <c r="C267" t="s">
+        <v>17</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E267" t="s">
+        <v>43</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B268" t="s">
+        <v>16</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E268" t="s">
+        <v>18</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B269" t="s">
+        <v>52</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E269" t="s">
+        <v>2</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B270" t="s">
+        <v>39</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E270" t="s">
+        <v>2</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B271" t="s">
+        <v>57</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E271" t="s">
+        <v>58</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B272" t="s">
+        <v>61</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E272" t="s">
+        <v>58</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B273" t="s">
+        <v>64</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E273" t="s">
+        <v>58</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B274" t="s">
+        <v>16</v>
+      </c>
+      <c r="C274" t="s">
+        <v>17</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E274" t="s">
+        <v>18</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
         <v>41648</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B275" t="s">
+        <v>69</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E275" t="s">
+        <v>2</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B276" t="s">
         <v>16</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C276" t="s">
         <v>17</v>
       </c>
-      <c r="D264" s="2" t="s">
+      <c r="D276" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E276" t="s">
         <v>18</v>
       </c>
-      <c r="F264" s="3" t="s">
+      <c r="F276" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G264" s="3" t="s">
+      <c r="G276" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/docs/backup/cuenta_3940694600.xlsx
+++ b/docs/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="874">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -2379,6 +2379,273 @@
   </si>
   <si>
     <t>0012502340</t>
+  </si>
+  <si>
+    <t>14629015-COSTO IVA CASH-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0008942188</t>
+  </si>
+  <si>
+    <t>554.89</t>
+  </si>
+  <si>
+    <t>14629015-COSTO OPER CASH-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0008942183</t>
+  </si>
+  <si>
+    <t>554.93</t>
+  </si>
+  <si>
+    <t>14629015-EMAP Q-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0008942149</t>
+  </si>
+  <si>
+    <t>15.93  </t>
+  </si>
+  <si>
+    <t>555.24</t>
+  </si>
+  <si>
+    <t>0008045821</t>
+  </si>
+  <si>
+    <t>570.00  </t>
+  </si>
+  <si>
+    <t>571.17</t>
+  </si>
+  <si>
+    <t>0004006771</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>0003045972</t>
+  </si>
+  <si>
+    <t>21.17</t>
+  </si>
+  <si>
+    <t>14540261-MASTERCARD-RA-518114000072</t>
+  </si>
+  <si>
+    <t>0005433770</t>
+  </si>
+  <si>
+    <t>207.61  </t>
+  </si>
+  <si>
+    <t>0005364228</t>
+  </si>
+  <si>
+    <t>1.93  </t>
+  </si>
+  <si>
+    <t>208.78</t>
+  </si>
+  <si>
+    <t>0005310892</t>
+  </si>
+  <si>
+    <t>206.85</t>
+  </si>
+  <si>
+    <t>0004303865</t>
+  </si>
+  <si>
+    <t>106.85</t>
+  </si>
+  <si>
+    <t>0010084228</t>
+  </si>
+  <si>
+    <t>278.89</t>
+  </si>
+  <si>
+    <t>3940694600/0984250487</t>
+  </si>
+  <si>
+    <t>0019324262</t>
+  </si>
+  <si>
+    <t>548.89</t>
+  </si>
+  <si>
+    <t>14857317-MASTERCARD-RA-518114000072</t>
+  </si>
+  <si>
+    <t>0015880806</t>
+  </si>
+  <si>
+    <t>464.43  </t>
+  </si>
+  <si>
+    <t>81.45</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP N/EL GIRON-4</t>
+  </si>
+  <si>
+    <t>0012202716</t>
+  </si>
+  <si>
+    <t>545.88</t>
+  </si>
+  <si>
+    <t>0007896467</t>
+  </si>
+  <si>
+    <t>80.02  </t>
+  </si>
+  <si>
+    <t>645.88</t>
+  </si>
+  <si>
+    <t>0001007516</t>
+  </si>
+  <si>
+    <t>317.00  </t>
+  </si>
+  <si>
+    <t>565.86</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP N/EL GIRON-5</t>
+  </si>
+  <si>
+    <t>0004856982</t>
+  </si>
+  <si>
+    <t>248.86</t>
+  </si>
+  <si>
+    <t>14662823-COSTO IVA CASH-EQ-12430000</t>
+  </si>
+  <si>
+    <t>0000717009</t>
+  </si>
+  <si>
+    <t>258.86</t>
+  </si>
+  <si>
+    <t>14662823-COSTO OPER CASH-EQ-12430000</t>
+  </si>
+  <si>
+    <t>0000717001</t>
+  </si>
+  <si>
+    <t>258.90</t>
+  </si>
+  <si>
+    <t>14662823-E E Q-EQ-12430000</t>
+  </si>
+  <si>
+    <t>0000716983</t>
+  </si>
+  <si>
+    <t>41.99  </t>
+  </si>
+  <si>
+    <t>259.21</t>
+  </si>
+  <si>
+    <t>0002966963</t>
+  </si>
+  <si>
+    <t>301.20</t>
+  </si>
+  <si>
+    <t>0011783020</t>
+  </si>
+  <si>
+    <t>307.20</t>
+  </si>
+  <si>
+    <t>0004844621</t>
+  </si>
+  <si>
+    <t>317.20</t>
+  </si>
+  <si>
+    <t>0010847874</t>
+  </si>
+  <si>
+    <t>332.46</t>
+  </si>
+  <si>
+    <t>0008211915</t>
+  </si>
+  <si>
+    <t>352.46</t>
+  </si>
+  <si>
+    <t>352.73</t>
+  </si>
+  <si>
+    <t>01-SPI-ROJAS CEVALLOS OSWALDO RAM</t>
+  </si>
+  <si>
+    <t>0008211882</t>
+  </si>
+  <si>
+    <t>352.76</t>
+  </si>
+  <si>
+    <t>CONSUMO VISA NA EST. DE SERVICIO SU E</t>
+  </si>
+  <si>
+    <t>0001942511</t>
+  </si>
+  <si>
+    <t>52.76</t>
+  </si>
+  <si>
+    <t>0001770152</t>
+  </si>
+  <si>
+    <t>29.72  </t>
+  </si>
+  <si>
+    <t>63.02</t>
+  </si>
+  <si>
+    <t>0008660577</t>
+  </si>
+  <si>
+    <t>92.74</t>
+  </si>
+  <si>
+    <t>0000143471</t>
+  </si>
+  <si>
+    <t>112.74</t>
+  </si>
+  <si>
+    <t>0008216381</t>
+  </si>
+  <si>
+    <t>132.74</t>
+  </si>
+  <si>
+    <t>14672050-MEGADATOS S.A -CB-1500583339</t>
+  </si>
+  <si>
+    <t>0006202388</t>
+  </si>
+  <si>
+    <t>182.74</t>
+  </si>
+  <si>
+    <t>0004632024</t>
+  </si>
+  <si>
+    <t>258.89</t>
   </si>
 </sst>
 </file>
@@ -2701,10 +2968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H276"/>
+  <dimension ref="A1:H310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H12"/>
+      <selection activeCell="H22" sqref="H1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,561 +2983,601 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41870</v>
+        <v>41904</v>
       </c>
       <c r="B1" t="s">
-        <v>757</v>
+        <v>817</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>758</v>
+        <v>818</v>
       </c>
       <c r="E1" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>819</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>759</v>
+        <v>820</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H12" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-19'), 'mo_concepto' =&gt; '14359200-COSTO IVA CASH-EQ-12430000', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009611122', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.04  , 'mo_saldo' =&gt; 46.85, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H21" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-22'), 'mo_concepto' =&gt; '14857317-MASTERCARD-RA-518114000072', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0015880806', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 464.43  , 'mo_saldo' =&gt; 81.45, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41870</v>
+        <v>41904</v>
       </c>
       <c r="B2" t="s">
-        <v>760</v>
+        <v>821</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>761</v>
+        <v>822</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>762</v>
+        <v>823</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-19'), 'mo_concepto' =&gt; '14359200-COSTO OPER CASH-EQ-12430000', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009611118', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.31  , 'mo_saldo' =&gt; 46.89, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-22'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/EL GIRON-4', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0012202716', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 100.00  , 'mo_saldo' =&gt; 545.88, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41870</v>
+        <v>41904</v>
       </c>
       <c r="B3" t="s">
-        <v>763</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>764</v>
+        <v>824</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>765</v>
+        <v>825</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>766</v>
+        <v>826</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-19'), 'mo_concepto' =&gt; '14359200-E E Q-EQ-12430000', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009611111', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 47.00  , 'mo_saldo' =&gt; 47.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-22'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007896467', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 80.02  , 'mo_saldo' =&gt; 645.88, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41870</v>
+        <v>41901</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>767</v>
+        <v>827</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>828</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>768</v>
+        <v>829</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-19'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005100182', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 10.00  , 'mo_saldo' =&gt; 94.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-19'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0001007516', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 317.00  , 'mo_saldo' =&gt; 565.86, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41869</v>
+        <v>41899</v>
       </c>
       <c r="B5" t="s">
-        <v>565</v>
+        <v>830</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>769</v>
+        <v>831</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>311</v>
+        <v>832</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-18'), 'mo_concepto' =&gt; 'CONSUMO VISA NA MI GASOLINERA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0017937809', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 15.26  , 'mo_saldo' =&gt; 104.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-17'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/EL GIRON-5', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004856982', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 10.00  , 'mo_saldo' =&gt; 248.86, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41869</v>
+        <v>41899</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>833</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>770</v>
+        <v>834</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>771</v>
+        <v>59</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>772</v>
+        <v>835</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-18'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005633105', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 111.68  , 'mo_saldo' =&gt; 119.46, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-17'), 'mo_concepto' =&gt; '14662823-COSTO IVA CASH-EQ-12430000', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000717009', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.04  , 'mo_saldo' =&gt; 258.86, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41869</v>
+        <v>41899</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>836</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>773</v>
+        <v>837</v>
       </c>
       <c r="E7" t="s">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>774</v>
+        <v>838</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-18'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/KENNEDY 3', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005354441', 'mo_oficina' =&gt; 'KENNEDY', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 231.14, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-17'), 'mo_concepto' =&gt; '14662823-COSTO OPER CASH-EQ-12430000', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000717001', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.31  , 'mo_saldo' =&gt; 258.90, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41865</v>
+        <v>41899</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>839</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>775</v>
+        <v>840</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>776</v>
+        <v>841</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>777</v>
+        <v>842</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-14'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008745928', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 8.86  , 'mo_saldo' =&gt; 251.14, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-17'), 'mo_concepto' =&gt; '14662823-E E Q-EQ-12430000', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000716983', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 41.99  , 'mo_saldo' =&gt; 259.21, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41865</v>
+        <v>41898</v>
       </c>
       <c r="B9" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>778</v>
+        <v>843</v>
       </c>
       <c r="E9" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>7</v>
+        <v>563</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>779</v>
+        <v>844</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-14'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/KENNEDY 3', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008452331', 'mo_oficina' =&gt; 'KENNEDY', 'mo_monto' =&gt; 10.00  , 'mo_saldo' =&gt; 260.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-16'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002966963', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 6.00  , 'mo_saldo' =&gt; 301.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41864</v>
+        <v>41897</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>821</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>780</v>
+        <v>845</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>711</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>637</v>
+        <v>846</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-13'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0008791225', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 170.00  , 'mo_saldo' =&gt; 270.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-15'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/EL GIRON-4', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0011783020', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 10.00  , 'mo_saldo' =&gt; 307.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41862</v>
+        <v>41897</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>565</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>781</v>
+        <v>847</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>782</v>
+        <v>848</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-11'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0006379471', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 100.00  , 'mo_saldo' =&gt; 100.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-15'), 'mo_concepto' =&gt; 'CONSUMO VISA NA MI GASOLINERA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004844621', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 15.26  , 'mo_saldo' =&gt; 317.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41855</v>
+        <v>41890</v>
       </c>
       <c r="B12" t="s">
-        <v>783</v>
+        <v>821</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>784</v>
+        <v>849</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>71</v>
+        <v>850</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-04'), 'mo_concepto' =&gt; '14346107-MEGADATOS S.A -CB-1500583339', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0012502340', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 76.15  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-08'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/EL GIRON-4', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010847874', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 332.46, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41855</v>
+        <v>41890</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>752</v>
+        <v>851</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>753</v>
+        <v>37</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>754</v>
+        <v>852</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-08'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008211915', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 352.46, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41855</v>
+        <v>41890</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>755</v>
+        <v>851</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>385</v>
+        <v>40</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>756</v>
+        <v>853</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-08'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008211915', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 352.73, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41830</v>
+        <v>41890</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>854</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>723</v>
+        <v>855</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>724</v>
+        <v>522</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>71</v>
+        <v>856</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-08'), 'mo_concepto' =&gt; '01-SPI-ROJAS CEVALLOS OSWALDO RAM', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0008211882', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 300.00  , 'mo_saldo' =&gt; 352.76, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41827</v>
+        <v>41890</v>
       </c>
       <c r="B16" t="s">
-        <v>725</v>
+        <v>857</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>726</v>
+        <v>858</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>59</v>
+        <v>327</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-08'), 'mo_concepto' =&gt; 'CONSUMO VISA NA EST. DE SERVICIO SU E', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001942511', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 10.26  , 'mo_saldo' =&gt; 52.76, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41827</v>
+        <v>41890</v>
       </c>
       <c r="B17" t="s">
-        <v>728</v>
+        <v>472</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>729</v>
+        <v>860</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>62</v>
+        <v>861</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-08'), 'mo_concepto' =&gt; 'CONSUMO DATA MEGAKYWI-E. ALFARO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001770152', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 29.72  , 'mo_saldo' =&gt; 63.02, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41827</v>
+        <v>41886</v>
       </c>
       <c r="B18" t="s">
-        <v>731</v>
+        <v>668</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>732</v>
+        <v>863</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>338</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>382</v>
+        <v>32</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-04'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/KENNEDY 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008660577', 'mo_oficina' =&gt; 'KENNEDY', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 92.74, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41827</v>
+        <v>41886</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>734</v>
+        <v>865</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-04'), 'mo_concepto' =&gt; 'DB AH PROGRAMADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000143471', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 112.74, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41827</v>
+        <v>41885</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>736</v>
+        <v>867</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>737</v>
+        <v>239</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-03'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 2', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008216381', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 50.00  , 'mo_saldo' =&gt; 132.74, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41827</v>
+        <v>41885</v>
       </c>
       <c r="B21" t="s">
-        <v>329</v>
+        <v>869</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>739</v>
+        <v>870</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>569</v>
+        <v>22</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>871</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-03'), 'mo_concepto' =&gt; '14672050-MEGADATOS S.A -CB-1500583339', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0006202388', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 76.15  , 'mo_saldo' =&gt; 182.74, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41827</v>
+        <v>41885</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>741</v>
+        <v>872</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+      <c r="H22" t="str">
+        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A22,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B22,"', 'mo_tipo' =&gt; '",C22,"', 'mo_documento' =&gt; '",D22,"', 'mo_oficina' =&gt; '",E22,"', 'mo_monto' =&gt; ",F22,", 'mo_saldo' =&gt; ",G22,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-03'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/EL GIRON-3', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004632024', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 258.89, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41827</v>
+        <v>41884</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -3279,504 +3586,504 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>743</v>
+        <v>812</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>744</v>
+        <v>127</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41824</v>
+        <v>41883</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>814</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>746</v>
+        <v>815</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>32</v>
+        <v>563</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41823</v>
+        <v>41883</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>785</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>748</v>
+        <v>786</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41823</v>
+        <v>41883</v>
       </c>
       <c r="B26" t="s">
-        <v>329</v>
+        <v>788</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>750</v>
+        <v>789</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>569</v>
+        <v>62</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41823</v>
+        <v>41883</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>791</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>700</v>
+        <v>792</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>701</v>
+        <v>793</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41823</v>
+        <v>41883</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>703</v>
+        <v>795</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>704</v>
+        <v>796</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41823</v>
+        <v>41878</v>
       </c>
       <c r="B29" t="s">
-        <v>438</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>706</v>
+        <v>798</v>
       </c>
       <c r="E29" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>721</v>
+        <v>32</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41822</v>
+        <v>41878</v>
       </c>
       <c r="B30" t="s">
-        <v>707</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>708</v>
+        <v>800</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41822</v>
+        <v>41873</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>802</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>710</v>
+        <v>803</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>711</v>
+        <v>804</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41816</v>
+        <v>41873</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>713</v>
+        <v>805</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>714</v>
+        <v>806</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>71</v>
+        <v>807</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41815</v>
+        <v>41873</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>438</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>715</v>
+        <v>808</v>
       </c>
       <c r="E33" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>716</v>
+        <v>809</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41815</v>
+        <v>41873</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>715</v>
+        <v>810</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>717</v>
+        <v>811</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41815</v>
+        <v>41870</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>757</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>718</v>
+        <v>758</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>719</v>
+        <v>59</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>720</v>
+        <v>759</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41806</v>
+        <v>41870</v>
       </c>
       <c r="B36" t="s">
-        <v>329</v>
+        <v>760</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>694</v>
+        <v>761</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>569</v>
+        <v>62</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>695</v>
+        <v>762</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41800</v>
+        <v>41870</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>763</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>696</v>
+        <v>764</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>32</v>
+        <v>765</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>697</v>
+        <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41799</v>
+        <v>41870</v>
       </c>
       <c r="B38" t="s">
-        <v>329</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>698</v>
+        <v>767</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>569</v>
+        <v>7</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>699</v>
+        <v>768</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41794</v>
+        <v>41869</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>565</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>692</v>
+        <v>769</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>693</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41793</v>
+        <v>41869</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>671</v>
+        <v>770</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>672</v>
+        <v>771</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>673</v>
+        <v>772</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41793</v>
+        <v>41869</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>336</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>674</v>
+        <v>773</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>675</v>
+        <v>32</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>676</v>
+        <v>774</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41793</v>
+        <v>41865</v>
       </c>
       <c r="B42" t="s">
-        <v>677</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>678</v>
+        <v>775</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>59</v>
+        <v>776</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>679</v>
+        <v>777</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41793</v>
+        <v>41865</v>
       </c>
       <c r="B43" t="s">
-        <v>680</v>
+        <v>336</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>681</v>
+        <v>778</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>338</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>682</v>
+        <v>779</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41793</v>
+        <v>41864</v>
       </c>
       <c r="B44" t="s">
-        <v>683</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>684</v>
+        <v>780</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>686</v>
+        <v>637</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41793</v>
+        <v>41862</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -3785,30 +4092,30 @@
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>687</v>
+        <v>781</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>688</v>
+        <v>782</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41793</v>
+        <v>41855</v>
       </c>
       <c r="B46" t="s">
-        <v>689</v>
+        <v>783</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>690</v>
+        <v>784</v>
       </c>
       <c r="E46" t="s">
         <v>2</v>
@@ -3817,196 +4124,196 @@
         <v>22</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>691</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41792</v>
+        <v>41855</v>
       </c>
       <c r="B47" t="s">
-        <v>664</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>665</v>
+        <v>752</v>
       </c>
       <c r="E47" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>666</v>
+        <v>753</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>667</v>
+        <v>754</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41792</v>
+        <v>41855</v>
       </c>
       <c r="B48" t="s">
-        <v>668</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>669</v>
+        <v>755</v>
       </c>
       <c r="E48" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>206</v>
+        <v>385</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>670</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41792</v>
+        <v>41830</v>
       </c>
       <c r="B49" t="s">
-        <v>657</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>658</v>
+        <v>723</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>32</v>
+        <v>724</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>659</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41789</v>
+        <v>41827</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>725</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>660</v>
+        <v>726</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>661</v>
+        <v>727</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41789</v>
+        <v>41827</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>728</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>662</v>
+        <v>729</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>663</v>
+        <v>730</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41789</v>
+        <v>41827</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>731</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>655</v>
+        <v>732</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>569</v>
+        <v>382</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>656</v>
+        <v>733</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41788</v>
+        <v>41827</v>
       </c>
       <c r="B53" t="s">
-        <v>643</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>644</v>
+        <v>734</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>645</v>
+        <v>32</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>646</v>
+        <v>735</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41788</v>
+        <v>41827</v>
       </c>
       <c r="B54" t="s">
-        <v>647</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>648</v>
+        <v>736</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>649</v>
+        <v>737</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>650</v>
+        <v>738</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41788</v>
+        <v>41827</v>
       </c>
       <c r="B55" t="s">
         <v>329</v>
@@ -4015,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>651</v>
+        <v>739</v>
       </c>
       <c r="E55" t="s">
         <v>18</v>
@@ -4024,35 +4331,35 @@
         <v>569</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41788</v>
+        <v>41827</v>
       </c>
       <c r="B56" t="s">
-        <v>438</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>434</v>
+        <v>192</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>654</v>
+        <v>742</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41785</v>
+        <v>41827</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
@@ -4061,136 +4368,136 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>638</v>
+        <v>743</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>639</v>
+        <v>744</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>71</v>
+        <v>745</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41785</v>
+        <v>41824</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>640</v>
+        <v>746</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>641</v>
+        <v>32</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>642</v>
+        <v>747</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41782</v>
+        <v>41823</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>508</v>
+        <v>748</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>509</v>
+        <v>749</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41781</v>
+        <v>41823</v>
       </c>
       <c r="B60" t="s">
-        <v>510</v>
+        <v>329</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>511</v>
+        <v>750</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>513</v>
+        <v>751</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41781</v>
+        <v>41823</v>
       </c>
       <c r="B61" t="s">
-        <v>514</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>515</v>
+        <v>700</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>516</v>
+        <v>701</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>517</v>
+        <v>702</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41781</v>
+        <v>41823</v>
       </c>
       <c r="B62" t="s">
-        <v>518</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>519</v>
+        <v>703</v>
       </c>
       <c r="E62" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>187</v>
+        <v>704</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>520</v>
+        <v>705</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41781</v>
+        <v>41823</v>
       </c>
       <c r="B63" t="s">
         <v>438</v>
@@ -4199,895 +4506,895 @@
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>521</v>
+        <v>706</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>522</v>
+        <v>721</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>523</v>
+        <v>722</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41780</v>
+        <v>41822</v>
       </c>
       <c r="B64" t="s">
-        <v>524</v>
+        <v>707</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>525</v>
+        <v>708</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>526</v>
+        <v>22</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>527</v>
+        <v>709</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41780</v>
+        <v>41822</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>525</v>
+        <v>710</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>320</v>
+        <v>711</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>528</v>
+        <v>712</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41780</v>
+        <v>41816</v>
       </c>
       <c r="B66" t="s">
-        <v>322</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>525</v>
+        <v>713</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>323</v>
+        <v>714</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>529</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41780</v>
+        <v>41815</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>530</v>
+        <v>715</v>
       </c>
       <c r="E67" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>531</v>
+        <v>716</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41779</v>
+        <v>41815</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>532</v>
+        <v>715</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>533</v>
+        <v>40</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>534</v>
+        <v>717</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41779</v>
+        <v>41815</v>
       </c>
       <c r="B69" t="s">
-        <v>535</v>
+        <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>536</v>
+        <v>718</v>
       </c>
       <c r="E69" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>59</v>
+        <v>719</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>537</v>
+        <v>720</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41779</v>
+        <v>41806</v>
       </c>
       <c r="B70" t="s">
-        <v>538</v>
+        <v>329</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>539</v>
+        <v>694</v>
       </c>
       <c r="E70" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>62</v>
+        <v>569</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>540</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41779</v>
+        <v>41800</v>
       </c>
       <c r="B71" t="s">
-        <v>541</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>542</v>
+        <v>696</v>
       </c>
       <c r="E71" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>543</v>
+        <v>32</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>544</v>
+        <v>697</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41778</v>
+        <v>41799</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>545</v>
+        <v>698</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>547</v>
+        <v>699</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41775</v>
+        <v>41794</v>
       </c>
       <c r="B73" t="s">
-        <v>548</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>549</v>
+        <v>692</v>
       </c>
       <c r="E73" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>550</v>
+        <v>32</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>551</v>
+        <v>693</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41775</v>
+        <v>41793</v>
       </c>
       <c r="B74" t="s">
-        <v>552</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>553</v>
+        <v>671</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>22</v>
+        <v>672</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>554</v>
+        <v>673</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41775</v>
+        <v>41793</v>
       </c>
       <c r="B75" t="s">
-        <v>555</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>556</v>
+        <v>674</v>
       </c>
       <c r="E75" t="s">
-        <v>557</v>
+        <v>18</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>19</v>
+        <v>675</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>558</v>
+        <v>676</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41774</v>
+        <v>41793</v>
       </c>
       <c r="B76" t="s">
-        <v>281</v>
+        <v>677</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>559</v>
+        <v>678</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>560</v>
+        <v>59</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>561</v>
+        <v>679</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41774</v>
+        <v>41793</v>
       </c>
       <c r="B77" t="s">
-        <v>329</v>
+        <v>680</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>562</v>
+        <v>681</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>563</v>
+        <v>62</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>564</v>
+        <v>682</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41773</v>
+        <v>41793</v>
       </c>
       <c r="B78" t="s">
-        <v>565</v>
+        <v>683</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>566</v>
+        <v>684</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>11</v>
+        <v>685</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>567</v>
+        <v>686</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41772</v>
+        <v>41793</v>
       </c>
       <c r="B79" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>568</v>
+        <v>687</v>
       </c>
       <c r="E79" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>569</v>
+        <v>67</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>570</v>
+        <v>688</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41772</v>
+        <v>41793</v>
       </c>
       <c r="B80" t="s">
-        <v>571</v>
+        <v>689</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>572</v>
+        <v>690</v>
       </c>
       <c r="E80" t="s">
-        <v>573</v>
+        <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>574</v>
+        <v>691</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41772</v>
+        <v>41792</v>
       </c>
       <c r="B81" t="s">
-        <v>575</v>
+        <v>664</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>576</v>
+        <v>665</v>
       </c>
       <c r="E81" t="s">
-        <v>557</v>
+        <v>2</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>239</v>
+        <v>666</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>577</v>
+        <v>667</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41771</v>
+        <v>41792</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>668</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>578</v>
+        <v>669</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>579</v>
+        <v>206</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>580</v>
+        <v>670</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41771</v>
+        <v>41792</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>657</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>581</v>
+        <v>658</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>582</v>
+        <v>32</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>583</v>
+        <v>659</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41771</v>
+        <v>41789</v>
       </c>
       <c r="B84" t="s">
-        <v>584</v>
+        <v>209</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>582</v>
+        <v>40</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41771</v>
+        <v>41789</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>582</v>
+        <v>32</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>583</v>
+        <v>663</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41771</v>
+        <v>41789</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>588</v>
+        <v>655</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>206</v>
+        <v>569</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>586</v>
+        <v>656</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41771</v>
+        <v>41788</v>
       </c>
       <c r="B87" t="s">
-        <v>589</v>
+        <v>643</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>590</v>
+        <v>644</v>
       </c>
       <c r="E87" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>391</v>
+        <v>645</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>591</v>
+        <v>646</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41771</v>
+        <v>41788</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>647</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>592</v>
+        <v>648</v>
       </c>
       <c r="E88" t="s">
-        <v>573</v>
+        <v>10</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>593</v>
+        <v>649</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>594</v>
+        <v>650</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41771</v>
+        <v>41788</v>
       </c>
       <c r="B89" t="s">
-        <v>595</v>
+        <v>329</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>592</v>
+        <v>651</v>
       </c>
       <c r="E89" t="s">
-        <v>573</v>
+        <v>18</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>597</v>
+        <v>652</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41771</v>
+        <v>41788</v>
       </c>
       <c r="B90" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>598</v>
+        <v>653</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>569</v>
+        <v>434</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>599</v>
+        <v>654</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41771</v>
+        <v>41785</v>
       </c>
       <c r="B91" t="s">
-        <v>555</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>600</v>
+        <v>638</v>
       </c>
       <c r="E91" t="s">
-        <v>557</v>
+        <v>18</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>32</v>
+        <v>639</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>601</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41771</v>
+        <v>41785</v>
       </c>
       <c r="B92" t="s">
-        <v>555</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>602</v>
+        <v>640</v>
       </c>
       <c r="E92" t="s">
-        <v>557</v>
+        <v>18</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>32</v>
+        <v>641</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41771</v>
+        <v>41782</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>604</v>
+        <v>508</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>605</v>
+        <v>509</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41771</v>
+        <v>41781</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>510</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>606</v>
+        <v>511</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>607</v>
+        <v>512</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>608</v>
+        <v>513</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41768</v>
+        <v>41781</v>
       </c>
       <c r="B95" t="s">
-        <v>609</v>
+        <v>514</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>610</v>
+        <v>515</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>611</v>
+        <v>516</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>612</v>
+        <v>517</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41768</v>
+        <v>41781</v>
       </c>
       <c r="B96" t="s">
-        <v>329</v>
+        <v>518</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>613</v>
+        <v>519</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>569</v>
+        <v>187</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>614</v>
+        <v>520</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41766</v>
+        <v>41781</v>
       </c>
       <c r="B97" t="s">
-        <v>555</v>
+        <v>438</v>
       </c>
       <c r="C97" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>615</v>
+        <v>521</v>
       </c>
       <c r="E97" t="s">
-        <v>557</v>
+        <v>169</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>32</v>
+        <v>522</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>616</v>
+        <v>523</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41766</v>
+        <v>41780</v>
       </c>
       <c r="B98" t="s">
-        <v>438</v>
+        <v>524</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="E98" t="s">
-        <v>557</v>
+        <v>10</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>618</v>
+        <v>526</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>619</v>
+        <v>527</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41765</v>
+        <v>41780</v>
       </c>
       <c r="B99" t="s">
-        <v>620</v>
+        <v>39</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>621</v>
+        <v>525</v>
       </c>
       <c r="E99" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>59</v>
+        <v>320</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>71</v>
+        <v>528</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41765</v>
+        <v>41780</v>
       </c>
       <c r="B100" t="s">
-        <v>622</v>
+        <v>322</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>623</v>
+        <v>525</v>
       </c>
       <c r="E100" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>62</v>
+        <v>323</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>624</v>
+        <v>529</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41765</v>
+        <v>41780</v>
       </c>
       <c r="B101" t="s">
-        <v>625</v>
+        <v>167</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>626</v>
+        <v>530</v>
       </c>
       <c r="E101" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>627</v>
+        <v>239</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>628</v>
+        <v>531</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41765</v>
+        <v>41779</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
@@ -5096,412 +5403,412 @@
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>629</v>
+        <v>532</v>
       </c>
       <c r="E102" t="s">
         <v>18</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>630</v>
+        <v>533</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>631</v>
+        <v>534</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41765</v>
+        <v>41779</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>632</v>
+        <v>536</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>627</v>
+        <v>59</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>633</v>
+        <v>537</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41761</v>
+        <v>41779</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>538</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>634</v>
+        <v>539</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>71</v>
+        <v>540</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41761</v>
+        <v>41779</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>541</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>635</v>
+        <v>542</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>636</v>
+        <v>543</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>637</v>
+        <v>544</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41759</v>
+        <v>41778</v>
       </c>
       <c r="B106" t="s">
-        <v>504</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>505</v>
+        <v>545</v>
       </c>
       <c r="E106" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>506</v>
+        <v>546</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>507</v>
+        <v>547</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41758</v>
+        <v>41775</v>
       </c>
       <c r="B107" t="s">
-        <v>438</v>
+        <v>548</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>498</v>
+        <v>549</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>499</v>
+        <v>550</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>500</v>
+        <v>551</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41758</v>
+        <v>41775</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>552</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>501</v>
+        <v>553</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>502</v>
+        <v>22</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41754</v>
+        <v>41775</v>
       </c>
       <c r="B109" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="E109" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41745</v>
+        <v>41774</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>281</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>476</v>
+        <v>559</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>477</v>
+        <v>560</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>478</v>
+        <v>561</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41744</v>
+        <v>41774</v>
       </c>
       <c r="B111" t="s">
-        <v>479</v>
+        <v>329</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>480</v>
+        <v>562</v>
       </c>
       <c r="E111" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>481</v>
+        <v>563</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>482</v>
+        <v>564</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41743</v>
+        <v>41773</v>
       </c>
       <c r="B112" t="s">
-        <v>483</v>
+        <v>565</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>484</v>
+        <v>566</v>
       </c>
       <c r="E112" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>485</v>
+        <v>11</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>486</v>
+        <v>567</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41743</v>
+        <v>41772</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>487</v>
+        <v>568</v>
       </c>
       <c r="E113" t="s">
         <v>18</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>19</v>
+        <v>569</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>488</v>
+        <v>570</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41743</v>
+        <v>41772</v>
       </c>
       <c r="B114" t="s">
-        <v>489</v>
+        <v>571</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>490</v>
+        <v>572</v>
       </c>
       <c r="E114" t="s">
-        <v>58</v>
+        <v>573</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>491</v>
+        <v>187</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>456</v>
+        <v>574</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41743</v>
+        <v>41772</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>575</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>492</v>
+        <v>576</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>557</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>491</v>
+        <v>239</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41740</v>
+        <v>41771</v>
       </c>
       <c r="B116" t="s">
-        <v>454</v>
+        <v>160</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>455</v>
+        <v>578</v>
       </c>
       <c r="E116" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>59</v>
+        <v>579</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>456</v>
+        <v>580</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41740</v>
+        <v>41771</v>
       </c>
       <c r="B117" t="s">
-        <v>457</v>
+        <v>160</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>458</v>
+        <v>581</v>
       </c>
       <c r="E117" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>62</v>
+        <v>582</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>459</v>
+        <v>583</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41740</v>
+        <v>41771</v>
       </c>
       <c r="B118" t="s">
-        <v>460</v>
+        <v>584</v>
       </c>
       <c r="C118" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>461</v>
+        <v>585</v>
       </c>
       <c r="E118" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>462</v>
+        <v>582</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>463</v>
+        <v>586</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41739</v>
+        <v>41771</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>464</v>
+        <v>587</v>
       </c>
       <c r="E119" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>465</v>
+        <v>582</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>466</v>
+        <v>583</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41739</v>
+        <v>41771</v>
       </c>
       <c r="B120" t="s">
         <v>167</v>
@@ -5510,366 +5817,366 @@
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>467</v>
+        <v>588</v>
       </c>
       <c r="E120" t="s">
         <v>169</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>468</v>
+        <v>586</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41739</v>
+        <v>41771</v>
       </c>
       <c r="B121" t="s">
-        <v>160</v>
+        <v>589</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>469</v>
+        <v>590</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>470</v>
+        <v>391</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>471</v>
+        <v>591</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41739</v>
+        <v>41771</v>
       </c>
       <c r="B122" t="s">
-        <v>472</v>
+        <v>39</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>473</v>
+        <v>592</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>573</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>474</v>
+        <v>593</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>475</v>
+        <v>594</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41738</v>
+        <v>41771</v>
       </c>
       <c r="B123" t="s">
-        <v>336</v>
+        <v>595</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>452</v>
+        <v>592</v>
       </c>
       <c r="E123" t="s">
-        <v>338</v>
+        <v>573</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>32</v>
+        <v>596</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>449</v>
+        <v>597</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41738</v>
+        <v>41771</v>
       </c>
       <c r="B124" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>453</v>
+        <v>598</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>450</v>
+        <v>569</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>451</v>
+        <v>599</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41737</v>
+        <v>41771</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>555</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>433</v>
+        <v>600</v>
       </c>
       <c r="E125" t="s">
-        <v>18</v>
+        <v>557</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>434</v>
+        <v>32</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>435</v>
+        <v>601</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41737</v>
+        <v>41771</v>
       </c>
       <c r="B126" t="s">
-        <v>406</v>
+        <v>555</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>436</v>
+        <v>602</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>557</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>327</v>
+        <v>32</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>437</v>
+        <v>603</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41736</v>
+        <v>41771</v>
       </c>
       <c r="B127" t="s">
-        <v>438</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>439</v>
+        <v>604</v>
       </c>
       <c r="E127" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>434</v>
+        <v>19</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>440</v>
+        <v>605</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41736</v>
+        <v>41771</v>
       </c>
       <c r="B128" t="s">
-        <v>441</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>442</v>
+        <v>606</v>
       </c>
       <c r="E128" t="s">
         <v>10</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>443</v>
+        <v>607</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>444</v>
+        <v>608</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41736</v>
+        <v>41768</v>
       </c>
       <c r="B129" t="s">
-        <v>445</v>
+        <v>609</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>446</v>
+        <v>610</v>
       </c>
       <c r="E129" t="s">
         <v>10</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>447</v>
+        <v>611</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>448</v>
+        <v>612</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41736</v>
+        <v>41768</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>417</v>
+        <v>613</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>418</v>
+        <v>569</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>419</v>
+        <v>614</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>41736</v>
+        <v>41766</v>
       </c>
       <c r="B131" t="s">
-        <v>329</v>
+        <v>555</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>420</v>
+        <v>615</v>
       </c>
       <c r="E131" t="s">
-        <v>18</v>
+        <v>557</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>331</v>
+        <v>32</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>421</v>
+        <v>616</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>41733</v>
+        <v>41766</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>438</v>
       </c>
       <c r="C132" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>422</v>
+        <v>617</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>557</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>423</v>
+        <v>618</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>424</v>
+        <v>619</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>41733</v>
+        <v>41765</v>
       </c>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>425</v>
+        <v>621</v>
       </c>
       <c r="E133" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>426</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>41732</v>
+        <v>41765</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>622</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>427</v>
+        <v>623</v>
       </c>
       <c r="E134" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>428</v>
+        <v>62</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>429</v>
+        <v>624</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41731</v>
+        <v>41765</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>625</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>430</v>
+        <v>626</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>431</v>
+        <v>627</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>432</v>
+        <v>628</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41731</v>
+        <v>41765</v>
       </c>
       <c r="B136" t="s">
         <v>16</v>
@@ -5878,2413 +6185,2413 @@
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>404</v>
+        <v>629</v>
       </c>
       <c r="E136" t="s">
         <v>18</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>405</v>
+        <v>631</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41731</v>
+        <v>41765</v>
       </c>
       <c r="B137" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>407</v>
+        <v>632</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>327</v>
+        <v>627</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>408</v>
+        <v>633</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41730</v>
+        <v>41761</v>
       </c>
       <c r="B138" t="s">
-        <v>409</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>410</v>
+        <v>634</v>
       </c>
       <c r="E138" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>411</v>
+        <v>127</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>412</v>
+        <v>71</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>41730</v>
+        <v>41761</v>
       </c>
       <c r="B139" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>413</v>
+        <v>635</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>32</v>
+        <v>636</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>414</v>
+        <v>637</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>41729</v>
+        <v>41759</v>
       </c>
       <c r="B140" t="s">
-        <v>209</v>
+        <v>504</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>415</v>
+        <v>505</v>
       </c>
       <c r="E140" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>40</v>
+        <v>506</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>416</v>
+        <v>507</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>41729</v>
+        <v>41758</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>438</v>
       </c>
       <c r="C141" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>371</v>
+        <v>498</v>
       </c>
       <c r="E141" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>372</v>
+        <v>499</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>373</v>
+        <v>500</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>41729</v>
+        <v>41758</v>
       </c>
       <c r="B142" t="s">
-        <v>374</v>
+        <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>375</v>
+        <v>501</v>
       </c>
       <c r="E142" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>59</v>
+        <v>502</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>376</v>
+        <v>503</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>41729</v>
+        <v>41754</v>
       </c>
       <c r="B143" t="s">
-        <v>377</v>
+        <v>494</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>378</v>
+        <v>495</v>
       </c>
       <c r="E143" t="s">
-        <v>58</v>
+        <v>496</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>379</v>
+        <v>497</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41729</v>
+        <v>41745</v>
       </c>
       <c r="B144" t="s">
-        <v>380</v>
+        <v>13</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>381</v>
+        <v>476</v>
       </c>
       <c r="E144" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>382</v>
+        <v>477</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>383</v>
+        <v>478</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41729</v>
+        <v>41744</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>479</v>
       </c>
       <c r="C145" t="s">
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>384</v>
+        <v>480</v>
       </c>
       <c r="E145" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>386</v>
+        <v>482</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>41729</v>
+        <v>41743</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>483</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>387</v>
+        <v>484</v>
       </c>
       <c r="E146" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>398</v>
+        <v>485</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>388</v>
+        <v>486</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>41729</v>
+        <v>41743</v>
       </c>
       <c r="B147" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>390</v>
+        <v>487</v>
       </c>
       <c r="E147" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>403</v>
+        <v>488</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>41729</v>
+        <v>41743</v>
       </c>
       <c r="B148" t="s">
-        <v>392</v>
+        <v>489</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>393</v>
+        <v>490</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>394</v>
+        <v>491</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>41729</v>
+        <v>41743</v>
       </c>
       <c r="B149" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="E149" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>37</v>
+        <v>491</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>401</v>
+        <v>493</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>41729</v>
+        <v>41740</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>454</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="E150" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>41729</v>
+        <v>41740</v>
       </c>
       <c r="B151" t="s">
-        <v>396</v>
+        <v>457</v>
       </c>
       <c r="C151" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>397</v>
+        <v>458</v>
       </c>
       <c r="E151" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>398</v>
+        <v>62</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>399</v>
+        <v>459</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>41729</v>
+        <v>41740</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>460</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>364</v>
+        <v>461</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>365</v>
+        <v>462</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>366</v>
+        <v>463</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>41729</v>
+        <v>41739</v>
       </c>
       <c r="B153" t="s">
-        <v>367</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>368</v>
+        <v>464</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>369</v>
+        <v>465</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>370</v>
+        <v>466</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>41725</v>
+        <v>41739</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C154" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>361</v>
+        <v>467</v>
       </c>
       <c r="E154" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>362</v>
+        <v>187</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>363</v>
+        <v>468</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>41725</v>
+        <v>41739</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>358</v>
+        <v>469</v>
       </c>
       <c r="E155" t="s">
         <v>10</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>359</v>
+        <v>470</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>360</v>
+        <v>471</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>41725</v>
+        <v>41739</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>472</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>349</v>
+        <v>473</v>
       </c>
       <c r="E156" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>350</v>
+        <v>474</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>351</v>
+        <v>475</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>41724</v>
+        <v>41738</v>
       </c>
       <c r="B157" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="E157" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>353</v>
+        <v>449</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>41724</v>
+        <v>41738</v>
       </c>
       <c r="B158" t="s">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>352</v>
+        <v>453</v>
       </c>
       <c r="E158" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>354</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>41724</v>
+        <v>41737</v>
       </c>
       <c r="B159" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
       <c r="E159" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>356</v>
+        <v>434</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>357</v>
+        <v>435</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>41724</v>
+        <v>41737</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>347</v>
+        <v>436</v>
       </c>
       <c r="E160" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>7</v>
+        <v>327</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>348</v>
+        <v>437</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>41722</v>
+        <v>41736</v>
       </c>
       <c r="B161" t="s">
-        <v>123</v>
+        <v>438</v>
       </c>
       <c r="C161" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>344</v>
+        <v>439</v>
       </c>
       <c r="E161" t="s">
-        <v>31</v>
+        <v>338</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>32</v>
+        <v>434</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>343</v>
+        <v>440</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>41722</v>
+        <v>41736</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>441</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>345</v>
+        <v>442</v>
       </c>
       <c r="E162" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>32</v>
+        <v>443</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>346</v>
+        <v>444</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>41719</v>
+        <v>41736</v>
       </c>
       <c r="B163" t="s">
-        <v>340</v>
+        <v>445</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>341</v>
+        <v>446</v>
       </c>
       <c r="E163" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>342</v>
+        <v>447</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>343</v>
+        <v>448</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>41718</v>
+        <v>41736</v>
       </c>
       <c r="B164" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
       <c r="E164" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>332</v>
+        <v>419</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>41718</v>
+        <v>41736</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>333</v>
+        <v>420</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>335</v>
+        <v>421</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>41718</v>
+        <v>41733</v>
       </c>
       <c r="B166" t="s">
-        <v>336</v>
+        <v>13</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>337</v>
+        <v>422</v>
       </c>
       <c r="E166" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>192</v>
+        <v>423</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>339</v>
+        <v>424</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>41717</v>
+        <v>41733</v>
       </c>
       <c r="B167" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C167" t="s">
         <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>270</v>
+        <v>425</v>
       </c>
       <c r="E167" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>271</v>
+        <v>426</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>41717</v>
+        <v>41732</v>
       </c>
       <c r="B168" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>270</v>
+        <v>427</v>
       </c>
       <c r="E168" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>40</v>
+        <v>428</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>272</v>
+        <v>429</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>41717</v>
+        <v>41731</v>
       </c>
       <c r="B169" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>273</v>
+        <v>430</v>
       </c>
       <c r="E169" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>181</v>
+        <v>431</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>274</v>
+        <v>432</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>41717</v>
+        <v>41731</v>
       </c>
       <c r="B170" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C170" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="E170" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>276</v>
+        <v>405</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>41717</v>
+        <v>41731</v>
       </c>
       <c r="B171" t="s">
-        <v>39</v>
+        <v>406</v>
       </c>
       <c r="C171" t="s">
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>275</v>
+        <v>407</v>
       </c>
       <c r="E171" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>277</v>
+        <v>408</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>41717</v>
+        <v>41730</v>
       </c>
       <c r="B172" t="s">
-        <v>42</v>
+        <v>409</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>278</v>
+        <v>410</v>
       </c>
       <c r="E172" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>279</v>
+        <v>411</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>280</v>
+        <v>412</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>41717</v>
+        <v>41730</v>
       </c>
       <c r="B173" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>282</v>
+        <v>413</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>284</v>
+        <v>414</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>41717</v>
+        <v>41729</v>
       </c>
       <c r="B174" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C174" t="s">
         <v>17</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>285</v>
+        <v>415</v>
       </c>
       <c r="E174" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>33</v>
+        <v>416</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>41716</v>
+        <v>41729</v>
       </c>
       <c r="B175" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="E175" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>32</v>
+        <v>372</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>288</v>
+        <v>373</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>41716</v>
+        <v>41729</v>
       </c>
       <c r="B176" t="s">
-        <v>286</v>
+        <v>374</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="E176" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>290</v>
+        <v>376</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>41716</v>
+        <v>41729</v>
       </c>
       <c r="B177" t="s">
-        <v>291</v>
+        <v>377</v>
       </c>
       <c r="C177" t="s">
         <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>292</v>
+        <v>378</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>293</v>
+        <v>62</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>33</v>
+        <v>379</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>41715</v>
+        <v>41729</v>
       </c>
       <c r="B178" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="C178" t="s">
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>294</v>
+        <v>381</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>295</v>
+        <v>382</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>296</v>
+        <v>383</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>41715</v>
+        <v>41729</v>
       </c>
       <c r="B179" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C179" t="s">
         <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>297</v>
+        <v>384</v>
       </c>
       <c r="E179" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>37</v>
+        <v>385</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>298</v>
+        <v>386</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>41715</v>
+        <v>41729</v>
       </c>
       <c r="B180" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="E180" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>40</v>
+        <v>398</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>41715</v>
+        <v>41729</v>
       </c>
       <c r="B181" t="s">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="E181" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>301</v>
+        <v>391</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>302</v>
+        <v>403</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>41715</v>
+        <v>41729</v>
       </c>
       <c r="B182" t="s">
-        <v>36</v>
+        <v>392</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>303</v>
+        <v>393</v>
       </c>
       <c r="E182" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>37</v>
+        <v>394</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>304</v>
+        <v>402</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>41715</v>
+        <v>41729</v>
       </c>
       <c r="B183" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C183" t="s">
         <v>1</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>303</v>
+        <v>395</v>
       </c>
       <c r="E183" t="s">
         <v>2</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>305</v>
+        <v>401</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>41715</v>
+        <v>41729</v>
       </c>
       <c r="B184" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C184" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="E184" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>308</v>
+        <v>400</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>41715</v>
+        <v>41729</v>
       </c>
       <c r="B185" t="s">
-        <v>309</v>
+        <v>396</v>
       </c>
       <c r="C185" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>310</v>
+        <v>397</v>
       </c>
       <c r="E185" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>175</v>
+        <v>398</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>311</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>41715</v>
+        <v>41729</v>
       </c>
       <c r="B186" t="s">
-        <v>312</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="E186" t="s">
         <v>10</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>41715</v>
+        <v>41729</v>
       </c>
       <c r="B187" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="C187" t="s">
         <v>1</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="E187" t="s">
         <v>10</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>41715</v>
+        <v>41725</v>
       </c>
       <c r="B188" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>41715</v>
+        <v>41725</v>
       </c>
       <c r="B189" t="s">
-        <v>322</v>
+        <v>13</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="E189" t="s">
         <v>10</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>41715</v>
+        <v>41725</v>
       </c>
       <c r="B190" t="s">
-        <v>325</v>
+        <v>16</v>
       </c>
       <c r="C190" t="s">
         <v>1</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>41712</v>
+        <v>41724</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C191" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="E191" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>41711</v>
+        <v>41724</v>
       </c>
       <c r="B192" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="E192" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>41709</v>
+        <v>41724</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C193" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>256</v>
+        <v>355</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>175</v>
+        <v>356</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>257</v>
+        <v>357</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>41708</v>
+        <v>41724</v>
       </c>
       <c r="B194" t="s">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>259</v>
+        <v>347</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>260</v>
+        <v>7</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>41708</v>
+        <v>41722</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>41708</v>
+        <v>41722</v>
       </c>
       <c r="B196" t="s">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="C196" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>247</v>
+        <v>345</v>
       </c>
       <c r="E196" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>248</v>
+        <v>346</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>41708</v>
+        <v>41719</v>
       </c>
       <c r="B197" t="s">
-        <v>249</v>
+        <v>340</v>
       </c>
       <c r="C197" t="s">
         <v>1</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="E197" t="s">
         <v>58</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>62</v>
+        <v>342</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>251</v>
+        <v>343</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>41708</v>
+        <v>41718</v>
       </c>
       <c r="B198" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
       <c r="C198" t="s">
         <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>253</v>
+        <v>330</v>
       </c>
       <c r="E198" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>254</v>
+        <v>331</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>255</v>
+        <v>332</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>41708</v>
+        <v>41718</v>
       </c>
       <c r="B199" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>241</v>
+        <v>333</v>
       </c>
       <c r="E199" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>32</v>
+        <v>334</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>41705</v>
+        <v>41718</v>
       </c>
       <c r="B200" t="s">
-        <v>243</v>
+        <v>336</v>
       </c>
       <c r="C200" t="s">
         <v>1</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="E200" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>245</v>
+        <v>339</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>41703</v>
+        <v>41717</v>
       </c>
       <c r="B201" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="E201" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>41703</v>
+        <v>41717</v>
       </c>
       <c r="B202" t="s">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="C202" t="s">
         <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>41703</v>
+        <v>41717</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C203" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>41703</v>
+        <v>41717</v>
       </c>
       <c r="B204" t="s">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="E204" t="s">
-        <v>238</v>
+        <v>2</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>41703</v>
+        <v>41717</v>
       </c>
       <c r="B205" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="E205" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>41698</v>
+        <v>41717</v>
       </c>
       <c r="B206" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="C206" t="s">
         <v>17</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="E206" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>41698</v>
+        <v>41717</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="C207" t="s">
         <v>1</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="E207" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>41698</v>
+        <v>41717</v>
       </c>
       <c r="B208" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="C208" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="E208" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>41697</v>
+        <v>41716</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="E209" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>41696</v>
+        <v>41716</v>
       </c>
       <c r="B210" t="s">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="E210" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>41696</v>
+        <v>41716</v>
       </c>
       <c r="B211" t="s">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
       <c r="E211" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>223</v>
+        <v>33</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>41696</v>
+        <v>41715</v>
       </c>
       <c r="B212" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="C212" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="E212" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>108</v>
+        <v>295</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>41690</v>
+        <v>41715</v>
       </c>
       <c r="B213" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C213" t="s">
         <v>1</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>196</v>
+        <v>297</v>
       </c>
       <c r="E213" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>41689</v>
+        <v>41715</v>
       </c>
       <c r="B214" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>199</v>
+        <v>297</v>
       </c>
       <c r="E214" t="s">
         <v>2</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>200</v>
+        <v>299</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>41689</v>
+        <v>41715</v>
       </c>
       <c r="B215" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C215" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>199</v>
+        <v>300</v>
       </c>
       <c r="E215" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>201</v>
+        <v>302</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>41689</v>
+        <v>41715</v>
       </c>
       <c r="B216" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C216" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="E216" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>203</v>
+        <v>304</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>41689</v>
+        <v>41715</v>
       </c>
       <c r="B217" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>205</v>
+        <v>303</v>
       </c>
       <c r="E217" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>198</v>
+        <v>305</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>41687</v>
+        <v>41715</v>
       </c>
       <c r="B218" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="C218" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c r="E218" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>176</v>
+        <v>308</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>41687</v>
+        <v>41715</v>
       </c>
       <c r="B219" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="C219" t="s">
         <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>177</v>
+        <v>310</v>
       </c>
       <c r="E219" t="s">
         <v>2</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>178</v>
+        <v>311</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>41687</v>
+        <v>41715</v>
       </c>
       <c r="B220" t="s">
-        <v>39</v>
+        <v>312</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>177</v>
+        <v>313</v>
       </c>
       <c r="E220" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>179</v>
+        <v>315</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>41687</v>
+        <v>41715</v>
       </c>
       <c r="B221" t="s">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="C221" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="E221" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>181</v>
+        <v>318</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>182</v>
+        <v>319</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>41687</v>
+        <v>41715</v>
       </c>
       <c r="B222" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C222" t="s">
         <v>1</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>183</v>
+        <v>317</v>
       </c>
       <c r="E222" t="s">
         <v>10</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>184</v>
+        <v>320</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>185</v>
+        <v>321</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>41687</v>
+        <v>41715</v>
       </c>
       <c r="B223" t="s">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="C223" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>186</v>
+        <v>317</v>
       </c>
       <c r="E223" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>187</v>
+        <v>323</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>188</v>
+        <v>324</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>41684</v>
+        <v>41715</v>
       </c>
       <c r="B224" t="s">
-        <v>189</v>
+        <v>325</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>190</v>
+        <v>326</v>
       </c>
       <c r="E224" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>192</v>
+        <v>327</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>41684</v>
+        <v>41712</v>
       </c>
       <c r="B225" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C225" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="E225" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>41682</v>
+        <v>41711</v>
       </c>
       <c r="B226" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C226" t="s">
         <v>1</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="E226" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>41682</v>
+        <v>41709</v>
       </c>
       <c r="B227" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="C227" t="s">
         <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="E227" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>41682</v>
+        <v>41708</v>
       </c>
       <c r="B228" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="C228" t="s">
         <v>1</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="E228" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>153</v>
+        <v>261</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>41682</v>
+        <v>41708</v>
       </c>
       <c r="B229" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>154</v>
+        <v>262</v>
       </c>
       <c r="E229" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>156</v>
+        <v>264</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>41681</v>
+        <v>41708</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="C230" t="s">
         <v>1</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>41681</v>
+        <v>41708</v>
       </c>
       <c r="B231" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="C231" t="s">
         <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>163</v>
+        <v>251</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>41681</v>
+        <v>41708</v>
       </c>
       <c r="B232" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="C232" t="s">
         <v>1</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>166</v>
+        <v>255</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>41681</v>
+        <v>41708</v>
       </c>
       <c r="B233" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="E233" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>112</v>
+        <v>242</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>41680</v>
+        <v>41705</v>
       </c>
       <c r="B234" t="s">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="C234" t="s">
         <v>1</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="E234" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>172</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>41680</v>
+        <v>41703</v>
       </c>
       <c r="B235" t="s">
         <v>16</v>
       </c>
       <c r="C235" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="E235" t="s">
         <v>18</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>143</v>
+        <v>228</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>41677</v>
+        <v>41703</v>
       </c>
       <c r="B236" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="C236" t="s">
         <v>1</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>111</v>
+        <v>230</v>
       </c>
       <c r="E236" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>41677</v>
+        <v>41703</v>
       </c>
       <c r="B237" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="E237" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>115</v>
+        <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>41677</v>
+        <v>41703</v>
       </c>
       <c r="B238" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="C238" t="s">
         <v>1</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>41676</v>
+        <v>41703</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="C239" t="s">
         <v>1</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="E239" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>41676</v>
+        <v>41698</v>
       </c>
       <c r="B240" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="C240" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="E240" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>41676</v>
+        <v>41698</v>
       </c>
       <c r="B241" t="s">
         <v>16</v>
@@ -8293,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="E241" t="s">
         <v>18</v>
@@ -8302,811 +8609,1593 @@
         <v>127</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>41676</v>
+        <v>41698</v>
       </c>
       <c r="B242" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="C242" t="s">
         <v>1</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="E242" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>41676</v>
+        <v>41697</v>
       </c>
       <c r="B243" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="C243" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="E243" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>41675</v>
+        <v>41696</v>
       </c>
       <c r="B244" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C244" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="E244" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>137</v>
+        <v>222</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>41674</v>
+        <v>41696</v>
       </c>
       <c r="B245" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C245" t="s">
         <v>1</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="E245" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>41674</v>
+        <v>41696</v>
       </c>
       <c r="B246" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C246" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="E246" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>105</v>
+        <v>225</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>41674</v>
+        <v>41690</v>
       </c>
       <c r="B247" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C247" t="s">
         <v>1</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="E247" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>41674</v>
+        <v>41689</v>
       </c>
       <c r="B248" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C248" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="E248" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>41670</v>
+        <v>41689</v>
       </c>
       <c r="B249" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C249" t="s">
         <v>1</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="E249" t="s">
         <v>2</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>41670</v>
+        <v>41689</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C250" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="E250" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>41663</v>
+        <v>41689</v>
       </c>
       <c r="B251" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="C251" t="s">
         <v>1</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="E251" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>41662</v>
+        <v>41687</v>
       </c>
       <c r="B252" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="C252" t="s">
         <v>1</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="E252" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>41661</v>
+        <v>41687</v>
       </c>
       <c r="B253" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C253" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="E253" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>41656</v>
+        <v>41687</v>
       </c>
       <c r="B254" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C254" t="s">
         <v>1</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="E254" t="s">
         <v>2</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>41655</v>
+        <v>41687</v>
       </c>
       <c r="B255" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C255" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="E255" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>41655</v>
+        <v>41687</v>
       </c>
       <c r="B256" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C256" t="s">
         <v>1</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="E256" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>41655</v>
+        <v>41687</v>
       </c>
       <c r="B257" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C257" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="E257" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="B258" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="C258" t="s">
         <v>1</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="E258" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>35</v>
+        <v>193</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="B259" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C259" t="s">
         <v>1</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="E259" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>41653</v>
+        <v>41682</v>
       </c>
       <c r="B260" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="C260" t="s">
         <v>1</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="E260" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>41653</v>
+        <v>41682</v>
       </c>
       <c r="B261" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="C261" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="E261" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>41652</v>
+        <v>41682</v>
       </c>
       <c r="B262" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C262" t="s">
         <v>1</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="E262" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>41652</v>
+        <v>41682</v>
       </c>
       <c r="B263" t="s">
         <v>16</v>
       </c>
       <c r="C263" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="E263" t="s">
         <v>18</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>41652</v>
+        <v>41681</v>
       </c>
       <c r="B264" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C264" t="s">
         <v>1</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="E264" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>41652</v>
+        <v>41681</v>
       </c>
       <c r="B265" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="C265" t="s">
         <v>1</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="E265" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>41652</v>
+        <v>41681</v>
       </c>
       <c r="B266" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C266" t="s">
         <v>1</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="E266" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>41652</v>
+        <v>41681</v>
       </c>
       <c r="B267" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="C267" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="E267" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>41652</v>
+        <v>41680</v>
       </c>
       <c r="B268" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C268" t="s">
         <v>1</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="E268" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>41649</v>
+        <v>41680</v>
       </c>
       <c r="B269" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C269" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="E269" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>41649</v>
+        <v>41677</v>
       </c>
       <c r="B270" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="C270" t="s">
         <v>1</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E270" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>41649</v>
+        <v>41677</v>
       </c>
       <c r="B271" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C271" t="s">
         <v>1</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="E271" t="s">
         <v>58</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>41649</v>
+        <v>41677</v>
       </c>
       <c r="B272" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C272" t="s">
         <v>1</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="E272" t="s">
         <v>58</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>41649</v>
+        <v>41676</v>
       </c>
       <c r="B273" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C273" t="s">
         <v>1</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="E273" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>41649</v>
+        <v>41676</v>
       </c>
       <c r="B274" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C274" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E274" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>41648</v>
+        <v>41676</v>
       </c>
       <c r="B275" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C275" t="s">
         <v>1</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E275" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>41648</v>
+        <v>41676</v>
       </c>
       <c r="B276" t="s">
         <v>16</v>
       </c>
       <c r="C276" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="E276" t="s">
         <v>18</v>
       </c>
       <c r="F276" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B277" t="s">
+        <v>132</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E277" t="s">
+        <v>2</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>41675</v>
+      </c>
+      <c r="B278" t="s">
+        <v>16</v>
+      </c>
+      <c r="C278" t="s">
+        <v>17</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E278" t="s">
+        <v>18</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B279" t="s">
+        <v>138</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E279" t="s">
+        <v>140</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B280" t="s">
+        <v>36</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E280" t="s">
+        <v>2</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B281" t="s">
+        <v>39</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E281" t="s">
+        <v>2</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B282" t="s">
+        <v>42</v>
+      </c>
+      <c r="C282" t="s">
+        <v>17</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E282" t="s">
+        <v>43</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B283" t="s">
+        <v>0</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E283" t="s">
+        <v>2</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E284" t="s">
+        <v>6</v>
+      </c>
+      <c r="F284" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G276" s="3" t="s">
+      <c r="G284" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>41663</v>
+      </c>
+      <c r="B285" t="s">
+        <v>9</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E285" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>41662</v>
+      </c>
+      <c r="B286" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E286" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B287" t="s">
+        <v>16</v>
+      </c>
+      <c r="C287" t="s">
+        <v>17</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E287" t="s">
+        <v>18</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B288" t="s">
+        <v>21</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E288" t="s">
+        <v>2</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B289" t="s">
+        <v>24</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E289" t="s">
+        <v>2</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B290" t="s">
+        <v>27</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E290" t="s">
+        <v>2</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B291" t="s">
+        <v>30</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E291" t="s">
+        <v>31</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B292" t="s">
+        <v>34</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E292" t="s">
+        <v>18</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B293" t="s">
+        <v>36</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E293" t="s">
+        <v>2</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B294" t="s">
+        <v>39</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E294" t="s">
+        <v>2</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B295" t="s">
+        <v>42</v>
+      </c>
+      <c r="C295" t="s">
+        <v>17</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E295" t="s">
+        <v>43</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B296" t="s">
+        <v>13</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E296" t="s">
+        <v>10</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B297" t="s">
+        <v>16</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E297" t="s">
+        <v>18</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B298" t="s">
+        <v>49</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E298" t="s">
+        <v>31</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B299" t="s">
+        <v>36</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E299" t="s">
+        <v>2</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B300" t="s">
+        <v>39</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E300" t="s">
+        <v>2</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B301" t="s">
+        <v>42</v>
+      </c>
+      <c r="C301" t="s">
+        <v>17</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E301" t="s">
+        <v>43</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B302" t="s">
+        <v>16</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E302" t="s">
+        <v>18</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B303" t="s">
+        <v>52</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E303" t="s">
+        <v>2</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B304" t="s">
+        <v>39</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E304" t="s">
+        <v>2</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B305" t="s">
+        <v>57</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E305" t="s">
+        <v>58</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B306" t="s">
+        <v>61</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E306" t="s">
+        <v>58</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G306" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B307" t="s">
+        <v>64</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E307" t="s">
+        <v>58</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B308" t="s">
+        <v>16</v>
+      </c>
+      <c r="C308" t="s">
+        <v>17</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E308" t="s">
+        <v>18</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B309" t="s">
+        <v>69</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E309" t="s">
+        <v>2</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B310" t="s">
+        <v>16</v>
+      </c>
+      <c r="C310" t="s">
+        <v>17</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E310" t="s">
+        <v>18</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G310" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/docs/backup/cuenta_3940694600.xlsx
+++ b/docs/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="902">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -2646,6 +2646,90 @@
   </si>
   <si>
     <t>258.89</t>
+  </si>
+  <si>
+    <t>0005120041</t>
+  </si>
+  <si>
+    <t>437.18</t>
+  </si>
+  <si>
+    <t>0000356350</t>
+  </si>
+  <si>
+    <t>457.18</t>
+  </si>
+  <si>
+    <t>0009473778</t>
+  </si>
+  <si>
+    <t>500.00  </t>
+  </si>
+  <si>
+    <t>477.18</t>
+  </si>
+  <si>
+    <t>0009443395</t>
+  </si>
+  <si>
+    <t>977.18</t>
+  </si>
+  <si>
+    <t>0009437405</t>
+  </si>
+  <si>
+    <t>90.00  </t>
+  </si>
+  <si>
+    <t>0005535594</t>
+  </si>
+  <si>
+    <t>0000725930</t>
+  </si>
+  <si>
+    <t>0007417542</t>
+  </si>
+  <si>
+    <t>0007417511</t>
+  </si>
+  <si>
+    <t>0003442111</t>
+  </si>
+  <si>
+    <t>31.48</t>
+  </si>
+  <si>
+    <t>0010519413</t>
+  </si>
+  <si>
+    <t>31.45</t>
+  </si>
+  <si>
+    <t>0001323820</t>
+  </si>
+  <si>
+    <t>51.45</t>
+  </si>
+  <si>
+    <t>1177.48</t>
+  </si>
+  <si>
+    <t>1177.45</t>
+  </si>
+  <si>
+    <t>1146.00  </t>
+  </si>
+  <si>
+    <t>1177.18</t>
+  </si>
+  <si>
+    <t>1167.18</t>
+  </si>
+  <si>
+    <t>1157.18</t>
+  </si>
+  <si>
+    <t>1247.18</t>
   </si>
 </sst>
 </file>
@@ -2968,10 +3052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H310"/>
+  <dimension ref="A1:H323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H1:H22"/>
+      <selection activeCell="H1" sqref="H1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2983,313 +3067,313 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41904</v>
+        <v>41918</v>
       </c>
       <c r="B1" t="s">
-        <v>817</v>
+        <v>409</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>818</v>
+        <v>874</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>338</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>819</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>820</v>
+        <v>875</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H21" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-22'), 'mo_concepto' =&gt; '14857317-MASTERCARD-RA-518114000072', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0015880806', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 464.43  , 'mo_saldo' =&gt; 81.45, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H13" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-06'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/KENNEDY 2', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005120041', 'mo_oficina' =&gt; 'KENNEDY', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 437.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41904</v>
+        <v>41918</v>
       </c>
       <c r="B2" t="s">
-        <v>821</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>822</v>
+        <v>876</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>823</v>
+        <v>877</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-22'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/EL GIRON-4', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0012202716', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 100.00  , 'mo_saldo' =&gt; 545.88, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-06'), 'mo_concepto' =&gt; 'DB AH PROGRAMADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000356350', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 457.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41904</v>
+        <v>41915</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>824</v>
+        <v>878</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>825</v>
+        <v>879</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>826</v>
+        <v>880</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-22'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007896467', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 80.02  , 'mo_saldo' =&gt; 645.88, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009473778', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 500.00  , 'mo_saldo' =&gt; 477.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41901</v>
+        <v>41915</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>827</v>
+        <v>881</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>828</v>
+        <v>127</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>829</v>
+        <v>882</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-19'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0001007516', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 317.00  , 'mo_saldo' =&gt; 565.86, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009443395', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 270.00  , 'mo_saldo' =&gt; 977.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41899</v>
+        <v>41915</v>
       </c>
       <c r="B5" t="s">
-        <v>830</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>831</v>
+        <v>883</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>884</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>832</v>
+        <v>901</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-17'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/EL GIRON-5', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004856982', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 10.00  , 'mo_saldo' =&gt; 248.86, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0009437405', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 90.00  , 'mo_saldo' =&gt; 1247.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41899</v>
+        <v>41915</v>
       </c>
       <c r="B6" t="s">
-        <v>833</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>834</v>
+        <v>885</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>835</v>
+        <v>900</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-17'), 'mo_concepto' =&gt; '14662823-COSTO IVA CASH-EQ-12430000', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000717009', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.04  , 'mo_saldo' =&gt; 258.86, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-03'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005535594', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 10.00  , 'mo_saldo' =&gt; 1157.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41899</v>
+        <v>41915</v>
       </c>
       <c r="B7" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>837</v>
+        <v>886</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>838</v>
+        <v>899</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-17'), 'mo_concepto' =&gt; '14662823-COSTO OPER CASH-EQ-12430000', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000717001', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.31  , 'mo_saldo' =&gt; 258.90, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-03'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/EL GIRON-4', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000725930', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 10.00  , 'mo_saldo' =&gt; 1167.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41899</v>
+        <v>41914</v>
       </c>
       <c r="B8" t="s">
-        <v>839</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>840</v>
+        <v>887</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>841</v>
+        <v>37</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>842</v>
+        <v>898</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-17'), 'mo_concepto' =&gt; '14662823-E E Q-EQ-12430000', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000716983', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 41.99  , 'mo_saldo' =&gt; 259.21, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-02'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007417542', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 1177.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41898</v>
+        <v>41914</v>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>843</v>
+        <v>887</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>563</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>844</v>
+        <v>896</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-16'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002966963', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 6.00  , 'mo_saldo' =&gt; 301.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-02'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007417542', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 1177.45, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41897</v>
+        <v>41914</v>
       </c>
       <c r="B10" t="s">
-        <v>821</v>
+        <v>854</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>845</v>
+        <v>888</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>7</v>
+        <v>897</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>846</v>
+        <v>895</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-15'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/EL GIRON-4', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0011783020', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 10.00  , 'mo_saldo' =&gt; 307.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-02'), 'mo_concepto' =&gt; '01-SPI-ROJAS CEVALLOS OSWALDO RAM', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007417511', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 1146.00  , 'mo_saldo' =&gt; 1177.48, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41897</v>
+        <v>41912</v>
       </c>
       <c r="B11" t="s">
-        <v>565</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>847</v>
+        <v>889</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>848</v>
+        <v>890</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-15'), 'mo_concepto' =&gt; 'CONSUMO VISA NA MI GASOLINERA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004844621', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 15.26  , 'mo_saldo' =&gt; 317.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0003442111', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 31.48, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41890</v>
+        <v>41911</v>
       </c>
       <c r="B12" t="s">
-        <v>821</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>849</v>
+        <v>891</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -3298,792 +3382,756 @@
         <v>32</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>850</v>
+        <v>892</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-08'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/EL GIRON-4', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010847874', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 332.46, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-29'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010519413', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 31.45, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41890</v>
+        <v>41911</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>851</v>
+        <v>893</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>852</v>
+        <v>894</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-08'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008211915', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 352.46, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-29'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/INCA-3', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001323820', 'mo_oficina' =&gt; 'EL INCA', 'mo_monto' =&gt; 30.00  , 'mo_saldo' =&gt; 51.45, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41890</v>
+        <v>41904</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>817</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>851</v>
+        <v>818</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>40</v>
+        <v>819</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-08'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008211915', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 352.73, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>820</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41890</v>
+        <v>41904</v>
       </c>
       <c r="B15" t="s">
-        <v>854</v>
+        <v>821</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>522</v>
+        <v>19</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-08'), 'mo_concepto' =&gt; '01-SPI-ROJAS CEVALLOS OSWALDO RAM', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0008211882', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 300.00  , 'mo_saldo' =&gt; 352.76, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>823</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>41904</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>41901</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>41899</v>
+      </c>
+      <c r="B18" t="s">
+        <v>830</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>41899</v>
+      </c>
+      <c r="B19" t="s">
+        <v>833</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>41899</v>
+      </c>
+      <c r="B20" t="s">
+        <v>836</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>41899</v>
+      </c>
+      <c r="B21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>41898</v>
+      </c>
+      <c r="B22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>41897</v>
+      </c>
+      <c r="B23" t="s">
+        <v>821</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>41897</v>
+      </c>
+      <c r="B24" t="s">
+        <v>565</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>41890</v>
       </c>
-      <c r="B16" t="s">
-        <v>857</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-08'), 'mo_concepto' =&gt; 'CONSUMO VISA NA EST. DE SERVICIO SU E', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001942511', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 10.26  , 'mo_saldo' =&gt; 52.76, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B25" t="s">
+        <v>821</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>41890</v>
       </c>
-      <c r="B17" t="s">
-        <v>472</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-08'), 'mo_concepto' =&gt; 'CONSUMO DATA MEGAKYWI-E. ALFARO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001770152', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 29.72  , 'mo_saldo' =&gt; 63.02, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>41886</v>
-      </c>
-      <c r="B18" t="s">
-        <v>668</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="E18" t="s">
-        <v>338</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-04'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/KENNEDY 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008660577', 'mo_oficina' =&gt; 'KENNEDY', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 92.74, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>41886</v>
-      </c>
-      <c r="B19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="E19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-04'), 'mo_concepto' =&gt; 'DB AH PROGRAMADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000143471', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 112.74, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>41885</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-03'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 2', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008216381', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 50.00  , 'mo_saldo' =&gt; 132.74, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>41885</v>
-      </c>
-      <c r="B21" t="s">
-        <v>869</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="E26" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-03'), 'mo_concepto' =&gt; '14672050-MEGADATOS S.A -CB-1500583339', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0006202388', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 76.15  , 'mo_saldo' =&gt; 182.74, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>41885</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="H22" t="str">
-        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A22,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B22,"', 'mo_tipo' =&gt; '",C22,"', 'mo_documento' =&gt; '",D22,"', 'mo_oficina' =&gt; '",E22,"', 'mo_monto' =&gt; ",F22,", 'mo_saldo' =&gt; ",G22,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-03'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/EL GIRON-3', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004632024', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 258.89, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>41884</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>41883</v>
-      </c>
-      <c r="B24" t="s">
-        <v>814</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>41883</v>
-      </c>
-      <c r="B25" t="s">
-        <v>785</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>41883</v>
-      </c>
-      <c r="B26" t="s">
-        <v>788</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="E26" t="s">
-        <v>58</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41883</v>
+        <v>41890</v>
       </c>
       <c r="B27" t="s">
-        <v>791</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>792</v>
+        <v>851</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>793</v>
+        <v>40</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41883</v>
+        <v>41890</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>854</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>795</v>
+        <v>855</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>796</v>
+        <v>522</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41878</v>
+        <v>41890</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>857</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>798</v>
+        <v>858</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>41890</v>
+      </c>
+      <c r="B30" t="s">
+        <v>472</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>41886</v>
+      </c>
+      <c r="B31" t="s">
+        <v>668</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="E31" t="s">
+        <v>338</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>41878</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="E30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="G31" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>41886</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>41873</v>
-      </c>
-      <c r="B31" t="s">
-        <v>802</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E31" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>41873</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>806</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>807</v>
+        <v>866</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41873</v>
+        <v>41885</v>
       </c>
       <c r="B33" t="s">
-        <v>438</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>808</v>
+        <v>867</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>809</v>
+        <v>868</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41873</v>
+        <v>41885</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>869</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>810</v>
+        <v>870</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>811</v>
+        <v>871</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41870</v>
+        <v>41885</v>
       </c>
       <c r="B35" t="s">
-        <v>757</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>758</v>
+        <v>872</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>759</v>
+        <v>873</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41870</v>
+        <v>41884</v>
       </c>
       <c r="B36" t="s">
-        <v>760</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>761</v>
+        <v>812</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>762</v>
+        <v>813</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41870</v>
+        <v>41883</v>
       </c>
       <c r="B37" t="s">
-        <v>763</v>
+        <v>814</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>764</v>
+        <v>815</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>765</v>
+        <v>563</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>766</v>
+        <v>816</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41870</v>
+        <v>41883</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>785</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41869</v>
+        <v>41883</v>
       </c>
       <c r="B39" t="s">
-        <v>565</v>
+        <v>788</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>769</v>
+        <v>789</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>311</v>
+        <v>790</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41869</v>
+        <v>41883</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>791</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>770</v>
+        <v>792</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41869</v>
+        <v>41883</v>
       </c>
       <c r="B41" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
       <c r="E41" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>32</v>
+        <v>796</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>774</v>
+        <v>797</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41865</v>
+        <v>41878</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>775</v>
+        <v>798</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>776</v>
+        <v>32</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41865</v>
+        <v>41878</v>
       </c>
       <c r="B43" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="E43" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>779</v>
+        <v>801</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41864</v>
+        <v>41873</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>802</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>780</v>
+        <v>803</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>711</v>
+        <v>804</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>637</v>
+        <v>799</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41862</v>
+        <v>41873</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -4092,389 +4140,389 @@
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>19</v>
+        <v>806</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>782</v>
+        <v>807</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41855</v>
+        <v>41873</v>
       </c>
       <c r="B46" t="s">
-        <v>783</v>
+        <v>438</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>784</v>
+        <v>808</v>
       </c>
       <c r="E46" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>71</v>
+        <v>809</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41855</v>
+        <v>41873</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>752</v>
+        <v>810</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>753</v>
+        <v>206</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>754</v>
+        <v>811</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41855</v>
+        <v>41870</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>757</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>385</v>
+        <v>59</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41830</v>
+        <v>41870</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>760</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>723</v>
+        <v>761</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>724</v>
+        <v>62</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>71</v>
+        <v>762</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41827</v>
+        <v>41870</v>
       </c>
       <c r="B50" t="s">
-        <v>725</v>
+        <v>763</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>726</v>
+        <v>764</v>
       </c>
       <c r="E50" t="s">
         <v>58</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>59</v>
+        <v>765</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>727</v>
+        <v>766</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41827</v>
+        <v>41870</v>
       </c>
       <c r="B51" t="s">
-        <v>728</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>729</v>
+        <v>767</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>730</v>
+        <v>768</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41827</v>
+        <v>41869</v>
       </c>
       <c r="B52" t="s">
-        <v>731</v>
+        <v>565</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>732</v>
+        <v>769</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>733</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41827</v>
+        <v>41869</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>734</v>
+        <v>770</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>32</v>
+        <v>771</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>735</v>
+        <v>772</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41827</v>
+        <v>41869</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>336</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>736</v>
+        <v>773</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>737</v>
+        <v>32</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>738</v>
+        <v>774</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41827</v>
+        <v>41865</v>
       </c>
       <c r="B55" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>739</v>
+        <v>775</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>569</v>
+        <v>776</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>740</v>
+        <v>777</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41827</v>
+        <v>41865</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>336</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>741</v>
+        <v>778</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>742</v>
+        <v>779</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41827</v>
+        <v>41864</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>743</v>
+        <v>780</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>744</v>
+        <v>711</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>745</v>
+        <v>637</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41824</v>
+        <v>41862</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>746</v>
+        <v>781</v>
       </c>
       <c r="E58" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>747</v>
+        <v>782</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41823</v>
+        <v>41855</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>783</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>748</v>
+        <v>784</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>749</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41823</v>
+        <v>41855</v>
       </c>
       <c r="B60" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E60" t="s">
         <v>18</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>569</v>
+        <v>753</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41823</v>
+        <v>41855</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>700</v>
+        <v>755</v>
       </c>
       <c r="E61" t="s">
         <v>18</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>701</v>
+        <v>385</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>702</v>
+        <v>756</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41823</v>
+        <v>41830</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
@@ -4483,274 +4531,274 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>703</v>
+        <v>723</v>
       </c>
       <c r="E62" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>705</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41823</v>
+        <v>41827</v>
       </c>
       <c r="B63" t="s">
-        <v>438</v>
+        <v>725</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>706</v>
+        <v>726</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>721</v>
+        <v>59</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41822</v>
+        <v>41827</v>
       </c>
       <c r="B64" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="E64" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41822</v>
+        <v>41827</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>731</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>711</v>
+        <v>382</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41816</v>
+        <v>41827</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>714</v>
+        <v>32</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>71</v>
+        <v>735</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41815</v>
+        <v>41827</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="E67" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>37</v>
+        <v>737</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41815</v>
+        <v>41827</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>329</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
       <c r="E68" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>40</v>
+        <v>569</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>717</v>
+        <v>740</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41815</v>
+        <v>41827</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>719</v>
+        <v>192</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41806</v>
+        <v>41827</v>
       </c>
       <c r="B70" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="E70" t="s">
         <v>18</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>569</v>
+        <v>744</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>695</v>
+        <v>745</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41800</v>
+        <v>41824</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>696</v>
+        <v>746</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>697</v>
+        <v>747</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41799</v>
+        <v>41823</v>
       </c>
       <c r="B72" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>698</v>
+        <v>748</v>
       </c>
       <c r="E72" t="s">
         <v>18</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>569</v>
+        <v>127</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>699</v>
+        <v>749</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41794</v>
+        <v>41823</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>329</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>692</v>
+        <v>750</v>
       </c>
       <c r="E73" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>32</v>
+        <v>569</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>693</v>
+        <v>751</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41793</v>
+        <v>41823</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
@@ -4759,1148 +4807,1148 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>671</v>
+        <v>700</v>
       </c>
       <c r="E74" t="s">
         <v>18</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>672</v>
+        <v>701</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>673</v>
+        <v>702</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41793</v>
+        <v>41823</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>674</v>
+        <v>703</v>
       </c>
       <c r="E75" t="s">
         <v>18</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>675</v>
+        <v>704</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>676</v>
+        <v>705</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41793</v>
+        <v>41823</v>
       </c>
       <c r="B76" t="s">
-        <v>677</v>
+        <v>438</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>59</v>
+        <v>721</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>679</v>
+        <v>722</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41793</v>
+        <v>41822</v>
       </c>
       <c r="B77" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41793</v>
+        <v>41822</v>
       </c>
       <c r="B78" t="s">
-        <v>683</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="E78" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41793</v>
+        <v>41816</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="E79" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>67</v>
+        <v>714</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>688</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41793</v>
+        <v>41815</v>
       </c>
       <c r="B80" t="s">
-        <v>689</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>690</v>
+        <v>715</v>
       </c>
       <c r="E80" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>691</v>
+        <v>716</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41792</v>
+        <v>41815</v>
       </c>
       <c r="B81" t="s">
-        <v>664</v>
+        <v>39</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>665</v>
+        <v>715</v>
       </c>
       <c r="E81" t="s">
         <v>2</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>666</v>
+        <v>40</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>667</v>
+        <v>717</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41792</v>
+        <v>41815</v>
       </c>
       <c r="B82" t="s">
-        <v>668</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>669</v>
+        <v>718</v>
       </c>
       <c r="E82" t="s">
-        <v>338</v>
+        <v>43</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>206</v>
+        <v>719</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>670</v>
+        <v>720</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41792</v>
+        <v>41806</v>
       </c>
       <c r="B83" t="s">
-        <v>657</v>
+        <v>329</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>658</v>
+        <v>694</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>32</v>
+        <v>569</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>659</v>
+        <v>695</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41789</v>
+        <v>41800</v>
       </c>
       <c r="B84" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>660</v>
+        <v>696</v>
       </c>
       <c r="E84" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>661</v>
+        <v>697</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41789</v>
+        <v>41799</v>
       </c>
       <c r="B85" t="s">
-        <v>123</v>
+        <v>329</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>662</v>
+        <v>698</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>32</v>
+        <v>569</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>663</v>
+        <v>699</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41789</v>
+        <v>41794</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>655</v>
+        <v>692</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>569</v>
+        <v>32</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>656</v>
+        <v>693</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B87" t="s">
-        <v>643</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>645</v>
+        <v>672</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>646</v>
+        <v>673</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B88" t="s">
-        <v>647</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>648</v>
+        <v>674</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>649</v>
+        <v>675</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>650</v>
+        <v>676</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B89" t="s">
-        <v>329</v>
+        <v>677</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>569</v>
+        <v>59</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B90" t="s">
-        <v>438</v>
+        <v>680</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>434</v>
+        <v>62</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41785</v>
+        <v>41793</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>683</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>638</v>
+        <v>684</v>
       </c>
       <c r="E91" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>639</v>
+        <v>685</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>71</v>
+        <v>686</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41785</v>
+        <v>41793</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>640</v>
+        <v>687</v>
       </c>
       <c r="E92" t="s">
         <v>18</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>641</v>
+        <v>67</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>642</v>
+        <v>688</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41782</v>
+        <v>41793</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>689</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>508</v>
+        <v>690</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>509</v>
+        <v>691</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41781</v>
+        <v>41792</v>
       </c>
       <c r="B94" t="s">
-        <v>510</v>
+        <v>664</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>511</v>
+        <v>665</v>
       </c>
       <c r="E94" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>512</v>
+        <v>666</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>513</v>
+        <v>667</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41781</v>
+        <v>41792</v>
       </c>
       <c r="B95" t="s">
-        <v>514</v>
+        <v>668</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>515</v>
+        <v>669</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>516</v>
+        <v>206</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>517</v>
+        <v>670</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41781</v>
+        <v>41792</v>
       </c>
       <c r="B96" t="s">
-        <v>518</v>
+        <v>657</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>519</v>
+        <v>658</v>
       </c>
       <c r="E96" t="s">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>520</v>
+        <v>659</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41781</v>
+        <v>41789</v>
       </c>
       <c r="B97" t="s">
-        <v>438</v>
+        <v>209</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>521</v>
+        <v>660</v>
       </c>
       <c r="E97" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>522</v>
+        <v>40</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>523</v>
+        <v>661</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41780</v>
+        <v>41789</v>
       </c>
       <c r="B98" t="s">
-        <v>524</v>
+        <v>123</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>525</v>
+        <v>662</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>526</v>
+        <v>32</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>527</v>
+        <v>663</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41780</v>
+        <v>41789</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>525</v>
+        <v>655</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>320</v>
+        <v>569</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>528</v>
+        <v>656</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41780</v>
+        <v>41788</v>
       </c>
       <c r="B100" t="s">
-        <v>322</v>
+        <v>643</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>525</v>
+        <v>644</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>323</v>
+        <v>645</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41780</v>
+        <v>41788</v>
       </c>
       <c r="B101" t="s">
-        <v>167</v>
+        <v>647</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>530</v>
+        <v>648</v>
       </c>
       <c r="E101" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>239</v>
+        <v>649</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>531</v>
+        <v>650</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41779</v>
+        <v>41788</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>532</v>
+        <v>651</v>
       </c>
       <c r="E102" t="s">
         <v>18</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>534</v>
+        <v>652</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41779</v>
+        <v>41788</v>
       </c>
       <c r="B103" t="s">
-        <v>535</v>
+        <v>438</v>
       </c>
       <c r="C103" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>536</v>
+        <v>653</v>
       </c>
       <c r="E103" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>59</v>
+        <v>434</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>537</v>
+        <v>654</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41779</v>
+        <v>41785</v>
       </c>
       <c r="B104" t="s">
-        <v>538</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>539</v>
+        <v>638</v>
       </c>
       <c r="E104" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>62</v>
+        <v>639</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>540</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41779</v>
+        <v>41785</v>
       </c>
       <c r="B105" t="s">
-        <v>541</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>542</v>
+        <v>640</v>
       </c>
       <c r="E105" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>543</v>
+        <v>641</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>544</v>
+        <v>642</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41778</v>
+        <v>41782</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>545</v>
+        <v>508</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>546</v>
+        <v>32</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41775</v>
+        <v>41781</v>
       </c>
       <c r="B107" t="s">
-        <v>548</v>
+        <v>510</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="E107" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>551</v>
+        <v>513</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41775</v>
+        <v>41781</v>
       </c>
       <c r="B108" t="s">
-        <v>552</v>
+        <v>514</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>553</v>
+        <v>515</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>22</v>
+        <v>516</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>554</v>
+        <v>517</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41775</v>
+        <v>41781</v>
       </c>
       <c r="B109" t="s">
-        <v>555</v>
+        <v>518</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>556</v>
+        <v>519</v>
       </c>
       <c r="E109" t="s">
-        <v>557</v>
+        <v>238</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>558</v>
+        <v>520</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41774</v>
+        <v>41781</v>
       </c>
       <c r="B110" t="s">
-        <v>281</v>
+        <v>438</v>
       </c>
       <c r="C110" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41774</v>
+        <v>41780</v>
       </c>
       <c r="B111" t="s">
-        <v>329</v>
+        <v>524</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>562</v>
+        <v>525</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>563</v>
+        <v>526</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>564</v>
+        <v>527</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41773</v>
+        <v>41780</v>
       </c>
       <c r="B112" t="s">
-        <v>565</v>
+        <v>39</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>566</v>
+        <v>525</v>
       </c>
       <c r="E112" t="s">
         <v>10</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>11</v>
+        <v>320</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41772</v>
+        <v>41780</v>
       </c>
       <c r="B113" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>568</v>
+        <v>525</v>
       </c>
       <c r="E113" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>569</v>
+        <v>323</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>570</v>
+        <v>529</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41772</v>
+        <v>41780</v>
       </c>
       <c r="B114" t="s">
-        <v>571</v>
+        <v>167</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>572</v>
+        <v>530</v>
       </c>
       <c r="E114" t="s">
-        <v>573</v>
+        <v>169</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>574</v>
+        <v>531</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="B115" t="s">
-        <v>575</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="E115" t="s">
-        <v>557</v>
+        <v>18</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>239</v>
+        <v>533</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>577</v>
+        <v>534</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41771</v>
+        <v>41779</v>
       </c>
       <c r="B116" t="s">
-        <v>160</v>
+        <v>535</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>578</v>
+        <v>536</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>579</v>
+        <v>59</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>580</v>
+        <v>537</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41771</v>
+        <v>41779</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>538</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>581</v>
+        <v>539</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>582</v>
+        <v>62</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>583</v>
+        <v>540</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41771</v>
+        <v>41779</v>
       </c>
       <c r="B118" t="s">
-        <v>584</v>
+        <v>541</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>585</v>
+        <v>542</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>586</v>
+        <v>544</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41771</v>
+        <v>41778</v>
       </c>
       <c r="B119" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>587</v>
+        <v>545</v>
       </c>
       <c r="E119" t="s">
         <v>10</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41771</v>
+        <v>41775</v>
       </c>
       <c r="B120" t="s">
-        <v>167</v>
+        <v>548</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="E120" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>206</v>
+        <v>550</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>586</v>
+        <v>551</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41771</v>
+        <v>41775</v>
       </c>
       <c r="B121" t="s">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="E121" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>391</v>
+        <v>22</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>591</v>
+        <v>554</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41771</v>
+        <v>41775</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>555</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="E122" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>593</v>
+        <v>19</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41771</v>
+        <v>41774</v>
       </c>
       <c r="B123" t="s">
-        <v>595</v>
+        <v>281</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="E123" t="s">
-        <v>573</v>
+        <v>10</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41771</v>
+        <v>41774</v>
       </c>
       <c r="B124" t="s">
         <v>329</v>
@@ -5909,573 +5957,573 @@
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="E124" t="s">
         <v>18</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41771</v>
+        <v>41773</v>
       </c>
       <c r="B125" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="E125" t="s">
-        <v>557</v>
+        <v>10</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B126" t="s">
-        <v>555</v>
+        <v>329</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="E126" t="s">
-        <v>557</v>
+        <v>18</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>32</v>
+        <v>569</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>571</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="E127" t="s">
-        <v>18</v>
+        <v>573</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>575</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>606</v>
+        <v>576</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>557</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>607</v>
+        <v>239</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B129" t="s">
-        <v>609</v>
+        <v>160</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="E129" t="s">
         <v>10</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B130" t="s">
-        <v>329</v>
+        <v>160</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
       <c r="E130" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="B131" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="C131" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="E131" t="s">
-        <v>557</v>
+        <v>10</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>32</v>
+        <v>582</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="B132" t="s">
-        <v>438</v>
+        <v>160</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="E132" t="s">
-        <v>557</v>
+        <v>10</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B133" t="s">
-        <v>620</v>
+        <v>167</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="E133" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>71</v>
+        <v>586</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B134" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="E134" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B135" t="s">
-        <v>625</v>
+        <v>39</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>626</v>
+        <v>592</v>
       </c>
       <c r="E135" t="s">
-        <v>58</v>
+        <v>573</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>627</v>
+        <v>593</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>595</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>629</v>
+        <v>592</v>
       </c>
       <c r="E136" t="s">
-        <v>18</v>
+        <v>573</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>630</v>
+        <v>596</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>631</v>
+        <v>597</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="E137" t="s">
         <v>18</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>627</v>
+        <v>569</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>633</v>
+        <v>599</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41761</v>
+        <v>41771</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>555</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="E138" t="s">
-        <v>18</v>
+        <v>557</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>71</v>
+        <v>601</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>41761</v>
+        <v>41771</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>555</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>557</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>636</v>
+        <v>32</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>637</v>
+        <v>603</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>41759</v>
+        <v>41771</v>
       </c>
       <c r="B140" t="s">
-        <v>504</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>505</v>
+        <v>604</v>
       </c>
       <c r="E140" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>506</v>
+        <v>19</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>507</v>
+        <v>605</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>41758</v>
+        <v>41771</v>
       </c>
       <c r="B141" t="s">
-        <v>438</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>498</v>
+        <v>606</v>
       </c>
       <c r="E141" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>499</v>
+        <v>607</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>500</v>
+        <v>608</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>41758</v>
+        <v>41768</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>609</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="E142" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>502</v>
+        <v>611</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>503</v>
+        <v>612</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>41754</v>
+        <v>41768</v>
       </c>
       <c r="B143" t="s">
-        <v>494</v>
+        <v>329</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>495</v>
+        <v>613</v>
       </c>
       <c r="E143" t="s">
-        <v>496</v>
+        <v>18</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>7</v>
+        <v>569</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41745</v>
+        <v>41766</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>555</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>476</v>
+        <v>615</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>557</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>477</v>
+        <v>32</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>478</v>
+        <v>616</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41744</v>
+        <v>41766</v>
       </c>
       <c r="B145" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="C145" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>480</v>
+        <v>617</v>
       </c>
       <c r="E145" t="s">
-        <v>2</v>
+        <v>557</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>481</v>
+        <v>618</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>482</v>
+        <v>619</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>41743</v>
+        <v>41765</v>
       </c>
       <c r="B146" t="s">
-        <v>483</v>
+        <v>620</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>484</v>
+        <v>621</v>
       </c>
       <c r="E146" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>485</v>
+        <v>59</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>486</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>41743</v>
+        <v>41765</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>622</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>487</v>
+        <v>623</v>
       </c>
       <c r="E147" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>488</v>
+        <v>624</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>41743</v>
+        <v>41765</v>
       </c>
       <c r="B148" t="s">
-        <v>489</v>
+        <v>625</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>490</v>
+        <v>626</v>
       </c>
       <c r="E148" t="s">
         <v>58</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>491</v>
+        <v>627</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>456</v>
+        <v>628</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>41743</v>
+        <v>41765</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
@@ -6484,867 +6532,867 @@
         <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>492</v>
+        <v>629</v>
       </c>
       <c r="E149" t="s">
         <v>18</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>491</v>
+        <v>630</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>493</v>
+        <v>631</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>41740</v>
+        <v>41765</v>
       </c>
       <c r="B150" t="s">
-        <v>454</v>
+        <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>455</v>
+        <v>632</v>
       </c>
       <c r="E150" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>59</v>
+        <v>627</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>456</v>
+        <v>633</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>41740</v>
+        <v>41761</v>
       </c>
       <c r="B151" t="s">
-        <v>457</v>
+        <v>16</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>458</v>
+        <v>634</v>
       </c>
       <c r="E151" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>459</v>
+        <v>71</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>41740</v>
+        <v>41761</v>
       </c>
       <c r="B152" t="s">
-        <v>460</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>461</v>
+        <v>635</v>
       </c>
       <c r="E152" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>462</v>
+        <v>636</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>463</v>
+        <v>637</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>41739</v>
+        <v>41759</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>504</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="E153" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>41739</v>
+        <v>41758</v>
       </c>
       <c r="B154" t="s">
-        <v>167</v>
+        <v>438</v>
       </c>
       <c r="C154" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E154" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>187</v>
+        <v>499</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>41739</v>
+        <v>41758</v>
       </c>
       <c r="B155" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>41739</v>
+        <v>41754</v>
       </c>
       <c r="B156" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>496</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>474</v>
+        <v>7</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>41738</v>
+        <v>41745</v>
       </c>
       <c r="B157" t="s">
-        <v>336</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="E157" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>32</v>
+        <v>477</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>41738</v>
+        <v>41744</v>
       </c>
       <c r="B158" t="s">
-        <v>291</v>
+        <v>479</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>41737</v>
+        <v>41743</v>
       </c>
       <c r="B159" t="s">
-        <v>16</v>
+        <v>483</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="E159" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>41737</v>
+        <v>41743</v>
       </c>
       <c r="B160" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>327</v>
+        <v>19</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>41736</v>
+        <v>41743</v>
       </c>
       <c r="B161" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="E161" t="s">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>41736</v>
+        <v>41743</v>
       </c>
       <c r="B162" t="s">
-        <v>441</v>
+        <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>41736</v>
+        <v>41740</v>
       </c>
       <c r="B163" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>447</v>
+        <v>59</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>41736</v>
+        <v>41740</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>457</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>418</v>
+        <v>62</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>41736</v>
+        <v>41740</v>
       </c>
       <c r="B165" t="s">
-        <v>329</v>
+        <v>460</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="E165" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>331</v>
+        <v>462</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>41733</v>
+        <v>41739</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>41733</v>
+        <v>41739</v>
       </c>
       <c r="B167" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C167" t="s">
         <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="E167" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>41732</v>
+        <v>41739</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
       <c r="E168" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>429</v>
+        <v>471</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>41731</v>
+        <v>41739</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>472</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="E169" t="s">
         <v>10</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>41731</v>
+        <v>41738</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
+        <v>336</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="E170" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>41731</v>
+        <v>41738</v>
       </c>
       <c r="B171" t="s">
-        <v>406</v>
+        <v>291</v>
       </c>
       <c r="C171" t="s">
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="E171" t="s">
         <v>10</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>327</v>
+        <v>450</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="B172" t="s">
-        <v>409</v>
+        <v>16</v>
       </c>
       <c r="C172" t="s">
         <v>1</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="E172" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="B173" t="s">
-        <v>123</v>
+        <v>406</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="E173" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B174" t="s">
-        <v>209</v>
+        <v>438</v>
       </c>
       <c r="C174" t="s">
         <v>17</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="E174" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>40</v>
+        <v>434</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B175" t="s">
-        <v>16</v>
+        <v>441</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>371</v>
+        <v>442</v>
       </c>
       <c r="E175" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>373</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B176" t="s">
-        <v>374</v>
+        <v>445</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>375</v>
+        <v>446</v>
       </c>
       <c r="E176" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>59</v>
+        <v>447</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>376</v>
+        <v>448</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B177" t="s">
-        <v>377</v>
+        <v>13</v>
       </c>
       <c r="C177" t="s">
         <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="E177" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>62</v>
+        <v>418</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B178" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="C178" t="s">
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="E178" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>41729</v>
+        <v>41733</v>
       </c>
       <c r="B179" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C179" t="s">
         <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="E179" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>41729</v>
+        <v>41733</v>
       </c>
       <c r="B180" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="E180" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>398</v>
+        <v>32</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>41729</v>
+        <v>41732</v>
       </c>
       <c r="B181" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="E181" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B182" t="s">
-        <v>392</v>
+        <v>13</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="E182" t="s">
         <v>10</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B183" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="E183" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B184" t="s">
-        <v>39</v>
+        <v>406</v>
       </c>
       <c r="C184" t="s">
         <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="E184" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B185" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="C185" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="E185" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>365</v>
+        <v>32</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -7352,27 +7400,27 @@
         <v>41729</v>
       </c>
       <c r="B187" t="s">
-        <v>367</v>
+        <v>209</v>
       </c>
       <c r="C187" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B188" t="s">
         <v>16</v>
@@ -7381,251 +7429,251 @@
         <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E188" t="s">
         <v>18</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>359</v>
+        <v>59</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>377</v>
       </c>
       <c r="C190" t="s">
         <v>1</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="E190" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>350</v>
+        <v>62</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B191" t="s">
-        <v>36</v>
+        <v>380</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="E191" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>37</v>
+        <v>382</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B192" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="E192" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>40</v>
+        <v>385</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B193" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="E193" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>389</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="E194" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>7</v>
+        <v>391</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>41722</v>
+        <v>41729</v>
       </c>
       <c r="B195" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="E195" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>32</v>
+        <v>394</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>41722</v>
+        <v>41729</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="E196" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>346</v>
+        <v>401</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>41719</v>
+        <v>41729</v>
       </c>
       <c r="B197" t="s">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="C197" t="s">
         <v>1</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="E197" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>342</v>
+        <v>40</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>41718</v>
+        <v>41729</v>
       </c>
       <c r="B198" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
       <c r="C198" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>330</v>
+        <v>397</v>
       </c>
       <c r="E198" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>41718</v>
+        <v>41729</v>
       </c>
       <c r="B199" t="s">
         <v>13</v>
@@ -7634,113 +7682,113 @@
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="E199" t="s">
         <v>10</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>41718</v>
+        <v>41729</v>
       </c>
       <c r="B200" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="C200" t="s">
         <v>1</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="E200" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>192</v>
+        <v>369</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>41717</v>
+        <v>41725</v>
       </c>
       <c r="B201" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C201" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>270</v>
+        <v>361</v>
       </c>
       <c r="E201" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>271</v>
+        <v>363</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>41717</v>
+        <v>41725</v>
       </c>
       <c r="B202" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C202" t="s">
         <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>270</v>
+        <v>358</v>
       </c>
       <c r="E202" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>272</v>
+        <v>360</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>41717</v>
+        <v>41725</v>
       </c>
       <c r="B203" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C203" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>273</v>
+        <v>349</v>
       </c>
       <c r="E203" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>181</v>
+        <v>350</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B204" t="s">
         <v>36</v>
@@ -7749,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="E204" t="s">
         <v>2</v>
@@ -7758,12 +7806,12 @@
         <v>37</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>276</v>
+        <v>353</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B205" t="s">
         <v>39</v>
@@ -7772,7 +7820,7 @@
         <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="E205" t="s">
         <v>2</v>
@@ -7781,12 +7829,12 @@
         <v>40</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>277</v>
+        <v>354</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B206" t="s">
         <v>42</v>
@@ -7795,1838 +7843,1838 @@
         <v>17</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="E206" t="s">
         <v>43</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>279</v>
+        <v>356</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>280</v>
+        <v>357</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B207" t="s">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="C207" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>283</v>
+        <v>7</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>284</v>
+        <v>348</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="B208" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>285</v>
+        <v>344</v>
       </c>
       <c r="E208" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>33</v>
+        <v>343</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>41716</v>
+        <v>41722</v>
       </c>
       <c r="B209" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="C209" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="E209" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>41716</v>
+        <v>41719</v>
       </c>
       <c r="B210" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="E210" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>32</v>
+        <v>342</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>41716</v>
+        <v>41718</v>
       </c>
       <c r="B211" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>33</v>
+        <v>332</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>41715</v>
+        <v>41718</v>
       </c>
       <c r="B212" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="E212" t="s">
         <v>10</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>41715</v>
+        <v>41718</v>
       </c>
       <c r="B213" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="C213" t="s">
         <v>1</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="E213" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B214" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="E214" t="s">
         <v>2</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B215" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C215" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="E215" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B216" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C216" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="E216" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B217" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="E217" t="s">
         <v>2</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B218" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C218" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="E218" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B219" t="s">
-        <v>309</v>
+        <v>42</v>
       </c>
       <c r="C219" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="E219" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>175</v>
+        <v>279</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B220" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E220" t="s">
         <v>10</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B221" t="s">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="C221" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>318</v>
+        <v>192</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>319</v>
+        <v>33</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B222" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="C222" t="s">
         <v>1</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B223" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="C223" t="s">
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>323</v>
+        <v>32</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B224" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="E224" t="s">
         <v>10</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>328</v>
+        <v>33</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="C225" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="E225" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B226" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="C226" t="s">
         <v>1</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="E226" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>41709</v>
+        <v>41715</v>
       </c>
       <c r="B227" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C227" t="s">
         <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B228" t="s">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="C228" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B229" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C229" t="s">
         <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>263</v>
+        <v>37</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B230" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="C230" t="s">
         <v>1</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="E230" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B231" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="C231" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="E231" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B232" t="s">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="C232" t="s">
         <v>1</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="E232" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B233" t="s">
-        <v>30</v>
+        <v>312</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>241</v>
+        <v>313</v>
       </c>
       <c r="E233" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>32</v>
+        <v>314</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>242</v>
+        <v>315</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>41705</v>
+        <v>41715</v>
       </c>
       <c r="B234" t="s">
-        <v>243</v>
+        <v>316</v>
       </c>
       <c r="C234" t="s">
         <v>1</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>244</v>
+        <v>317</v>
       </c>
       <c r="E234" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C235" t="s">
         <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>226</v>
+        <v>317</v>
       </c>
       <c r="E235" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B236" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="C236" t="s">
         <v>1</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="E236" t="s">
         <v>10</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>231</v>
+        <v>323</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>232</v>
+        <v>324</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B237" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c r="E237" t="s">
         <v>10</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>234</v>
+        <v>327</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>41703</v>
+        <v>41712</v>
       </c>
       <c r="B238" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="C238" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="E238" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>41703</v>
+        <v>41711</v>
       </c>
       <c r="B239" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C239" t="s">
         <v>1</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="E239" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>41698</v>
+        <v>41709</v>
       </c>
       <c r="B240" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="C240" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="E240" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>41698</v>
+        <v>41708</v>
       </c>
       <c r="B241" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="C241" t="s">
         <v>1</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="E241" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>127</v>
+        <v>260</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>41698</v>
+        <v>41708</v>
       </c>
       <c r="B242" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="C242" t="s">
         <v>1</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="E242" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>41697</v>
+        <v>41708</v>
       </c>
       <c r="B243" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="C243" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="E243" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>219</v>
+        <v>59</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>41696</v>
+        <v>41708</v>
       </c>
       <c r="B244" t="s">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="C244" t="s">
         <v>1</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="E244" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>41696</v>
+        <v>41708</v>
       </c>
       <c r="B245" t="s">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="C245" t="s">
         <v>1</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="E245" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>41696</v>
+        <v>41708</v>
       </c>
       <c r="B246" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C246" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="E246" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>41690</v>
+        <v>41705</v>
       </c>
       <c r="B247" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="C247" t="s">
         <v>1</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="E247" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>197</v>
+        <v>22</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>41689</v>
+        <v>41703</v>
       </c>
       <c r="B248" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C248" t="s">
         <v>1</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="E248" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>41689</v>
+        <v>41703</v>
       </c>
       <c r="B249" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="C249" t="s">
         <v>1</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="E249" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>41689</v>
+        <v>41703</v>
       </c>
       <c r="B250" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C250" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="E250" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>41689</v>
+        <v>41703</v>
       </c>
       <c r="B251" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C251" t="s">
         <v>1</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="E251" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>41687</v>
+        <v>41703</v>
       </c>
       <c r="B252" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="C252" t="s">
         <v>1</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="E252" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>41687</v>
+        <v>41698</v>
       </c>
       <c r="B253" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="C253" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="E253" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>41687</v>
+        <v>41698</v>
       </c>
       <c r="B254" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C254" t="s">
         <v>1</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="E254" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>41687</v>
+        <v>41698</v>
       </c>
       <c r="B255" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="C255" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="E255" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>41687</v>
+        <v>41697</v>
       </c>
       <c r="B256" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C256" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="E256" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B257" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C257" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="E257" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>41684</v>
+        <v>41696</v>
       </c>
       <c r="B258" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="C258" t="s">
         <v>1</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="E258" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>41684</v>
+        <v>41696</v>
       </c>
       <c r="B259" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C259" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="E259" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>41682</v>
+        <v>41690</v>
       </c>
       <c r="B260" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="C260" t="s">
         <v>1</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="E260" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>41682</v>
+        <v>41689</v>
       </c>
       <c r="B261" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="C261" t="s">
         <v>1</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="E261" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>41682</v>
+        <v>41689</v>
       </c>
       <c r="B262" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="C262" t="s">
         <v>1</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="E262" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>41682</v>
+        <v>41689</v>
       </c>
       <c r="B263" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C263" t="s">
         <v>17</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="E263" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>41681</v>
+        <v>41689</v>
       </c>
       <c r="B264" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="C264" t="s">
         <v>1</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="E264" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B265" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C265" t="s">
         <v>1</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="E265" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B266" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="C266" t="s">
         <v>1</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E266" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B267" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="C267" t="s">
         <v>1</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E267" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>41680</v>
+        <v>41687</v>
       </c>
       <c r="B268" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C268" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E268" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>41680</v>
+        <v>41687</v>
       </c>
       <c r="B269" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C269" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="E269" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>41677</v>
+        <v>41687</v>
       </c>
       <c r="B270" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="C270" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="E270" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>41677</v>
+        <v>41684</v>
       </c>
       <c r="B271" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="C271" t="s">
         <v>1</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="E271" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>41677</v>
+        <v>41684</v>
       </c>
       <c r="B272" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="C272" t="s">
         <v>1</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="E272" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>41676</v>
+        <v>41682</v>
       </c>
       <c r="B273" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="C273" t="s">
         <v>1</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E273" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>41676</v>
+        <v>41682</v>
       </c>
       <c r="B274" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="C274" t="s">
         <v>1</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="E274" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>41676</v>
+        <v>41682</v>
       </c>
       <c r="B275" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="C275" t="s">
         <v>1</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="E275" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>41676</v>
+        <v>41682</v>
       </c>
       <c r="B276" t="s">
         <v>16</v>
       </c>
       <c r="C276" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E276" t="s">
         <v>18</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B277" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="C277" t="s">
         <v>1</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="E277" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>41675</v>
+        <v>41681</v>
       </c>
       <c r="B278" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C278" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="E278" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="G278" s="3" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="B279" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C279" t="s">
         <v>1</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="E279" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="G279" s="3" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="B280" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="C280" t="s">
         <v>1</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="E280" t="s">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>41674</v>
+        <v>41680</v>
       </c>
       <c r="B281" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C281" t="s">
         <v>1</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="E281" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>41674</v>
+        <v>41680</v>
       </c>
       <c r="B282" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C282" t="s">
         <v>17</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="E282" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>41670</v>
+        <v>41677</v>
       </c>
       <c r="B283" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C283" t="s">
         <v>1</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="E283" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>41670</v>
+        <v>41677</v>
       </c>
       <c r="B284" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="C284" t="s">
         <v>1</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E284" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>41663</v>
+        <v>41677</v>
       </c>
       <c r="B285" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="C285" t="s">
         <v>1</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="E285" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>41662</v>
+        <v>41676</v>
       </c>
       <c r="B286" t="s">
         <v>13</v>
@@ -9635,159 +9683,159 @@
         <v>1</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="E286" t="s">
         <v>10</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>41661</v>
+        <v>41676</v>
       </c>
       <c r="B287" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C287" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="E287" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>41656</v>
+        <v>41676</v>
       </c>
       <c r="B288" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C288" t="s">
         <v>1</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="E288" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>41655</v>
+        <v>41676</v>
       </c>
       <c r="B289" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C289" t="s">
         <v>1</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="E289" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>41655</v>
+        <v>41676</v>
       </c>
       <c r="B290" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="C290" t="s">
         <v>1</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E290" t="s">
         <v>2</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>41655</v>
+        <v>41675</v>
       </c>
       <c r="B291" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C291" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E291" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>41654</v>
+        <v>41674</v>
       </c>
       <c r="B292" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="C292" t="s">
         <v>1</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E292" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>41653</v>
+        <v>41674</v>
       </c>
       <c r="B293" t="s">
         <v>36</v>
@@ -9796,7 +9844,7 @@
         <v>1</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E293" t="s">
         <v>2</v>
@@ -9805,12 +9853,12 @@
         <v>37</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>41653</v>
+        <v>41674</v>
       </c>
       <c r="B294" t="s">
         <v>39</v>
@@ -9819,7 +9867,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E294" t="s">
         <v>2</v>
@@ -9828,12 +9876,12 @@
         <v>40</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>41653</v>
+        <v>41674</v>
       </c>
       <c r="B295" t="s">
         <v>42</v>
@@ -9842,360 +9890,659 @@
         <v>17</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E295" t="s">
         <v>43</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>41652</v>
+        <v>41670</v>
       </c>
       <c r="B296" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C296" t="s">
         <v>1</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E296" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>41652</v>
+        <v>41670</v>
       </c>
       <c r="B297" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C297" t="s">
         <v>1</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E297" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>41652</v>
+        <v>41663</v>
       </c>
       <c r="B298" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C298" t="s">
         <v>1</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E298" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>41652</v>
+        <v>41662</v>
       </c>
       <c r="B299" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C299" t="s">
         <v>1</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E299" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>41652</v>
+        <v>41661</v>
       </c>
       <c r="B300" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C300" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E300" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G300" s="3" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>41652</v>
+        <v>41656</v>
       </c>
       <c r="B301" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C301" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E301" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B302" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C302" t="s">
         <v>1</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E302" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G302" s="3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>41649</v>
+        <v>41655</v>
       </c>
       <c r="B303" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C303" t="s">
         <v>1</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E303" t="s">
         <v>2</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>41649</v>
+        <v>41655</v>
       </c>
       <c r="B304" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C304" t="s">
         <v>1</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E304" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>41649</v>
+        <v>41654</v>
       </c>
       <c r="B305" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C305" t="s">
         <v>1</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E305" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B306" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C306" t="s">
         <v>1</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E306" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B307" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C307" t="s">
         <v>1</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E307" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B308" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C308" t="s">
         <v>17</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E308" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B309" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="C309" t="s">
         <v>1</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E309" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B310" t="s">
         <v>16</v>
       </c>
       <c r="C310" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E310" t="s">
         <v>18</v>
       </c>
       <c r="F310" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B311" t="s">
+        <v>49</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E311" t="s">
+        <v>31</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B312" t="s">
+        <v>36</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E312" t="s">
+        <v>2</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G312" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B313" t="s">
+        <v>39</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E313" t="s">
+        <v>2</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B314" t="s">
+        <v>42</v>
+      </c>
+      <c r="C314" t="s">
+        <v>17</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E314" t="s">
+        <v>43</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B315" t="s">
+        <v>16</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E315" t="s">
+        <v>18</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B316" t="s">
+        <v>52</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E316" t="s">
+        <v>2</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B317" t="s">
+        <v>39</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E317" t="s">
+        <v>2</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B318" t="s">
+        <v>57</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E318" t="s">
+        <v>58</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B319" t="s">
+        <v>61</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E319" t="s">
+        <v>58</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B320" t="s">
+        <v>64</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E320" t="s">
+        <v>58</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G320" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B321" t="s">
+        <v>16</v>
+      </c>
+      <c r="C321" t="s">
+        <v>17</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E321" t="s">
+        <v>18</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B322" t="s">
+        <v>69</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E322" t="s">
+        <v>2</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B323" t="s">
+        <v>16</v>
+      </c>
+      <c r="C323" t="s">
+        <v>17</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E323" t="s">
+        <v>18</v>
+      </c>
+      <c r="F323" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G310" s="3" t="s">
+      <c r="G323" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/docs/backup/cuenta_3940694600.xlsx
+++ b/docs/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="927">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -2730,6 +2730,81 @@
   </si>
   <si>
     <t>1247.18</t>
+  </si>
+  <si>
+    <t>15038934-COSTO IVA CASH-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0009291895</t>
+  </si>
+  <si>
+    <t>337.73</t>
+  </si>
+  <si>
+    <t>15038934-COSTO OPER CASH-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0009291881</t>
+  </si>
+  <si>
+    <t>337.77</t>
+  </si>
+  <si>
+    <t>15038934-EMAP Q-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0009291860</t>
+  </si>
+  <si>
+    <t>7.69  </t>
+  </si>
+  <si>
+    <t>338.08</t>
+  </si>
+  <si>
+    <t>0008973706</t>
+  </si>
+  <si>
+    <t>345.77</t>
+  </si>
+  <si>
+    <t>15036552-MEGADATOS S.A -CB-1500583339</t>
+  </si>
+  <si>
+    <t>0008082249</t>
+  </si>
+  <si>
+    <t>361.03</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP D/AMAZONAS-1</t>
+  </si>
+  <si>
+    <t>0001062825</t>
+  </si>
+  <si>
+    <t>162.07</t>
+  </si>
+  <si>
+    <t>0004360090</t>
+  </si>
+  <si>
+    <t>212.07</t>
+  </si>
+  <si>
+    <t>0008292288</t>
+  </si>
+  <si>
+    <t>65.66  </t>
+  </si>
+  <si>
+    <t>252.07</t>
+  </si>
+  <si>
+    <t>0004434186</t>
+  </si>
+  <si>
+    <t>317.73</t>
   </si>
 </sst>
 </file>
@@ -3052,10 +3127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H323"/>
+  <dimension ref="A1:H332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H13"/>
+      <selection activeCell="H22" sqref="H1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,1623 +3142,1659 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41918</v>
+        <v>41927</v>
       </c>
       <c r="B1" t="s">
-        <v>409</v>
+        <v>917</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>874</v>
+        <v>918</v>
       </c>
       <c r="E1" t="s">
-        <v>338</v>
+        <v>573</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>875</v>
+        <v>919</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H13" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-06'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/KENNEDY 2', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005120041', 'mo_oficina' =&gt; 'KENNEDY', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 437.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H4" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-15'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/AMAZONAS-1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001062825', 'mo_oficina' =&gt; 'AMAZONAS', 'mo_monto' =&gt; 50.00  , 'mo_saldo' =&gt; 162.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41918</v>
+        <v>41921</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>876</v>
+        <v>920</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>877</v>
+        <v>921</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-06'), 'mo_concepto' =&gt; 'DB AH PROGRAMADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000356350', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 457.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-09'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 2', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004360090', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 40.00  , 'mo_saldo' =&gt; 212.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41915</v>
+        <v>41920</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>878</v>
+        <v>922</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>879</v>
+        <v>923</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>880</v>
+        <v>924</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009473778', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 500.00  , 'mo_saldo' =&gt; 477.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-08'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008292288', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 65.66  , 'mo_saldo' =&gt; 252.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41915</v>
+        <v>41920</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>821</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>881</v>
+        <v>925</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>882</v>
+        <v>926</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009443395', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 270.00  , 'mo_saldo' =&gt; 977.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-08'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/EL GIRON-4', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004434186', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 317.73, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41915</v>
+        <v>41919</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>902</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>884</v>
+        <v>59</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0009437405', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 90.00  , 'mo_saldo' =&gt; 1247.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H5:H22" ca="1" si="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A5,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B5,"', 'mo_tipo' =&gt; '",C5,"', 'mo_documento' =&gt; '",D5,"', 'mo_oficina' =&gt; '",E5,"', 'mo_monto' =&gt; ",F5,", 'mo_saldo' =&gt; ",G5,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-07'), 'mo_concepto' =&gt; '15038934-COSTO IVA CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009291895', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.04  , 'mo_saldo' =&gt; 337.73, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41915</v>
+        <v>41919</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>905</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>885</v>
+        <v>906</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-03'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005535594', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 10.00  , 'mo_saldo' =&gt; 1157.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-07'), 'mo_concepto' =&gt; '15038934-COSTO OPER CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009291881', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.31  , 'mo_saldo' =&gt; 337.77, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41915</v>
+        <v>41919</v>
       </c>
       <c r="B7" t="s">
-        <v>821</v>
+        <v>908</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>886</v>
+        <v>909</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-03'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/EL GIRON-4', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000725930', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 10.00  , 'mo_saldo' =&gt; 1167.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-07'), 'mo_concepto' =&gt; '15038934-EMAP Q-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009291860', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 7.69  , 'mo_saldo' =&gt; 338.08, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41914</v>
+        <v>41919</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>565</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>887</v>
+        <v>912</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>898</v>
+        <v>913</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-02'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007417542', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 1177.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-07'), 'mo_concepto' =&gt; 'CONSUMO VISA NA MI GASOLINERA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008973706', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 15.26  , 'mo_saldo' =&gt; 345.77, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41914</v>
+        <v>41919</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>914</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>887</v>
+        <v>915</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-02'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007417542', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 1177.45, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-07'), 'mo_concepto' =&gt; '15036552-MEGADATOS S.A -CB-1500583339', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008082249', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 76.15  , 'mo_saldo' =&gt; 361.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41914</v>
+        <v>41918</v>
       </c>
       <c r="B10" t="s">
-        <v>854</v>
+        <v>409</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>897</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-02'), 'mo_concepto' =&gt; '01-SPI-ROJAS CEVALLOS OSWALDO RAM', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007417511', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 1146.00  , 'mo_saldo' =&gt; 1177.48, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-06'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/KENNEDY 2', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005120041', 'mo_oficina' =&gt; 'KENNEDY', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 437.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41912</v>
+        <v>41918</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="E11" t="s">
         <v>140</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0003442111', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 31.48, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-06'), 'mo_concepto' =&gt; 'DB AH PROGRAMADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000356350', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 457.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41911</v>
+        <v>41915</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>32</v>
+        <v>879</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-29'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010519413', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 31.45, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009473778', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 500.00  , 'mo_saldo' =&gt; 477.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41911</v>
+        <v>41915</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-29'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/INCA-3', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001323820', 'mo_oficina' =&gt; 'EL INCA', 'mo_monto' =&gt; 30.00  , 'mo_saldo' =&gt; 51.45, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009443395', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 270.00  , 'mo_saldo' =&gt; 977.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41904</v>
+        <v>41915</v>
       </c>
       <c r="B14" t="s">
-        <v>817</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>818</v>
+        <v>883</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>819</v>
+        <v>884</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>820</v>
+        <v>901</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0009437405', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 90.00  , 'mo_saldo' =&gt; 1247.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41904</v>
+        <v>41915</v>
       </c>
       <c r="B15" t="s">
-        <v>821</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>822</v>
+        <v>885</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>823</v>
+        <v>900</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-03'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005535594', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 10.00  , 'mo_saldo' =&gt; 1157.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>41915</v>
+      </c>
+      <c r="B16" t="s">
+        <v>821</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-03'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/EL GIRON-4', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000725930', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 10.00  , 'mo_saldo' =&gt; 1167.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>41914</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-02'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007417542', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 1177.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>41914</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-02'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007417542', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 1177.45, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>41914</v>
+      </c>
+      <c r="B19" t="s">
+        <v>854</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-02'), 'mo_concepto' =&gt; '01-SPI-ROJAS CEVALLOS OSWALDO RAM', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007417511', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 1146.00  , 'mo_saldo' =&gt; 1177.48, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0003442111', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 31.48, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>41911</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-29'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010519413', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 31.45, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>41911</v>
+      </c>
+      <c r="B22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="E22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-29'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/INCA-3', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001323820', 'mo_oficina' =&gt; 'EL INCA', 'mo_monto' =&gt; 30.00  , 'mo_saldo' =&gt; 51.45, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>41904</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B23" t="s">
+        <v>817</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>41904</v>
+      </c>
+      <c r="B24" t="s">
+        <v>821</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>41904</v>
+      </c>
+      <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E25" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>41901</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B26" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E26" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>41899</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B27" t="s">
         <v>830</v>
       </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E27" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>41899</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B28" t="s">
         <v>833</v>
       </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E28" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>41899</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B29" t="s">
         <v>836</v>
       </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E29" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>41899</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B30" t="s">
         <v>839</v>
       </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E30" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>41898</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B31" t="s">
         <v>329</v>
       </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E31" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>41897</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B32" t="s">
         <v>821</v>
       </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E32" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>846</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>41897</v>
-      </c>
-      <c r="B24" t="s">
-        <v>565</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>41890</v>
-      </c>
-      <c r="B25" t="s">
-        <v>821</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="E25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>41890</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>41890</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>41890</v>
-      </c>
-      <c r="B28" t="s">
-        <v>854</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="E28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>41890</v>
-      </c>
-      <c r="B29" t="s">
-        <v>857</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>41890</v>
-      </c>
-      <c r="B30" t="s">
-        <v>472</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>41886</v>
-      </c>
-      <c r="B31" t="s">
-        <v>668</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="E31" t="s">
-        <v>338</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>41886</v>
-      </c>
-      <c r="B32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="E32" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41885</v>
+        <v>41897</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>565</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>868</v>
+        <v>848</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41885</v>
+        <v>41890</v>
       </c>
       <c r="B34" t="s">
-        <v>869</v>
+        <v>821</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41885</v>
+        <v>41890</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41884</v>
+        <v>41890</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>812</v>
+        <v>851</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>813</v>
+        <v>853</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41883</v>
+        <v>41890</v>
       </c>
       <c r="B37" t="s">
-        <v>814</v>
+        <v>854</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>815</v>
+        <v>855</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>563</v>
+        <v>522</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>816</v>
+        <v>856</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41883</v>
+        <v>41890</v>
       </c>
       <c r="B38" t="s">
-        <v>785</v>
+        <v>857</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>786</v>
+        <v>858</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>59</v>
+        <v>327</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>787</v>
+        <v>859</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41883</v>
+        <v>41890</v>
       </c>
       <c r="B39" t="s">
-        <v>788</v>
+        <v>472</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>789</v>
+        <v>860</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>62</v>
+        <v>861</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>790</v>
+        <v>862</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41883</v>
+        <v>41886</v>
       </c>
       <c r="B40" t="s">
-        <v>791</v>
+        <v>668</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>792</v>
+        <v>863</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>338</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>793</v>
+        <v>32</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>794</v>
+        <v>864</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41883</v>
+        <v>41886</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>795</v>
+        <v>865</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>796</v>
+        <v>32</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>797</v>
+        <v>866</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41878</v>
+        <v>41885</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>798</v>
+        <v>867</v>
       </c>
       <c r="E42" t="s">
         <v>31</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>799</v>
+        <v>868</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41878</v>
+        <v>41885</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>869</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>800</v>
+        <v>870</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>801</v>
+        <v>871</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41873</v>
+        <v>41885</v>
       </c>
       <c r="B44" t="s">
-        <v>802</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>803</v>
+        <v>872</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>804</v>
+        <v>32</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>799</v>
+        <v>873</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41873</v>
+        <v>41884</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>806</v>
+        <v>127</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41873</v>
+        <v>41883</v>
       </c>
       <c r="B46" t="s">
-        <v>438</v>
+        <v>814</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>19</v>
+        <v>563</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41873</v>
+        <v>41883</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>785</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>810</v>
+        <v>786</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>811</v>
+        <v>787</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41870</v>
+        <v>41883</v>
       </c>
       <c r="B48" t="s">
-        <v>757</v>
+        <v>788</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>758</v>
+        <v>789</v>
       </c>
       <c r="E48" t="s">
         <v>58</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>759</v>
+        <v>790</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41870</v>
+        <v>41883</v>
       </c>
       <c r="B49" t="s">
-        <v>760</v>
+        <v>791</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>761</v>
+        <v>792</v>
       </c>
       <c r="E49" t="s">
         <v>58</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>62</v>
+        <v>793</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>762</v>
+        <v>794</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41870</v>
+        <v>41883</v>
       </c>
       <c r="B50" t="s">
-        <v>763</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>764</v>
+        <v>795</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>765</v>
+        <v>796</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>766</v>
+        <v>797</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41870</v>
+        <v>41878</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>767</v>
+        <v>798</v>
       </c>
       <c r="E51" t="s">
         <v>31</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>768</v>
+        <v>799</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41869</v>
+        <v>41878</v>
       </c>
       <c r="B52" t="s">
-        <v>565</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>769</v>
+        <v>800</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>311</v>
+        <v>801</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41869</v>
+        <v>41873</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>802</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>770</v>
+        <v>803</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>771</v>
+        <v>804</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>772</v>
+        <v>799</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41869</v>
+        <v>41873</v>
       </c>
       <c r="B54" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>773</v>
+        <v>805</v>
       </c>
       <c r="E54" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>32</v>
+        <v>806</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>774</v>
+        <v>807</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41865</v>
+        <v>41873</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>438</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>775</v>
+        <v>808</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>776</v>
+        <v>19</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>777</v>
+        <v>809</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41865</v>
+        <v>41873</v>
       </c>
       <c r="B56" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>778</v>
+        <v>810</v>
       </c>
       <c r="E56" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>779</v>
+        <v>811</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41864</v>
+        <v>41870</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>757</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>711</v>
+        <v>59</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>637</v>
+        <v>759</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41862</v>
+        <v>41870</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>760</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41855</v>
+        <v>41870</v>
       </c>
       <c r="B59" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="E59" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>22</v>
+        <v>765</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>71</v>
+        <v>766</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41855</v>
+        <v>41870</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>753</v>
+        <v>7</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41855</v>
+        <v>41869</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>565</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>385</v>
+        <v>11</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>756</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41830</v>
+        <v>41869</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>724</v>
+        <v>771</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>71</v>
+        <v>772</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41827</v>
+        <v>41869</v>
       </c>
       <c r="B63" t="s">
-        <v>725</v>
+        <v>336</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
       <c r="E63" t="s">
-        <v>58</v>
+        <v>338</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41827</v>
+        <v>41865</v>
       </c>
       <c r="B64" t="s">
-        <v>728</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>729</v>
+        <v>775</v>
       </c>
       <c r="E64" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>62</v>
+        <v>776</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>730</v>
+        <v>777</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41827</v>
+        <v>41865</v>
       </c>
       <c r="B65" t="s">
-        <v>731</v>
+        <v>336</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>732</v>
+        <v>778</v>
       </c>
       <c r="E65" t="s">
-        <v>58</v>
+        <v>338</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>382</v>
+        <v>7</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>733</v>
+        <v>779</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41827</v>
+        <v>41864</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>734</v>
+        <v>780</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>32</v>
+        <v>711</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>735</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41827</v>
+        <v>41862</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>736</v>
+        <v>781</v>
       </c>
       <c r="E67" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>737</v>
+        <v>19</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>738</v>
+        <v>782</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41827</v>
+        <v>41855</v>
       </c>
       <c r="B68" t="s">
-        <v>329</v>
+        <v>783</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>739</v>
+        <v>784</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>569</v>
+        <v>22</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>740</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41827</v>
+        <v>41855</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
@@ -4692,228 +4803,228 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="E69" t="s">
         <v>18</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>192</v>
+        <v>753</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41827</v>
+        <v>41855</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E70" t="s">
         <v>18</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>744</v>
+        <v>385</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41824</v>
+        <v>41830</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>746</v>
+        <v>723</v>
       </c>
       <c r="E71" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>32</v>
+        <v>724</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>747</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41823</v>
+        <v>41827</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>725</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41823</v>
+        <v>41827</v>
       </c>
       <c r="B73" t="s">
-        <v>329</v>
+        <v>728</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>569</v>
+        <v>62</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41823</v>
+        <v>41827</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>731</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>700</v>
+        <v>732</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>701</v>
+        <v>382</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41823</v>
+        <v>41827</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>703</v>
+        <v>734</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>704</v>
+        <v>32</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41823</v>
+        <v>41827</v>
       </c>
       <c r="B76" t="s">
-        <v>438</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>706</v>
+        <v>736</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41822</v>
+        <v>41827</v>
       </c>
       <c r="B77" t="s">
-        <v>707</v>
+        <v>329</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>708</v>
+        <v>739</v>
       </c>
       <c r="E77" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>22</v>
+        <v>569</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>709</v>
+        <v>740</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41822</v>
+        <v>41827</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>710</v>
+        <v>741</v>
       </c>
       <c r="E78" t="s">
         <v>18</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>711</v>
+        <v>192</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>712</v>
+        <v>742</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41816</v>
+        <v>41827</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
@@ -4922,1350 +5033,1350 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>713</v>
+        <v>743</v>
       </c>
       <c r="E79" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>71</v>
+        <v>745</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41815</v>
+        <v>41824</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="E80" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>716</v>
+        <v>747</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41815</v>
+        <v>41823</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>715</v>
+        <v>748</v>
       </c>
       <c r="E81" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41815</v>
+        <v>41823</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>329</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>719</v>
+        <v>569</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>720</v>
+        <v>751</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41806</v>
+        <v>41823</v>
       </c>
       <c r="B83" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="E83" t="s">
         <v>18</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>569</v>
+        <v>701</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41800</v>
+        <v>41823</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>32</v>
+        <v>704</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41799</v>
+        <v>41823</v>
       </c>
       <c r="B85" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>569</v>
+        <v>721</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41794</v>
+        <v>41822</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>707</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="E86" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41793</v>
+        <v>41822</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>671</v>
+        <v>710</v>
       </c>
       <c r="E87" t="s">
         <v>18</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>672</v>
+        <v>711</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>673</v>
+        <v>712</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41793</v>
+        <v>41816</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>674</v>
+        <v>713</v>
       </c>
       <c r="E88" t="s">
         <v>18</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>676</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41793</v>
+        <v>41815</v>
       </c>
       <c r="B89" t="s">
-        <v>677</v>
+        <v>36</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>678</v>
+        <v>715</v>
       </c>
       <c r="E89" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>679</v>
+        <v>716</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41793</v>
+        <v>41815</v>
       </c>
       <c r="B90" t="s">
-        <v>680</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>681</v>
+        <v>715</v>
       </c>
       <c r="E90" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>682</v>
+        <v>717</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41793</v>
+        <v>41815</v>
       </c>
       <c r="B91" t="s">
-        <v>683</v>
+        <v>42</v>
       </c>
       <c r="C91" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>684</v>
+        <v>718</v>
       </c>
       <c r="E91" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>685</v>
+        <v>719</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>686</v>
+        <v>720</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41793</v>
+        <v>41806</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="E92" t="s">
         <v>18</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>67</v>
+        <v>569</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="B93" t="s">
-        <v>689</v>
+        <v>30</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="E93" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41792</v>
+        <v>41799</v>
       </c>
       <c r="B94" t="s">
-        <v>664</v>
+        <v>329</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>665</v>
+        <v>698</v>
       </c>
       <c r="E94" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>666</v>
+        <v>569</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41792</v>
+        <v>41794</v>
       </c>
       <c r="B95" t="s">
-        <v>668</v>
+        <v>138</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>669</v>
+        <v>692</v>
       </c>
       <c r="E95" t="s">
-        <v>338</v>
+        <v>140</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41792</v>
+        <v>41793</v>
       </c>
       <c r="B96" t="s">
-        <v>657</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="E96" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>32</v>
+        <v>672</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41789</v>
+        <v>41793</v>
       </c>
       <c r="B97" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="E97" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>40</v>
+        <v>675</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41789</v>
+        <v>41793</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>677</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41789</v>
+        <v>41793</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>680</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>569</v>
+        <v>62</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B100" t="s">
-        <v>643</v>
+        <v>683</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>645</v>
+        <v>685</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>646</v>
+        <v>686</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B101" t="s">
-        <v>647</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>648</v>
+        <v>687</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>649</v>
+        <v>67</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>650</v>
+        <v>688</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41788</v>
+        <v>41793</v>
       </c>
       <c r="B102" t="s">
-        <v>329</v>
+        <v>689</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>651</v>
+        <v>690</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>569</v>
+        <v>22</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>652</v>
+        <v>691</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="B103" t="s">
-        <v>438</v>
+        <v>664</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>434</v>
+        <v>666</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41785</v>
+        <v>41792</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>668</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>638</v>
+        <v>669</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>639</v>
+        <v>206</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>71</v>
+        <v>670</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41785</v>
+        <v>41792</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>657</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>641</v>
+        <v>32</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41782</v>
+        <v>41789</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="C106" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>508</v>
+        <v>660</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>509</v>
+        <v>661</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41781</v>
+        <v>41789</v>
       </c>
       <c r="B107" t="s">
-        <v>510</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>511</v>
+        <v>662</v>
       </c>
       <c r="E107" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>513</v>
+        <v>663</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41781</v>
+        <v>41789</v>
       </c>
       <c r="B108" t="s">
-        <v>514</v>
+        <v>34</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>515</v>
+        <v>655</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>516</v>
+        <v>569</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>517</v>
+        <v>656</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41781</v>
+        <v>41788</v>
       </c>
       <c r="B109" t="s">
-        <v>518</v>
+        <v>643</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>519</v>
+        <v>644</v>
       </c>
       <c r="E109" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>187</v>
+        <v>645</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>520</v>
+        <v>646</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41781</v>
+        <v>41788</v>
       </c>
       <c r="B110" t="s">
-        <v>438</v>
+        <v>647</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>521</v>
+        <v>648</v>
       </c>
       <c r="E110" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>522</v>
+        <v>649</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>523</v>
+        <v>650</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41780</v>
+        <v>41788</v>
       </c>
       <c r="B111" t="s">
-        <v>524</v>
+        <v>329</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>525</v>
+        <v>651</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>526</v>
+        <v>569</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>527</v>
+        <v>652</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41780</v>
+        <v>41788</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>438</v>
       </c>
       <c r="C112" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>525</v>
+        <v>653</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>320</v>
+        <v>434</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>528</v>
+        <v>654</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41780</v>
+        <v>41785</v>
       </c>
       <c r="B113" t="s">
-        <v>322</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>525</v>
+        <v>638</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>323</v>
+        <v>639</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>529</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41780</v>
+        <v>41785</v>
       </c>
       <c r="B114" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>530</v>
+        <v>640</v>
       </c>
       <c r="E114" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>239</v>
+        <v>641</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>531</v>
+        <v>642</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41779</v>
+        <v>41782</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>533</v>
+        <v>32</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41779</v>
+        <v>41781</v>
       </c>
       <c r="B116" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="E116" t="s">
         <v>58</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>59</v>
+        <v>512</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41779</v>
+        <v>41781</v>
       </c>
       <c r="B117" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="E117" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>62</v>
+        <v>516</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41779</v>
+        <v>41781</v>
       </c>
       <c r="B118" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="E118" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>543</v>
+        <v>187</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41778</v>
+        <v>41781</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>438</v>
       </c>
       <c r="C119" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41775</v>
+        <v>41780</v>
       </c>
       <c r="B120" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="E120" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41775</v>
+        <v>41780</v>
       </c>
       <c r="B121" t="s">
-        <v>552</v>
+        <v>39</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="E121" t="s">
         <v>10</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41775</v>
+        <v>41780</v>
       </c>
       <c r="B122" t="s">
-        <v>555</v>
+        <v>322</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>556</v>
+        <v>525</v>
       </c>
       <c r="E122" t="s">
-        <v>557</v>
+        <v>10</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>19</v>
+        <v>323</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41774</v>
+        <v>41780</v>
       </c>
       <c r="B123" t="s">
-        <v>281</v>
+        <v>167</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>560</v>
+        <v>239</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41774</v>
+        <v>41779</v>
       </c>
       <c r="B124" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="E124" t="s">
         <v>18</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41773</v>
+        <v>41779</v>
       </c>
       <c r="B125" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="B126" t="s">
-        <v>329</v>
+        <v>538</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="E126" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>569</v>
+        <v>62</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="B127" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="E127" t="s">
-        <v>573</v>
+        <v>58</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>187</v>
+        <v>543</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41772</v>
+        <v>41778</v>
       </c>
       <c r="B128" t="s">
-        <v>575</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="E128" t="s">
-        <v>557</v>
+        <v>10</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>239</v>
+        <v>546</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41771</v>
+        <v>41775</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>548</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>579</v>
+        <v>550</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41771</v>
+        <v>41775</v>
       </c>
       <c r="B130" t="s">
-        <v>160</v>
+        <v>552</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="E130" t="s">
         <v>10</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>582</v>
+        <v>22</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>41771</v>
+        <v>41775</v>
       </c>
       <c r="B131" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>557</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>582</v>
+        <v>19</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>586</v>
+        <v>558</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>41771</v>
+        <v>41774</v>
       </c>
       <c r="B132" t="s">
-        <v>160</v>
+        <v>281</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="E132" t="s">
         <v>10</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>41771</v>
+        <v>41774</v>
       </c>
       <c r="B133" t="s">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="E133" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>206</v>
+        <v>563</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>41771</v>
+        <v>41773</v>
       </c>
       <c r="B134" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="E134" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>391</v>
+        <v>11</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B135" t="s">
-        <v>39</v>
+        <v>329</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="E135" t="s">
-        <v>573</v>
+        <v>18</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B136" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="E136" t="s">
         <v>573</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>596</v>
+        <v>187</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B137" t="s">
-        <v>329</v>
+        <v>575</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="E137" t="s">
-        <v>18</v>
+        <v>557</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>569</v>
+        <v>239</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -6273,22 +6384,22 @@
         <v>41771</v>
       </c>
       <c r="B138" t="s">
-        <v>555</v>
+        <v>160</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="E138" t="s">
-        <v>557</v>
+        <v>10</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>32</v>
+        <v>579</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -6296,22 +6407,22 @@
         <v>41771</v>
       </c>
       <c r="B139" t="s">
-        <v>555</v>
+        <v>160</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="E139" t="s">
-        <v>557</v>
+        <v>10</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>32</v>
+        <v>582</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -6319,22 +6430,22 @@
         <v>41771</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>584</v>
       </c>
       <c r="C140" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="E140" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>19</v>
+        <v>582</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -6342,188 +6453,188 @@
         <v>41771</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B142" t="s">
-        <v>609</v>
+        <v>167</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>611</v>
+        <v>206</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B143" t="s">
-        <v>329</v>
+        <v>589</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
       <c r="E143" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>569</v>
+        <v>391</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="B144" t="s">
-        <v>555</v>
+        <v>39</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="E144" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>32</v>
+        <v>593</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="B145" t="s">
-        <v>438</v>
+        <v>595</v>
       </c>
       <c r="C145" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="E145" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B146" t="s">
-        <v>620</v>
+        <v>329</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="E146" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>59</v>
+        <v>569</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>71</v>
+        <v>599</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B147" t="s">
-        <v>622</v>
+        <v>555</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="E147" t="s">
-        <v>58</v>
+        <v>557</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B148" t="s">
-        <v>625</v>
+        <v>555</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="E148" t="s">
-        <v>58</v>
+        <v>557</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>627</v>
+        <v>32</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
@@ -6532,113 +6643,113 @@
         <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="E149" t="s">
         <v>18</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>630</v>
+        <v>19</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="E150" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>41761</v>
+        <v>41768</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>609</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="E151" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>127</v>
+        <v>611</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>71</v>
+        <v>612</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>41761</v>
+        <v>41768</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C152" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>635</v>
+        <v>613</v>
       </c>
       <c r="E152" t="s">
         <v>18</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>636</v>
+        <v>569</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="B153" t="s">
-        <v>504</v>
+        <v>555</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>505</v>
+        <v>615</v>
       </c>
       <c r="E153" t="s">
-        <v>338</v>
+        <v>557</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>506</v>
+        <v>32</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>507</v>
+        <v>616</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>41758</v>
+        <v>41766</v>
       </c>
       <c r="B154" t="s">
         <v>438</v>
@@ -6647,959 +6758,959 @@
         <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>498</v>
+        <v>617</v>
       </c>
       <c r="E154" t="s">
-        <v>43</v>
+        <v>557</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>499</v>
+        <v>618</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>500</v>
+        <v>619</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>620</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>501</v>
+        <v>621</v>
       </c>
       <c r="E155" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>502</v>
+        <v>59</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>503</v>
+        <v>71</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>41754</v>
+        <v>41765</v>
       </c>
       <c r="B156" t="s">
-        <v>494</v>
+        <v>622</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>495</v>
+        <v>623</v>
       </c>
       <c r="E156" t="s">
-        <v>496</v>
+        <v>58</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>497</v>
+        <v>624</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>41745</v>
+        <v>41765</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>625</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>476</v>
+        <v>626</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>477</v>
+        <v>627</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>478</v>
+        <v>628</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>41744</v>
+        <v>41765</v>
       </c>
       <c r="B158" t="s">
-        <v>479</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>480</v>
+        <v>629</v>
       </c>
       <c r="E158" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>481</v>
+        <v>630</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>482</v>
+        <v>631</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>41743</v>
+        <v>41765</v>
       </c>
       <c r="B159" t="s">
-        <v>483</v>
+        <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>484</v>
+        <v>632</v>
       </c>
       <c r="E159" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>485</v>
+        <v>627</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>486</v>
+        <v>633</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>41743</v>
+        <v>41761</v>
       </c>
       <c r="B160" t="s">
         <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>487</v>
+        <v>634</v>
       </c>
       <c r="E160" t="s">
         <v>18</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>488</v>
+        <v>71</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>41743</v>
+        <v>41761</v>
       </c>
       <c r="B161" t="s">
-        <v>489</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>490</v>
+        <v>635</v>
       </c>
       <c r="E161" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>491</v>
+        <v>636</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>456</v>
+        <v>637</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>41743</v>
+        <v>41759</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>504</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="E162" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>41740</v>
+        <v>41758</v>
       </c>
       <c r="B163" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C163" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="E163" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>59</v>
+        <v>499</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>41740</v>
+        <v>41758</v>
       </c>
       <c r="B164" t="s">
-        <v>457</v>
+        <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="E164" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>62</v>
+        <v>502</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>41740</v>
+        <v>41754</v>
       </c>
       <c r="B165" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="E165" t="s">
-        <v>58</v>
+        <v>496</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>462</v>
+        <v>7</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>41739</v>
+        <v>41745</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="E166" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>41739</v>
+        <v>41744</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>479</v>
       </c>
       <c r="C167" t="s">
         <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="E167" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>187</v>
+        <v>481</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>41739</v>
+        <v>41743</v>
       </c>
       <c r="B168" t="s">
-        <v>160</v>
+        <v>483</v>
       </c>
       <c r="C168" t="s">
         <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>41739</v>
+        <v>41743</v>
       </c>
       <c r="B169" t="s">
-        <v>472</v>
+        <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>474</v>
+        <v>19</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>41738</v>
+        <v>41743</v>
       </c>
       <c r="B170" t="s">
-        <v>336</v>
+        <v>489</v>
       </c>
       <c r="C170" t="s">
         <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="E170" t="s">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>32</v>
+        <v>491</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>41738</v>
+        <v>41743</v>
       </c>
       <c r="B171" t="s">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>41737</v>
+        <v>41740</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
+        <v>454</v>
       </c>
       <c r="C172" t="s">
         <v>1</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="E172" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>434</v>
+        <v>59</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>41737</v>
+        <v>41740</v>
       </c>
       <c r="B173" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>327</v>
+        <v>62</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>41736</v>
+        <v>41740</v>
       </c>
       <c r="B174" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="E174" t="s">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="B175" t="s">
-        <v>441</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="B176" t="s">
-        <v>445</v>
+        <v>167</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>447</v>
+        <v>187</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="C177" t="s">
         <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="E177" t="s">
         <v>10</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="B178" t="s">
-        <v>329</v>
+        <v>472</v>
       </c>
       <c r="C178" t="s">
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="E178" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>331</v>
+        <v>474</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>41733</v>
+        <v>41738</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>336</v>
       </c>
       <c r="C179" t="s">
         <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>423</v>
+        <v>32</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>41733</v>
+        <v>41738</v>
       </c>
       <c r="B180" t="s">
-        <v>138</v>
+        <v>291</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="E180" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>32</v>
+        <v>450</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>41732</v>
+        <v>41737</v>
       </c>
       <c r="B181" t="s">
         <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="E181" t="s">
         <v>18</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>41731</v>
+        <v>41737</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>406</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="E182" t="s">
         <v>10</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>431</v>
+        <v>327</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>41731</v>
+        <v>41736</v>
       </c>
       <c r="B183" t="s">
-        <v>16</v>
+        <v>438</v>
       </c>
       <c r="C183" t="s">
         <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="E183" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>67</v>
+        <v>434</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>41731</v>
+        <v>41736</v>
       </c>
       <c r="B184" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="C184" t="s">
         <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="E184" t="s">
         <v>10</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>327</v>
+        <v>443</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>41730</v>
+        <v>41736</v>
       </c>
       <c r="B185" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="C185" t="s">
         <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="E185" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>41730</v>
+        <v>41736</v>
       </c>
       <c r="B186" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E186" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>32</v>
+        <v>418</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B187" t="s">
-        <v>209</v>
+        <v>329</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E187" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>41729</v>
+        <v>41733</v>
       </c>
       <c r="B188" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="E188" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>41729</v>
+        <v>41733</v>
       </c>
       <c r="B189" t="s">
-        <v>374</v>
+        <v>138</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="E189" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>41729</v>
+        <v>41732</v>
       </c>
       <c r="B190" t="s">
-        <v>377</v>
+        <v>16</v>
       </c>
       <c r="C190" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="E190" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>62</v>
+        <v>428</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B191" t="s">
-        <v>380</v>
+        <v>13</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="E191" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B192" t="s">
         <v>16</v>
       </c>
       <c r="C192" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="E192" t="s">
         <v>18</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>385</v>
+        <v>67</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="C193" t="s">
         <v>1</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="E193" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>398</v>
+        <v>327</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B194" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C194" t="s">
         <v>1</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="E194" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B195" t="s">
-        <v>392</v>
+        <v>123</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>394</v>
+        <v>32</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -7607,22 +7718,22 @@
         <v>41729</v>
       </c>
       <c r="B196" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="C196" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="E196" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -7630,22 +7741,22 @@
         <v>41729</v>
       </c>
       <c r="B197" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C197" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="E197" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>40</v>
+        <v>372</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -7653,22 +7764,22 @@
         <v>41729</v>
       </c>
       <c r="B198" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="C198" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="E198" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>398</v>
+        <v>59</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -7676,22 +7787,22 @@
         <v>41729</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>377</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>365</v>
+        <v>62</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -7699,602 +7810,602 @@
         <v>41729</v>
       </c>
       <c r="B200" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="C200" t="s">
         <v>1</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B201" t="s">
         <v>16</v>
       </c>
       <c r="C201" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="E201" t="s">
         <v>18</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C202" t="s">
         <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>389</v>
       </c>
       <c r="C203" t="s">
         <v>1</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="E203" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B204" t="s">
-        <v>36</v>
+        <v>392</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="E204" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>37</v>
+        <v>394</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B205" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="E205" t="s">
         <v>2</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B206" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C206" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="E206" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>396</v>
       </c>
       <c r="C207" t="s">
         <v>17</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="E207" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>7</v>
+        <v>398</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>41722</v>
+        <v>41729</v>
       </c>
       <c r="B208" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="E208" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>32</v>
+        <v>365</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>41722</v>
+        <v>41729</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>367</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="E209" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>32</v>
+        <v>369</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>41719</v>
+        <v>41725</v>
       </c>
       <c r="B210" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="C210" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="E210" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>41718</v>
+        <v>41725</v>
       </c>
       <c r="B211" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="E211" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>41718</v>
+        <v>41725</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>41718</v>
+        <v>41724</v>
       </c>
       <c r="B213" t="s">
-        <v>336</v>
+        <v>36</v>
       </c>
       <c r="C213" t="s">
         <v>1</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="E213" t="s">
-        <v>338</v>
+        <v>2</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B214" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E214" t="s">
         <v>2</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B215" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C215" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
       <c r="E215" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>272</v>
+        <v>357</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B216" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C216" t="s">
         <v>17</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>273</v>
+        <v>347</v>
       </c>
       <c r="E216" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="B217" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="E217" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>276</v>
+        <v>343</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="B218" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C218" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="E218" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>277</v>
+        <v>346</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>41717</v>
+        <v>41719</v>
       </c>
       <c r="B219" t="s">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="C219" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="E219" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>280</v>
+        <v>343</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B220" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B221" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C221" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="E221" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>192</v>
+        <v>334</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>33</v>
+        <v>335</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>41716</v>
+        <v>41718</v>
       </c>
       <c r="B222" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="C222" t="s">
         <v>1</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="E222" t="s">
-        <v>6</v>
+        <v>338</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B223" t="s">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="C223" t="s">
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="E223" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B224" t="s">
-        <v>291</v>
+        <v>39</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B225" t="s">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="C225" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>295</v>
+        <v>181</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B226" t="s">
         <v>36</v>
@@ -8303,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="E226" t="s">
         <v>2</v>
@@ -8312,12 +8423,12 @@
         <v>37</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B227" t="s">
         <v>39</v>
@@ -8326,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="E227" t="s">
         <v>2</v>
@@ -8335,12 +8446,12 @@
         <v>40</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B228" t="s">
         <v>42</v>
@@ -8349,131 +8460,131 @@
         <v>17</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="E228" t="s">
         <v>43</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B229" t="s">
-        <v>36</v>
+        <v>281</v>
       </c>
       <c r="C229" t="s">
         <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="E229" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>37</v>
+        <v>283</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B230" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C230" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="E230" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>305</v>
+        <v>33</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B231" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="C231" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E231" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>307</v>
+        <v>32</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B232" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C232" t="s">
         <v>1</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="E232" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B233" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E233" t="s">
         <v>10</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>315</v>
+        <v>33</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -8481,22 +8592,22 @@
         <v>41715</v>
       </c>
       <c r="B234" t="s">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="C234" t="s">
         <v>1</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E234" t="s">
         <v>10</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -8504,22 +8615,22 @@
         <v>41715</v>
       </c>
       <c r="B235" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C235" t="s">
         <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>320</v>
+        <v>37</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -8527,22 +8638,22 @@
         <v>41715</v>
       </c>
       <c r="B236" t="s">
-        <v>322</v>
+        <v>39</v>
       </c>
       <c r="C236" t="s">
         <v>1</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -8550,671 +8661,671 @@
         <v>41715</v>
       </c>
       <c r="B237" t="s">
-        <v>325</v>
+        <v>42</v>
       </c>
       <c r="C237" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B238" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C238" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="E238" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B239" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C239" t="s">
         <v>1</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="E239" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>41709</v>
+        <v>41715</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C240" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="E240" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B241" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="C241" t="s">
         <v>1</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="E241" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B242" t="s">
-        <v>13</v>
+        <v>312</v>
       </c>
       <c r="C242" t="s">
         <v>1</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="E242" t="s">
         <v>10</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B243" t="s">
-        <v>246</v>
+        <v>316</v>
       </c>
       <c r="C243" t="s">
         <v>1</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="E243" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>59</v>
+        <v>318</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B244" t="s">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c r="C244" t="s">
         <v>1</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="E244" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>251</v>
+        <v>321</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B245" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="C245" t="s">
         <v>1</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="E245" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B246" t="s">
-        <v>30</v>
+        <v>325</v>
       </c>
       <c r="C246" t="s">
         <v>1</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
       <c r="E246" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>242</v>
+        <v>328</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>41705</v>
+        <v>41712</v>
       </c>
       <c r="B247" t="s">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="C247" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="E247" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>41703</v>
+        <v>41711</v>
       </c>
       <c r="B248" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C248" t="s">
         <v>1</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="E248" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>41703</v>
+        <v>41709</v>
       </c>
       <c r="B249" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="C249" t="s">
         <v>1</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E249" t="s">
         <v>10</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B250" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="C250" t="s">
         <v>1</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="E250" t="s">
         <v>10</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B251" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="C251" t="s">
         <v>1</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="E251" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B252" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="C252" t="s">
         <v>1</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="E252" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>41698</v>
+        <v>41708</v>
       </c>
       <c r="B253" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="C253" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="E253" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>41698</v>
+        <v>41708</v>
       </c>
       <c r="B254" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="C254" t="s">
         <v>1</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>41698</v>
+        <v>41708</v>
       </c>
       <c r="B255" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="C255" t="s">
         <v>1</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="E255" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>41697</v>
+        <v>41705</v>
       </c>
       <c r="B256" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="C256" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="E256" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>41696</v>
+        <v>41703</v>
       </c>
       <c r="B257" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C257" t="s">
         <v>1</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E257" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>41696</v>
+        <v>41703</v>
       </c>
       <c r="B258" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="C258" t="s">
         <v>1</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E258" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>41696</v>
+        <v>41703</v>
       </c>
       <c r="B259" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C259" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E259" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>41690</v>
+        <v>41703</v>
       </c>
       <c r="B260" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="C260" t="s">
         <v>1</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="E260" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>41689</v>
+        <v>41703</v>
       </c>
       <c r="B261" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C261" t="s">
         <v>1</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E261" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>41689</v>
+        <v>41698</v>
       </c>
       <c r="B262" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="C262" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E262" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>41689</v>
+        <v>41698</v>
       </c>
       <c r="B263" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C263" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E263" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>41689</v>
+        <v>41698</v>
       </c>
       <c r="B264" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C264" t="s">
         <v>1</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E264" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>41687</v>
+        <v>41697</v>
       </c>
       <c r="B265" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="C265" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="E265" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B266" t="s">
         <v>36</v>
@@ -9223,7 +9334,7 @@
         <v>1</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E266" t="s">
         <v>2</v>
@@ -9232,12 +9343,12 @@
         <v>37</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B267" t="s">
         <v>39</v>
@@ -9246,7 +9357,7 @@
         <v>1</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E267" t="s">
         <v>2</v>
@@ -9255,12 +9366,12 @@
         <v>40</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B268" t="s">
         <v>42</v>
@@ -9269,297 +9380,297 @@
         <v>17</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="E268" t="s">
         <v>43</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>41687</v>
+        <v>41690</v>
       </c>
       <c r="B269" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C269" t="s">
         <v>1</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E269" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B270" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C270" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E270" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>41684</v>
+        <v>41689</v>
       </c>
       <c r="B271" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="C271" t="s">
         <v>1</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E271" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>41684</v>
+        <v>41689</v>
       </c>
       <c r="B272" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C272" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E272" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>41682</v>
+        <v>41689</v>
       </c>
       <c r="B273" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="C273" t="s">
         <v>1</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="E273" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B274" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="C274" t="s">
         <v>1</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="E274" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B275" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="C275" t="s">
         <v>1</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="E275" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B276" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C276" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E276" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B277" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C277" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E277" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B278" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C278" t="s">
         <v>1</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="E278" t="s">
         <v>10</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="G278" s="3" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B279" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C279" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="E279" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="G279" s="3" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B280" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C280" t="s">
         <v>1</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="E280" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>41680</v>
+        <v>41684</v>
       </c>
       <c r="B281" t="s">
         <v>30</v>
@@ -9568,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="E281" t="s">
         <v>31</v>
@@ -9577,104 +9688,104 @@
         <v>32</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>41680</v>
+        <v>41682</v>
       </c>
       <c r="B282" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C282" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E282" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B283" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C283" t="s">
         <v>1</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="E283" t="s">
         <v>58</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B284" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="C284" t="s">
         <v>1</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E284" t="s">
         <v>58</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B285" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C285" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="E285" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B286" t="s">
         <v>13</v>
@@ -9683,113 +9794,113 @@
         <v>1</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="E286" t="s">
         <v>10</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B287" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C287" t="s">
         <v>1</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="E287" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B288" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C288" t="s">
         <v>1</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E288" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B289" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C289" t="s">
         <v>1</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="E289" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B290" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="C290" t="s">
         <v>1</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="E290" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>41675</v>
+        <v>41680</v>
       </c>
       <c r="B291" t="s">
         <v>16</v>
@@ -9798,205 +9909,205 @@
         <v>17</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E291" t="s">
         <v>18</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B292" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C292" t="s">
         <v>1</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="E292" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B293" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="C293" t="s">
         <v>1</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E293" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B294" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="C294" t="s">
         <v>1</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E294" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B295" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C295" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E295" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>41670</v>
+        <v>41676</v>
       </c>
       <c r="B296" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C296" t="s">
         <v>1</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="E296" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>41670</v>
+        <v>41676</v>
       </c>
       <c r="B297" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C297" t="s">
         <v>1</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E297" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>41663</v>
+        <v>41676</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C298" t="s">
         <v>1</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E298" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>41662</v>
+        <v>41676</v>
       </c>
       <c r="B299" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C299" t="s">
         <v>1</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E299" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>41661</v>
+        <v>41675</v>
       </c>
       <c r="B300" t="s">
         <v>16</v>
@@ -10005,544 +10116,751 @@
         <v>17</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="E300" t="s">
         <v>18</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="G300" s="3" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>41656</v>
+        <v>41674</v>
       </c>
       <c r="B301" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="C301" t="s">
         <v>1</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="E301" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B302" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C302" t="s">
         <v>1</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E302" t="s">
         <v>2</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G302" s="3" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B303" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C303" t="s">
         <v>1</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E303" t="s">
         <v>2</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B304" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C304" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E304" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>41654</v>
+        <v>41670</v>
       </c>
       <c r="B305" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C305" t="s">
         <v>1</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E305" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>41653</v>
+        <v>41670</v>
       </c>
       <c r="B306" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C306" t="s">
         <v>1</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E306" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>41653</v>
+        <v>41663</v>
       </c>
       <c r="B307" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C307" t="s">
         <v>1</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E307" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>41653</v>
+        <v>41662</v>
       </c>
       <c r="B308" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C308" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E308" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>41652</v>
+        <v>41661</v>
       </c>
       <c r="B309" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C309" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E309" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>41652</v>
+        <v>41656</v>
       </c>
       <c r="B310" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C310" t="s">
         <v>1</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E310" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B311" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C311" t="s">
         <v>1</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E311" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B312" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C312" t="s">
         <v>1</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E312" t="s">
         <v>2</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B313" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C313" t="s">
         <v>1</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E313" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G313" s="3" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B314" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C314" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E314" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="G314" s="3" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B315" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C315" t="s">
         <v>1</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E315" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G315" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B316" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C316" t="s">
         <v>1</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E316" t="s">
         <v>2</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G316" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B317" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C317" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E317" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B318" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C318" t="s">
         <v>1</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E318" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G318" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B319" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C319" t="s">
         <v>1</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E319" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="G319" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B320" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C320" t="s">
         <v>1</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E320" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="G320" s="3" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B321" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C321" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E321" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G321" s="3" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B322" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C322" t="s">
         <v>1</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E322" t="s">
         <v>2</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G322" s="3" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B323" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C323" t="s">
         <v>17</v>
       </c>
       <c r="D323" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E323" t="s">
+        <v>43</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G323" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B324" t="s">
+        <v>16</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E324" t="s">
+        <v>18</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G324" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B325" t="s">
+        <v>52</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E325" t="s">
+        <v>2</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B326" t="s">
+        <v>39</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E326" t="s">
+        <v>2</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B327" t="s">
+        <v>57</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E327" t="s">
+        <v>58</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G327" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B328" t="s">
+        <v>61</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E328" t="s">
+        <v>58</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G328" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B329" t="s">
+        <v>64</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E329" t="s">
+        <v>58</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G329" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B330" t="s">
+        <v>16</v>
+      </c>
+      <c r="C330" t="s">
+        <v>17</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E330" t="s">
+        <v>18</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G330" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B331" t="s">
+        <v>69</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E331" t="s">
+        <v>2</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B332" t="s">
+        <v>16</v>
+      </c>
+      <c r="C332" t="s">
+        <v>17</v>
+      </c>
+      <c r="D332" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E323" t="s">
+      <c r="E332" t="s">
         <v>18</v>
       </c>
-      <c r="F323" s="3" t="s">
+      <c r="F332" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G323" s="3" t="s">
+      <c r="G332" s="3" t="s">
         <v>72</v>
       </c>
     </row>
